--- a/HW1/results/v1/DecisionTreeClassifier/random/calculationsAndCharts.xlsx
+++ b/HW1/results/v1/DecisionTreeClassifier/random/calculationsAndCharts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\donts\Documents\Files\AutoML\HW1\repo\AutoML\HW1\results\v1\DecisionTreeClassifier\random\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9258B3F-EAEA-499E-B26D-66FB83DCAA2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7BCAC6E-0B6D-408C-AA0F-5DCFF02EE03C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="6" activeTab="8" xr2:uid="{5557167C-0605-4BD0-8448-1B4F42F20281}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" firstSheet="4" activeTab="5" xr2:uid="{5557167C-0605-4BD0-8448-1B4F42F20281}"/>
   </bookViews>
   <sheets>
     <sheet name="PhishingWebsites" sheetId="5" r:id="rId1"/>
@@ -18,12 +18,31 @@
     <sheet name="MagicTelescope" sheetId="3" r:id="rId3"/>
     <sheet name="elevators" sheetId="2" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
-    <sheet name="elevator chart" sheetId="6" r:id="rId6"/>
-    <sheet name="telescope chart" sheetId="7" r:id="rId7"/>
-    <sheet name="phishing chart" sheetId="8" r:id="rId8"/>
-    <sheet name="mozilla chart" sheetId="9" r:id="rId9"/>
+    <sheet name="boxplot" sheetId="10" r:id="rId6"/>
+    <sheet name="elevator chart" sheetId="6" r:id="rId7"/>
+    <sheet name="telescope chart" sheetId="7" r:id="rId8"/>
+    <sheet name="phishing chart" sheetId="8" r:id="rId9"/>
+    <sheet name="mozilla chart" sheetId="9" r:id="rId10"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$L$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$L$1:$O$1</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$L$1:$O$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$L$2:$L$51</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$M$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$M$2:$M$51</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$N$1</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$N$2:$N$51</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$O$1</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$O$2:$O$51</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$L$2:$L$51</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$M$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$M$2:$M$51</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$N$1</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$N$2:$N$51</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$O$1</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$O$2:$O$51</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$L$1</definedName>
     <definedName name="ExternalData_1" localSheetId="3" hidden="1">elevators!$A$1:$V$51</definedName>
     <definedName name="ExternalData_2" localSheetId="2" hidden="1">MagicTelescope!$A$1:$V$51</definedName>
     <definedName name="ExternalData_3" localSheetId="1" hidden="1">mozilla4!$A$1:$V$51</definedName>
@@ -67,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="96">
   <si>
     <t>Column1</t>
   </si>
@@ -335,6 +354,27 @@
   <si>
     <t>phishing</t>
   </si>
+  <si>
+    <t>elevators</t>
+  </si>
+  <si>
+    <t>telescope</t>
+  </si>
+  <si>
+    <t>mozilla</t>
+  </si>
+  <si>
+    <t>cummulate</t>
+  </si>
+  <si>
+    <t>MagicTelescope</t>
+  </si>
+  <si>
+    <t>mozilla4</t>
+  </si>
+  <si>
+    <t>PhishingWebsites</t>
+  </si>
 </sst>
 </file>
 
@@ -369,9 +409,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,6 +501,82 @@
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
       <c14:style val="102"/>
@@ -868,7 +983,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$P$9:$P$10</c:f>
+              <c:f>Sheet1!$R$9:$R$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -883,7 +998,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Q$9:$Q$10</c:f>
+              <c:f>Sheet1!$S$9:$S$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1191,6 +1306,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1166212288"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -1240,7 +1356,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2375,7 +2491,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-3D47-4205-9510-EB8FE35A4732}"/>
                   </c:ext>
@@ -2758,7 +2874,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-3D47-4205-9510-EB8FE35A4732}"/>
                   </c:ext>
@@ -2795,7 +2911,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$P$13:$P$14</c:f>
+              <c:f>Sheet1!$R$13:$R$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2810,7 +2926,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Q$9:$Q$10</c:f>
+              <c:f>Sheet1!$S$9:$S$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -3197,7 +3313,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4332,7 +4448,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-F136-43CA-9F03-BBD1BDD8116A}"/>
                   </c:ext>
@@ -4715,7 +4831,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-F136-43CA-9F03-BBD1BDD8116A}"/>
                   </c:ext>
@@ -4752,7 +4868,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$P$21:$P$22</c:f>
+              <c:f>Sheet1!$R$21:$R$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -4767,7 +4883,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Q$9:$Q$10</c:f>
+              <c:f>Sheet1!$S$9:$S$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5154,7 +5270,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5806,6 +5922,101 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.11</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.13</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.15</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.17</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{08480053-DB8D-41F1-B052-F987FD1A5AF4}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.9</cx:f>
+              <cx:v>elevators</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{088522FA-4E8F-462C-AAA0-FD991C8222DB}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.12</cx:f>
+              <cx:v>MagicTelescope</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{CA1BE64D-B77E-476C-978D-AD7608AE2F16}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.14</cx:f>
+              <cx:v>mozilla4</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{41F18BAC-5EC7-4531-80A4-0959B57FBB9F}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.16</cx:f>
+              <cx:v>PhishingWebsites</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0" hidden="1">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="b" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -5966,8 +6177,48 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5978,7 +6229,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -6001,7 +6252,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
@@ -6024,7 +6275,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="1000"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -6032,11 +6283,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -6061,14 +6312,16 @@
         </a:solidFill>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -6079,11 +6332,16 @@
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -6100,7 +6358,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -6115,10 +6373,8 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -6131,7 +6387,7 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="lt1"/>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
@@ -6141,13 +6397,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -6166,18 +6422,16 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:dataTable>
   <cs:downBar>
     <cs:lnRef idx="0"/>
@@ -6248,12 +6502,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -6285,8 +6533,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6341,7 +6589,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:legend>
   <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
@@ -6369,7 +6617,18 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
   </cs:seriesAxis>
   <cs:seriesLine>
     <cs:lnRef idx="0"/>
@@ -6379,12 +6638,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
+          <a:srgbClr val="D9D9D9"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -6400,7 +6656,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -6416,7 +6672,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -6430,7 +6686,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -6463,7 +6719,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
@@ -6472,12 +6728,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -8030,7 +8280,534 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{1F092FD3-9BB4-47B2-B017-23B18CF630F2}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="59" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{2920DEEF-4721-476A-B5CF-CD5249DD2B9B}">
   <sheetPr/>
   <sheetViews>
@@ -8041,7 +8818,7 @@
 </chartsheet>
 </file>
 
-<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{65802B8A-B8BC-4D5A-9DC7-D1ACCFFB5065}">
   <sheetPr/>
   <sheetViews>
@@ -8052,7 +8829,7 @@
 </chartsheet>
 </file>
 
-<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{A823BD7F-7B3D-490E-8599-AC852B951D66}">
   <sheetPr/>
   <sheetViews>
@@ -8063,11 +8840,11 @@
 </chartsheet>
 </file>
 
-<file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/chartsheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{05CD9FE8-9A9F-4C19-A300-376F493109C2}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8079,6 +8856,117 @@
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
     <xdr:ext cx="8657167" cy="6286500"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58FF63CB-97BC-2630-CD7E-355641E942E7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr>
+              <a:graphicFrameLocks/>
+            </xdr:cNvGraphicFramePr>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+              <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC592C65-2BE7-2C58-C837-36689F2295E0}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr>
+          <a:spLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noTextEdit="1"/>
+        </cdr:cNvSpPr>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="0" y="0"/>
+          <a:ext cx="8657167" cy="6286500"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstClr val="white"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="1">
+          <a:solidFill>
+            <a:prstClr val="green"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" horzOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1100"/>
+            <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8654143" cy="6277429"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -8107,11 +8995,11 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8657167" cy="6286500"/>
+    <xdr:ext cx="8654143" cy="6277429"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -8140,11 +9028,11 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8657167" cy="6286500"/>
+    <xdr:ext cx="8654143" cy="6277429"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -8173,11 +9061,11 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8657167" cy="6286500"/>
+    <xdr:ext cx="8654143" cy="6277429"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -8342,7 +9230,7 @@
     <tableColumn id="6" xr3:uid="{EEAD5D32-3E6B-452C-B989-6CB8DBCF116A}" uniqueName="6" name="param_model__max_depth" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{637D9482-394A-4D7F-822C-2E8CA18153BB}" uniqueName="7" name="param_model__min_samples_leaf" queryTableFieldId="7"/>
     <tableColumn id="8" xr3:uid="{2B502AA1-F923-4A87-902C-46F9B5F2DDB6}" uniqueName="8" name="param_model__min_samples_split" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{CA0679ED-33C6-44CC-B2BF-FDA06FFB42B1}" uniqueName="9" name="params" queryTableFieldId="9" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{CA0679ED-33C6-44CC-B2BF-FDA06FFB42B1}" uniqueName="9" name="params" queryTableFieldId="9" dataDxfId="8"/>
     <tableColumn id="10" xr3:uid="{C4B2F8CF-32F2-4F97-97E8-2B880862D3EF}" uniqueName="10" name="split0_test_score" queryTableFieldId="10"/>
     <tableColumn id="11" xr3:uid="{B07C7E56-F766-4622-9127-006E03A2AE4B}" uniqueName="11" name="split1_test_score" queryTableFieldId="11"/>
     <tableColumn id="12" xr3:uid="{6A08D0C3-F8A9-46D7-BFDE-D0AD0C2CE8AC}" uniqueName="12" name="split2_test_score" queryTableFieldId="12"/>
@@ -8373,7 +9261,7 @@
     <tableColumn id="6" xr3:uid="{B53BE787-C40F-4E0E-B387-2FBE008979BB}" uniqueName="6" name="param_model__max_depth" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{3064DE41-129D-479E-BE65-F347EDBCF815}" uniqueName="7" name="param_model__min_samples_leaf" queryTableFieldId="7"/>
     <tableColumn id="8" xr3:uid="{E846947F-986E-49FF-B018-C2BF61415071}" uniqueName="8" name="param_model__min_samples_split" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{907D8A3B-5BC7-411E-A081-1D427E24D29D}" uniqueName="9" name="params" queryTableFieldId="9" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{907D8A3B-5BC7-411E-A081-1D427E24D29D}" uniqueName="9" name="params" queryTableFieldId="9" dataDxfId="7"/>
     <tableColumn id="10" xr3:uid="{AF0A5CEB-450E-435C-951C-DC555DB00DB3}" uniqueName="10" name="split0_test_score" queryTableFieldId="10"/>
     <tableColumn id="11" xr3:uid="{595787E0-D234-46D5-BCB4-2364521EA6B1}" uniqueName="11" name="split1_test_score" queryTableFieldId="11"/>
     <tableColumn id="12" xr3:uid="{C8E57173-FCF7-4109-8965-1CF496ADE0C4}" uniqueName="12" name="split2_test_score" queryTableFieldId="12"/>
@@ -8404,7 +9292,7 @@
     <tableColumn id="6" xr3:uid="{26F2D8DC-4FC3-496A-9E4D-9DDD5489588C}" uniqueName="6" name="param_model__max_depth" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{94358387-69CC-43A2-BBE3-1BF8CCDDC347}" uniqueName="7" name="param_model__min_samples_leaf" queryTableFieldId="7"/>
     <tableColumn id="8" xr3:uid="{AA96A8DA-0F6F-42E0-9BDA-F97AD7AC1291}" uniqueName="8" name="param_model__min_samples_split" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{9056836B-16E6-46C9-A248-8ABC63214E1C}" uniqueName="9" name="params" queryTableFieldId="9" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{9056836B-16E6-46C9-A248-8ABC63214E1C}" uniqueName="9" name="params" queryTableFieldId="9" dataDxfId="6"/>
     <tableColumn id="10" xr3:uid="{7D0B3ABC-B7BA-41DC-B00B-B2386536C7DA}" uniqueName="10" name="split0_test_score" queryTableFieldId="10"/>
     <tableColumn id="11" xr3:uid="{44B0B0C5-E3C0-4428-9504-67628C1DC606}" uniqueName="11" name="split1_test_score" queryTableFieldId="11"/>
     <tableColumn id="12" xr3:uid="{6753DFA0-6056-47F3-8B6A-14EB6B0A4249}" uniqueName="12" name="split2_test_score" queryTableFieldId="12"/>
@@ -8435,7 +9323,7 @@
     <tableColumn id="6" xr3:uid="{AC03BB40-2C61-42B6-A815-177C3A7C99B9}" uniqueName="6" name="param_model__max_depth" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{69731059-7776-4D74-926B-50D30F80DB1D}" uniqueName="7" name="param_model__min_samples_leaf" queryTableFieldId="7"/>
     <tableColumn id="8" xr3:uid="{2BD07CC4-3472-4C69-AD3B-7C4545EF8066}" uniqueName="8" name="param_model__min_samples_split" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{7B85D846-478F-4FC5-8EC5-0A34A7CDA65B}" uniqueName="9" name="params" queryTableFieldId="9" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{7B85D846-478F-4FC5-8EC5-0A34A7CDA65B}" uniqueName="9" name="params" queryTableFieldId="9" dataDxfId="5"/>
     <tableColumn id="10" xr3:uid="{FCE6458A-667C-427C-B3A0-E4527B26F2A9}" uniqueName="10" name="split0_test_score" queryTableFieldId="10"/>
     <tableColumn id="11" xr3:uid="{BA80DCF4-69BD-47E7-A6A3-CF347E10B1DA}" uniqueName="11" name="split1_test_score" queryTableFieldId="11"/>
     <tableColumn id="12" xr3:uid="{EB71F1E1-C6C2-4351-AD84-2EDC6CFCA438}" uniqueName="12" name="split2_test_score" queryTableFieldId="12"/>
@@ -8867,7 +9755,7 @@
       <c r="H2">
         <v>30</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" t="s">
         <v>22</v>
       </c>
       <c r="J2">
@@ -8935,7 +9823,7 @@
       <c r="H3">
         <v>9</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3">
@@ -9003,7 +9891,7 @@
       <c r="H4">
         <v>40</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" t="s">
         <v>24</v>
       </c>
       <c r="J4">
@@ -9071,7 +9959,7 @@
       <c r="H5">
         <v>24</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" t="s">
         <v>25</v>
       </c>
       <c r="J5">
@@ -9139,7 +10027,7 @@
       <c r="H6">
         <v>25</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" t="s">
         <v>26</v>
       </c>
       <c r="J6">
@@ -9207,7 +10095,7 @@
       <c r="H7">
         <v>41</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" t="s">
         <v>27</v>
       </c>
       <c r="J7">
@@ -9275,7 +10163,7 @@
       <c r="H8">
         <v>23</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" t="s">
         <v>28</v>
       </c>
       <c r="J8">
@@ -9343,7 +10231,7 @@
       <c r="H9">
         <v>25</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" t="s">
         <v>29</v>
       </c>
       <c r="J9">
@@ -9411,7 +10299,7 @@
       <c r="H10">
         <v>39</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" t="s">
         <v>30</v>
       </c>
       <c r="J10">
@@ -9479,7 +10367,7 @@
       <c r="H11">
         <v>22</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" t="s">
         <v>31</v>
       </c>
       <c r="J11">
@@ -9547,7 +10435,7 @@
       <c r="H12">
         <v>59</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" t="s">
         <v>32</v>
       </c>
       <c r="J12">
@@ -9615,7 +10503,7 @@
       <c r="H13">
         <v>26</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" t="s">
         <v>33</v>
       </c>
       <c r="J13">
@@ -9683,7 +10571,7 @@
       <c r="H14">
         <v>60</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" t="s">
         <v>34</v>
       </c>
       <c r="J14">
@@ -9751,7 +10639,7 @@
       <c r="H15">
         <v>17</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" t="s">
         <v>35</v>
       </c>
       <c r="J15">
@@ -9819,7 +10707,7 @@
       <c r="H16">
         <v>52</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" t="s">
         <v>36</v>
       </c>
       <c r="J16">
@@ -9887,7 +10775,7 @@
       <c r="H17">
         <v>53</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" t="s">
         <v>37</v>
       </c>
       <c r="J17">
@@ -9955,7 +10843,7 @@
       <c r="H18">
         <v>38</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" t="s">
         <v>38</v>
       </c>
       <c r="J18">
@@ -10023,7 +10911,7 @@
       <c r="H19">
         <v>22</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19" t="s">
         <v>39</v>
       </c>
       <c r="J19">
@@ -10091,7 +10979,7 @@
       <c r="H20">
         <v>19</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I20" t="s">
         <v>40</v>
       </c>
       <c r="J20">
@@ -10159,7 +11047,7 @@
       <c r="H21">
         <v>15</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I21" t="s">
         <v>41</v>
       </c>
       <c r="J21">
@@ -10227,7 +11115,7 @@
       <c r="H22">
         <v>10</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I22" t="s">
         <v>42</v>
       </c>
       <c r="J22">
@@ -10295,7 +11183,7 @@
       <c r="H23">
         <v>3</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="I23" t="s">
         <v>43</v>
       </c>
       <c r="J23">
@@ -10363,7 +11251,7 @@
       <c r="H24">
         <v>48</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="I24" t="s">
         <v>44</v>
       </c>
       <c r="J24">
@@ -10431,7 +11319,7 @@
       <c r="H25">
         <v>45</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="I25" t="s">
         <v>45</v>
       </c>
       <c r="J25">
@@ -10499,7 +11387,7 @@
       <c r="H26">
         <v>48</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="I26" t="s">
         <v>46</v>
       </c>
       <c r="J26">
@@ -10567,7 +11455,7 @@
       <c r="H27">
         <v>18</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="I27" t="s">
         <v>47</v>
       </c>
       <c r="J27">
@@ -10635,7 +11523,7 @@
       <c r="H28">
         <v>41</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="I28" t="s">
         <v>48</v>
       </c>
       <c r="J28">
@@ -10703,7 +11591,7 @@
       <c r="H29">
         <v>7</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="I29" t="s">
         <v>49</v>
       </c>
       <c r="J29">
@@ -10771,7 +11659,7 @@
       <c r="H30">
         <v>5</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="I30" t="s">
         <v>50</v>
       </c>
       <c r="J30">
@@ -10839,7 +11727,7 @@
       <c r="H31">
         <v>19</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="I31" t="s">
         <v>51</v>
       </c>
       <c r="J31">
@@ -10907,7 +11795,7 @@
       <c r="H32">
         <v>35</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="I32" t="s">
         <v>52</v>
       </c>
       <c r="J32">
@@ -10975,7 +11863,7 @@
       <c r="H33">
         <v>15</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="I33" t="s">
         <v>53</v>
       </c>
       <c r="J33">
@@ -11043,7 +11931,7 @@
       <c r="H34">
         <v>9</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="I34" t="s">
         <v>54</v>
       </c>
       <c r="J34">
@@ -11111,7 +11999,7 @@
       <c r="H35">
         <v>58</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="I35" t="s">
         <v>55</v>
       </c>
       <c r="J35">
@@ -11179,7 +12067,7 @@
       <c r="H36">
         <v>22</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="I36" t="s">
         <v>56</v>
       </c>
       <c r="J36">
@@ -11247,7 +12135,7 @@
       <c r="H37">
         <v>19</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="I37" t="s">
         <v>57</v>
       </c>
       <c r="J37">
@@ -11315,7 +12203,7 @@
       <c r="H38">
         <v>25</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="I38" t="s">
         <v>58</v>
       </c>
       <c r="J38">
@@ -11383,7 +12271,7 @@
       <c r="H39">
         <v>46</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="I39" t="s">
         <v>59</v>
       </c>
       <c r="J39">
@@ -11451,7 +12339,7 @@
       <c r="H40">
         <v>16</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="I40" t="s">
         <v>60</v>
       </c>
       <c r="J40">
@@ -11519,7 +12407,7 @@
       <c r="H41">
         <v>26</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="I41" t="s">
         <v>61</v>
       </c>
       <c r="J41">
@@ -11587,7 +12475,7 @@
       <c r="H42">
         <v>25</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="I42" t="s">
         <v>62</v>
       </c>
       <c r="J42">
@@ -11655,7 +12543,7 @@
       <c r="H43">
         <v>9</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="I43" t="s">
         <v>63</v>
       </c>
       <c r="J43">
@@ -11723,7 +12611,7 @@
       <c r="H44">
         <v>52</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="I44" t="s">
         <v>64</v>
       </c>
       <c r="J44">
@@ -11791,7 +12679,7 @@
       <c r="H45">
         <v>36</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="I45" t="s">
         <v>65</v>
       </c>
       <c r="J45">
@@ -11859,7 +12747,7 @@
       <c r="H46">
         <v>60</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="I46" t="s">
         <v>66</v>
       </c>
       <c r="J46">
@@ -11927,7 +12815,7 @@
       <c r="H47">
         <v>40</v>
       </c>
-      <c r="I47" s="1" t="s">
+      <c r="I47" t="s">
         <v>67</v>
       </c>
       <c r="J47">
@@ -11995,7 +12883,7 @@
       <c r="H48">
         <v>29</v>
       </c>
-      <c r="I48" s="1" t="s">
+      <c r="I48" t="s">
         <v>68</v>
       </c>
       <c r="J48">
@@ -12063,7 +12951,7 @@
       <c r="H49">
         <v>9</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="I49" t="s">
         <v>69</v>
       </c>
       <c r="J49">
@@ -12131,7 +13019,7 @@
       <c r="H50">
         <v>34</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="I50" t="s">
         <v>70</v>
       </c>
       <c r="J50">
@@ -12199,7 +13087,7 @@
       <c r="H51">
         <v>24</v>
       </c>
-      <c r="I51" s="1" t="s">
+      <c r="I51" t="s">
         <v>71</v>
       </c>
       <c r="J51">
@@ -12366,7 +13254,7 @@
       <c r="H2">
         <v>30</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" t="s">
         <v>22</v>
       </c>
       <c r="J2">
@@ -12434,7 +13322,7 @@
       <c r="H3">
         <v>9</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3">
@@ -12502,7 +13390,7 @@
       <c r="H4">
         <v>40</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" t="s">
         <v>24</v>
       </c>
       <c r="J4">
@@ -12570,7 +13458,7 @@
       <c r="H5">
         <v>24</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" t="s">
         <v>25</v>
       </c>
       <c r="J5">
@@ -12638,7 +13526,7 @@
       <c r="H6">
         <v>25</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" t="s">
         <v>26</v>
       </c>
       <c r="J6">
@@ -12706,7 +13594,7 @@
       <c r="H7">
         <v>41</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" t="s">
         <v>27</v>
       </c>
       <c r="J7">
@@ -12774,7 +13662,7 @@
       <c r="H8">
         <v>23</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" t="s">
         <v>28</v>
       </c>
       <c r="J8">
@@ -12842,7 +13730,7 @@
       <c r="H9">
         <v>25</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" t="s">
         <v>29</v>
       </c>
       <c r="J9">
@@ -12910,7 +13798,7 @@
       <c r="H10">
         <v>39</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" t="s">
         <v>30</v>
       </c>
       <c r="J10">
@@ -12978,7 +13866,7 @@
       <c r="H11">
         <v>22</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" t="s">
         <v>31</v>
       </c>
       <c r="J11">
@@ -13046,7 +13934,7 @@
       <c r="H12">
         <v>59</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" t="s">
         <v>32</v>
       </c>
       <c r="J12">
@@ -13114,7 +14002,7 @@
       <c r="H13">
         <v>26</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" t="s">
         <v>33</v>
       </c>
       <c r="J13">
@@ -13182,7 +14070,7 @@
       <c r="H14">
         <v>60</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" t="s">
         <v>34</v>
       </c>
       <c r="J14">
@@ -13250,7 +14138,7 @@
       <c r="H15">
         <v>17</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" t="s">
         <v>35</v>
       </c>
       <c r="J15">
@@ -13318,7 +14206,7 @@
       <c r="H16">
         <v>52</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" t="s">
         <v>36</v>
       </c>
       <c r="J16">
@@ -13386,7 +14274,7 @@
       <c r="H17">
         <v>53</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" t="s">
         <v>37</v>
       </c>
       <c r="J17">
@@ -13454,7 +14342,7 @@
       <c r="H18">
         <v>38</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" t="s">
         <v>38</v>
       </c>
       <c r="J18">
@@ -13522,7 +14410,7 @@
       <c r="H19">
         <v>22</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19" t="s">
         <v>39</v>
       </c>
       <c r="J19">
@@ -13590,7 +14478,7 @@
       <c r="H20">
         <v>19</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I20" t="s">
         <v>40</v>
       </c>
       <c r="J20">
@@ -13658,7 +14546,7 @@
       <c r="H21">
         <v>15</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I21" t="s">
         <v>41</v>
       </c>
       <c r="J21">
@@ -13726,7 +14614,7 @@
       <c r="H22">
         <v>10</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I22" t="s">
         <v>42</v>
       </c>
       <c r="J22">
@@ -13794,7 +14682,7 @@
       <c r="H23">
         <v>3</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="I23" t="s">
         <v>43</v>
       </c>
       <c r="J23">
@@ -13862,7 +14750,7 @@
       <c r="H24">
         <v>48</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="I24" t="s">
         <v>44</v>
       </c>
       <c r="J24">
@@ -13930,7 +14818,7 @@
       <c r="H25">
         <v>45</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="I25" t="s">
         <v>45</v>
       </c>
       <c r="J25">
@@ -13998,7 +14886,7 @@
       <c r="H26">
         <v>48</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="I26" t="s">
         <v>46</v>
       </c>
       <c r="J26">
@@ -14066,7 +14954,7 @@
       <c r="H27">
         <v>18</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="I27" t="s">
         <v>47</v>
       </c>
       <c r="J27">
@@ -14134,7 +15022,7 @@
       <c r="H28">
         <v>41</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="I28" t="s">
         <v>48</v>
       </c>
       <c r="J28">
@@ -14202,7 +15090,7 @@
       <c r="H29">
         <v>7</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="I29" t="s">
         <v>49</v>
       </c>
       <c r="J29">
@@ -14270,7 +15158,7 @@
       <c r="H30">
         <v>5</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="I30" t="s">
         <v>50</v>
       </c>
       <c r="J30">
@@ -14338,7 +15226,7 @@
       <c r="H31">
         <v>19</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="I31" t="s">
         <v>51</v>
       </c>
       <c r="J31">
@@ -14406,7 +15294,7 @@
       <c r="H32">
         <v>35</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="I32" t="s">
         <v>52</v>
       </c>
       <c r="J32">
@@ -14474,7 +15362,7 @@
       <c r="H33">
         <v>15</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="I33" t="s">
         <v>53</v>
       </c>
       <c r="J33">
@@ -14542,7 +15430,7 @@
       <c r="H34">
         <v>9</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="I34" t="s">
         <v>54</v>
       </c>
       <c r="J34">
@@ -14610,7 +15498,7 @@
       <c r="H35">
         <v>58</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="I35" t="s">
         <v>55</v>
       </c>
       <c r="J35">
@@ -14678,7 +15566,7 @@
       <c r="H36">
         <v>22</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="I36" t="s">
         <v>56</v>
       </c>
       <c r="J36">
@@ -14746,7 +15634,7 @@
       <c r="H37">
         <v>19</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="I37" t="s">
         <v>57</v>
       </c>
       <c r="J37">
@@ -14814,7 +15702,7 @@
       <c r="H38">
         <v>25</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="I38" t="s">
         <v>58</v>
       </c>
       <c r="J38">
@@ -14882,7 +15770,7 @@
       <c r="H39">
         <v>46</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="I39" t="s">
         <v>59</v>
       </c>
       <c r="J39">
@@ -14950,7 +15838,7 @@
       <c r="H40">
         <v>16</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="I40" t="s">
         <v>60</v>
       </c>
       <c r="J40">
@@ -15018,7 +15906,7 @@
       <c r="H41">
         <v>26</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="I41" t="s">
         <v>61</v>
       </c>
       <c r="J41">
@@ -15086,7 +15974,7 @@
       <c r="H42">
         <v>25</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="I42" t="s">
         <v>62</v>
       </c>
       <c r="J42">
@@ -15154,7 +16042,7 @@
       <c r="H43">
         <v>9</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="I43" t="s">
         <v>63</v>
       </c>
       <c r="J43">
@@ -15222,7 +16110,7 @@
       <c r="H44">
         <v>52</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="I44" t="s">
         <v>64</v>
       </c>
       <c r="J44">
@@ -15290,7 +16178,7 @@
       <c r="H45">
         <v>36</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="I45" t="s">
         <v>65</v>
       </c>
       <c r="J45">
@@ -15358,7 +16246,7 @@
       <c r="H46">
         <v>60</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="I46" t="s">
         <v>66</v>
       </c>
       <c r="J46">
@@ -15426,7 +16314,7 @@
       <c r="H47">
         <v>40</v>
       </c>
-      <c r="I47" s="1" t="s">
+      <c r="I47" t="s">
         <v>67</v>
       </c>
       <c r="J47">
@@ -15494,7 +16382,7 @@
       <c r="H48">
         <v>29</v>
       </c>
-      <c r="I48" s="1" t="s">
+      <c r="I48" t="s">
         <v>68</v>
       </c>
       <c r="J48">
@@ -15562,7 +16450,7 @@
       <c r="H49">
         <v>9</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="I49" t="s">
         <v>69</v>
       </c>
       <c r="J49">
@@ -15630,7 +16518,7 @@
       <c r="H50">
         <v>34</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="I50" t="s">
         <v>70</v>
       </c>
       <c r="J50">
@@ -15698,7 +16586,7 @@
       <c r="H51">
         <v>24</v>
       </c>
-      <c r="I51" s="1" t="s">
+      <c r="I51" t="s">
         <v>71</v>
       </c>
       <c r="J51">
@@ -15867,7 +16755,7 @@
       <c r="H2">
         <v>30</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" t="s">
         <v>22</v>
       </c>
       <c r="J2">
@@ -15935,7 +16823,7 @@
       <c r="H3">
         <v>9</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3">
@@ -16003,7 +16891,7 @@
       <c r="H4">
         <v>40</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" t="s">
         <v>24</v>
       </c>
       <c r="J4">
@@ -16071,7 +16959,7 @@
       <c r="H5">
         <v>24</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" t="s">
         <v>25</v>
       </c>
       <c r="J5">
@@ -16139,7 +17027,7 @@
       <c r="H6">
         <v>25</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" t="s">
         <v>26</v>
       </c>
       <c r="J6">
@@ -16207,7 +17095,7 @@
       <c r="H7">
         <v>41</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" t="s">
         <v>27</v>
       </c>
       <c r="J7">
@@ -16275,7 +17163,7 @@
       <c r="H8">
         <v>23</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" t="s">
         <v>28</v>
       </c>
       <c r="J8">
@@ -16343,7 +17231,7 @@
       <c r="H9">
         <v>25</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" t="s">
         <v>29</v>
       </c>
       <c r="J9">
@@ -16411,7 +17299,7 @@
       <c r="H10">
         <v>39</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" t="s">
         <v>30</v>
       </c>
       <c r="J10">
@@ -16479,7 +17367,7 @@
       <c r="H11">
         <v>22</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" t="s">
         <v>31</v>
       </c>
       <c r="J11">
@@ -16547,7 +17435,7 @@
       <c r="H12">
         <v>59</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" t="s">
         <v>32</v>
       </c>
       <c r="J12">
@@ -16615,7 +17503,7 @@
       <c r="H13">
         <v>26</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" t="s">
         <v>33</v>
       </c>
       <c r="J13">
@@ -16683,7 +17571,7 @@
       <c r="H14">
         <v>60</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" t="s">
         <v>34</v>
       </c>
       <c r="J14">
@@ -16751,7 +17639,7 @@
       <c r="H15">
         <v>17</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" t="s">
         <v>35</v>
       </c>
       <c r="J15">
@@ -16819,7 +17707,7 @@
       <c r="H16">
         <v>52</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" t="s">
         <v>36</v>
       </c>
       <c r="J16">
@@ -16887,7 +17775,7 @@
       <c r="H17">
         <v>53</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" t="s">
         <v>37</v>
       </c>
       <c r="J17">
@@ -16955,7 +17843,7 @@
       <c r="H18">
         <v>38</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" t="s">
         <v>38</v>
       </c>
       <c r="J18">
@@ -17023,7 +17911,7 @@
       <c r="H19">
         <v>22</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19" t="s">
         <v>39</v>
       </c>
       <c r="J19">
@@ -17091,7 +17979,7 @@
       <c r="H20">
         <v>19</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I20" t="s">
         <v>40</v>
       </c>
       <c r="J20">
@@ -17159,7 +18047,7 @@
       <c r="H21">
         <v>15</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I21" t="s">
         <v>41</v>
       </c>
       <c r="J21">
@@ -17227,7 +18115,7 @@
       <c r="H22">
         <v>10</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I22" t="s">
         <v>42</v>
       </c>
       <c r="J22">
@@ -17295,7 +18183,7 @@
       <c r="H23">
         <v>3</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="I23" t="s">
         <v>43</v>
       </c>
       <c r="J23">
@@ -17363,7 +18251,7 @@
       <c r="H24">
         <v>48</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="I24" t="s">
         <v>44</v>
       </c>
       <c r="J24">
@@ -17431,7 +18319,7 @@
       <c r="H25">
         <v>45</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="I25" t="s">
         <v>45</v>
       </c>
       <c r="J25">
@@ -17499,7 +18387,7 @@
       <c r="H26">
         <v>48</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="I26" t="s">
         <v>46</v>
       </c>
       <c r="J26">
@@ -17567,7 +18455,7 @@
       <c r="H27">
         <v>18</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="I27" t="s">
         <v>47</v>
       </c>
       <c r="J27">
@@ -17635,7 +18523,7 @@
       <c r="H28">
         <v>41</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="I28" t="s">
         <v>48</v>
       </c>
       <c r="J28">
@@ -17703,7 +18591,7 @@
       <c r="H29">
         <v>7</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="I29" t="s">
         <v>49</v>
       </c>
       <c r="J29">
@@ -17771,7 +18659,7 @@
       <c r="H30">
         <v>5</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="I30" t="s">
         <v>50</v>
       </c>
       <c r="J30">
@@ -17839,7 +18727,7 @@
       <c r="H31">
         <v>19</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="I31" t="s">
         <v>51</v>
       </c>
       <c r="J31">
@@ -17907,7 +18795,7 @@
       <c r="H32">
         <v>35</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="I32" t="s">
         <v>52</v>
       </c>
       <c r="J32">
@@ -17975,7 +18863,7 @@
       <c r="H33">
         <v>15</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="I33" t="s">
         <v>53</v>
       </c>
       <c r="J33">
@@ -18043,7 +18931,7 @@
       <c r="H34">
         <v>9</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="I34" t="s">
         <v>54</v>
       </c>
       <c r="J34">
@@ -18111,7 +18999,7 @@
       <c r="H35">
         <v>58</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="I35" t="s">
         <v>55</v>
       </c>
       <c r="J35">
@@ -18179,7 +19067,7 @@
       <c r="H36">
         <v>22</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="I36" t="s">
         <v>56</v>
       </c>
       <c r="J36">
@@ -18247,7 +19135,7 @@
       <c r="H37">
         <v>19</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="I37" t="s">
         <v>57</v>
       </c>
       <c r="J37">
@@ -18315,7 +19203,7 @@
       <c r="H38">
         <v>25</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="I38" t="s">
         <v>58</v>
       </c>
       <c r="J38">
@@ -18383,7 +19271,7 @@
       <c r="H39">
         <v>46</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="I39" t="s">
         <v>59</v>
       </c>
       <c r="J39">
@@ -18451,7 +19339,7 @@
       <c r="H40">
         <v>16</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="I40" t="s">
         <v>60</v>
       </c>
       <c r="J40">
@@ -18519,7 +19407,7 @@
       <c r="H41">
         <v>26</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="I41" t="s">
         <v>61</v>
       </c>
       <c r="J41">
@@ -18587,7 +19475,7 @@
       <c r="H42">
         <v>25</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="I42" t="s">
         <v>62</v>
       </c>
       <c r="J42">
@@ -18655,7 +19543,7 @@
       <c r="H43">
         <v>9</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="I43" t="s">
         <v>63</v>
       </c>
       <c r="J43">
@@ -18723,7 +19611,7 @@
       <c r="H44">
         <v>52</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="I44" t="s">
         <v>64</v>
       </c>
       <c r="J44">
@@ -18791,7 +19679,7 @@
       <c r="H45">
         <v>36</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="I45" t="s">
         <v>65</v>
       </c>
       <c r="J45">
@@ -18859,7 +19747,7 @@
       <c r="H46">
         <v>60</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="I46" t="s">
         <v>66</v>
       </c>
       <c r="J46">
@@ -18927,7 +19815,7 @@
       <c r="H47">
         <v>40</v>
       </c>
-      <c r="I47" s="1" t="s">
+      <c r="I47" t="s">
         <v>67</v>
       </c>
       <c r="J47">
@@ -18995,7 +19883,7 @@
       <c r="H48">
         <v>29</v>
       </c>
-      <c r="I48" s="1" t="s">
+      <c r="I48" t="s">
         <v>68</v>
       </c>
       <c r="J48">
@@ -19063,7 +19951,7 @@
       <c r="H49">
         <v>9</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="I49" t="s">
         <v>69</v>
       </c>
       <c r="J49">
@@ -19131,7 +20019,7 @@
       <c r="H50">
         <v>34</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="I50" t="s">
         <v>70</v>
       </c>
       <c r="J50">
@@ -19199,7 +20087,7 @@
       <c r="H51">
         <v>24</v>
       </c>
-      <c r="I51" s="1" t="s">
+      <c r="I51" t="s">
         <v>71</v>
       </c>
       <c r="J51">
@@ -19368,7 +20256,7 @@
       <c r="H2">
         <v>30</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" t="s">
         <v>22</v>
       </c>
       <c r="J2">
@@ -19436,7 +20324,7 @@
       <c r="H3">
         <v>9</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3">
@@ -19504,7 +20392,7 @@
       <c r="H4">
         <v>40</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" t="s">
         <v>24</v>
       </c>
       <c r="J4">
@@ -19572,7 +20460,7 @@
       <c r="H5">
         <v>24</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" t="s">
         <v>25</v>
       </c>
       <c r="J5">
@@ -19640,7 +20528,7 @@
       <c r="H6">
         <v>25</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" t="s">
         <v>26</v>
       </c>
       <c r="J6">
@@ -19708,7 +20596,7 @@
       <c r="H7">
         <v>41</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" t="s">
         <v>27</v>
       </c>
       <c r="J7">
@@ -19776,7 +20664,7 @@
       <c r="H8">
         <v>23</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" t="s">
         <v>28</v>
       </c>
       <c r="J8">
@@ -19844,7 +20732,7 @@
       <c r="H9">
         <v>25</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" t="s">
         <v>29</v>
       </c>
       <c r="J9">
@@ -19912,7 +20800,7 @@
       <c r="H10">
         <v>39</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" t="s">
         <v>30</v>
       </c>
       <c r="J10">
@@ -19980,7 +20868,7 @@
       <c r="H11">
         <v>22</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" t="s">
         <v>31</v>
       </c>
       <c r="J11">
@@ -20048,7 +20936,7 @@
       <c r="H12">
         <v>59</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" t="s">
         <v>32</v>
       </c>
       <c r="J12">
@@ -20116,7 +21004,7 @@
       <c r="H13">
         <v>26</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" t="s">
         <v>33</v>
       </c>
       <c r="J13">
@@ -20184,7 +21072,7 @@
       <c r="H14">
         <v>60</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" t="s">
         <v>34</v>
       </c>
       <c r="J14">
@@ -20252,7 +21140,7 @@
       <c r="H15">
         <v>17</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" t="s">
         <v>35</v>
       </c>
       <c r="J15">
@@ -20320,7 +21208,7 @@
       <c r="H16">
         <v>52</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" t="s">
         <v>36</v>
       </c>
       <c r="J16">
@@ -20388,7 +21276,7 @@
       <c r="H17">
         <v>53</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" t="s">
         <v>37</v>
       </c>
       <c r="J17">
@@ -20456,7 +21344,7 @@
       <c r="H18">
         <v>38</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" t="s">
         <v>38</v>
       </c>
       <c r="J18">
@@ -20524,7 +21412,7 @@
       <c r="H19">
         <v>22</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19" t="s">
         <v>39</v>
       </c>
       <c r="J19">
@@ -20592,7 +21480,7 @@
       <c r="H20">
         <v>19</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I20" t="s">
         <v>40</v>
       </c>
       <c r="J20">
@@ -20660,7 +21548,7 @@
       <c r="H21">
         <v>15</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I21" t="s">
         <v>41</v>
       </c>
       <c r="J21">
@@ -20728,7 +21616,7 @@
       <c r="H22">
         <v>10</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I22" t="s">
         <v>42</v>
       </c>
       <c r="J22">
@@ -20796,7 +21684,7 @@
       <c r="H23">
         <v>3</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="I23" t="s">
         <v>43</v>
       </c>
       <c r="J23">
@@ -20864,7 +21752,7 @@
       <c r="H24">
         <v>48</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="I24" t="s">
         <v>44</v>
       </c>
       <c r="J24">
@@ -20932,7 +21820,7 @@
       <c r="H25">
         <v>45</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="I25" t="s">
         <v>45</v>
       </c>
       <c r="J25">
@@ -21000,7 +21888,7 @@
       <c r="H26">
         <v>48</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="I26" t="s">
         <v>46</v>
       </c>
       <c r="J26">
@@ -21068,7 +21956,7 @@
       <c r="H27">
         <v>18</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="I27" t="s">
         <v>47</v>
       </c>
       <c r="J27">
@@ -21136,7 +22024,7 @@
       <c r="H28">
         <v>41</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="I28" t="s">
         <v>48</v>
       </c>
       <c r="J28">
@@ -21204,7 +22092,7 @@
       <c r="H29">
         <v>7</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="I29" t="s">
         <v>49</v>
       </c>
       <c r="J29">
@@ -21272,7 +22160,7 @@
       <c r="H30">
         <v>5</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="I30" t="s">
         <v>50</v>
       </c>
       <c r="J30">
@@ -21340,7 +22228,7 @@
       <c r="H31">
         <v>19</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="I31" t="s">
         <v>51</v>
       </c>
       <c r="J31">
@@ -21408,7 +22296,7 @@
       <c r="H32">
         <v>35</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="I32" t="s">
         <v>52</v>
       </c>
       <c r="J32">
@@ -21476,7 +22364,7 @@
       <c r="H33">
         <v>15</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="I33" t="s">
         <v>53</v>
       </c>
       <c r="J33">
@@ -21544,7 +22432,7 @@
       <c r="H34">
         <v>9</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="I34" t="s">
         <v>54</v>
       </c>
       <c r="J34">
@@ -21612,7 +22500,7 @@
       <c r="H35">
         <v>58</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="I35" t="s">
         <v>55</v>
       </c>
       <c r="J35">
@@ -21680,7 +22568,7 @@
       <c r="H36">
         <v>22</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="I36" t="s">
         <v>56</v>
       </c>
       <c r="J36">
@@ -21748,7 +22636,7 @@
       <c r="H37">
         <v>19</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="I37" t="s">
         <v>57</v>
       </c>
       <c r="J37">
@@ -21816,7 +22704,7 @@
       <c r="H38">
         <v>25</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="I38" t="s">
         <v>58</v>
       </c>
       <c r="J38">
@@ -21884,7 +22772,7 @@
       <c r="H39">
         <v>46</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="I39" t="s">
         <v>59</v>
       </c>
       <c r="J39">
@@ -21952,7 +22840,7 @@
       <c r="H40">
         <v>16</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="I40" t="s">
         <v>60</v>
       </c>
       <c r="J40">
@@ -22020,7 +22908,7 @@
       <c r="H41">
         <v>26</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="I41" t="s">
         <v>61</v>
       </c>
       <c r="J41">
@@ -22088,7 +22976,7 @@
       <c r="H42">
         <v>25</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="I42" t="s">
         <v>62</v>
       </c>
       <c r="J42">
@@ -22156,7 +23044,7 @@
       <c r="H43">
         <v>9</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="I43" t="s">
         <v>63</v>
       </c>
       <c r="J43">
@@ -22224,7 +23112,7 @@
       <c r="H44">
         <v>52</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="I44" t="s">
         <v>64</v>
       </c>
       <c r="J44">
@@ -22292,7 +23180,7 @@
       <c r="H45">
         <v>36</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="I45" t="s">
         <v>65</v>
       </c>
       <c r="J45">
@@ -22360,7 +23248,7 @@
       <c r="H46">
         <v>60</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="I46" t="s">
         <v>66</v>
       </c>
       <c r="J46">
@@ -22428,7 +23316,7 @@
       <c r="H47">
         <v>40</v>
       </c>
-      <c r="I47" s="1" t="s">
+      <c r="I47" t="s">
         <v>67</v>
       </c>
       <c r="J47">
@@ -22496,7 +23384,7 @@
       <c r="H48">
         <v>29</v>
       </c>
-      <c r="I48" s="1" t="s">
+      <c r="I48" t="s">
         <v>68</v>
       </c>
       <c r="J48">
@@ -22564,7 +23452,7 @@
       <c r="H49">
         <v>9</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="I49" t="s">
         <v>69</v>
       </c>
       <c r="J49">
@@ -22632,7 +23520,7 @@
       <c r="H50">
         <v>34</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="I50" t="s">
         <v>70</v>
       </c>
       <c r="J50">
@@ -22700,7 +23588,7 @@
       <c r="H51">
         <v>24</v>
       </c>
-      <c r="I51" s="1" t="s">
+      <c r="I51" t="s">
         <v>71</v>
       </c>
       <c r="J51">
@@ -22753,10 +23641,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7922235-7E49-4102-BA15-4B3DDB670ECB}">
-  <dimension ref="A1:Q51"/>
+  <dimension ref="A1:W201"/>
   <sheetViews>
-    <sheetView topLeftCell="C23" zoomScale="70" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView topLeftCell="K1" zoomScale="70" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22768,10 +23656,12 @@
     <col min="6" max="6" width="13.36328125" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="19.453125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.453125" customWidth="1"/>
+    <col min="12" max="15" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.36328125" customWidth="1"/>
+    <col min="18" max="18" width="23.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>72</v>
       </c>
@@ -22805,8 +23695,35 @@
       <c r="K1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="L1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M1" t="s">
+        <v>93</v>
+      </c>
+      <c r="N1" t="s">
+        <v>94</v>
+      </c>
+      <c r="O1" t="s">
+        <v>95</v>
+      </c>
+      <c r="P1" t="s">
+        <v>92</v>
+      </c>
+      <c r="T1" t="s">
+        <v>89</v>
+      </c>
+      <c r="U1" t="s">
+        <v>90</v>
+      </c>
+      <c r="V1" t="s">
+        <v>91</v>
+      </c>
+      <c r="W1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -22850,15 +23767,50 @@
         <f>AVERAGE(C2:F2)</f>
         <v>0.91286251999349477</v>
       </c>
-      <c r="P2" t="s">
+      <c r="L2">
+        <f>T$2-C2</f>
+        <v>9.5987476141227157E-3</v>
+      </c>
+      <c r="M2">
+        <f>U$2-D2</f>
+        <v>1.2507386617779503E-2</v>
+      </c>
+      <c r="N2">
+        <f>V$2-E2</f>
+        <v>-3.7972101664554003E-3</v>
+      </c>
+      <c r="O2">
+        <f>W$2-F2</f>
+        <v>7.2783589330160936E-4</v>
+      </c>
+      <c r="P2">
+        <v>9.5987476141227157E-3</v>
+      </c>
+      <c r="R2" t="s">
         <v>81</v>
       </c>
-      <c r="Q2">
+      <c r="S2">
         <f>MAX(K:K)</f>
         <v>0.91762170998318204</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="T2">
+        <f>C37</f>
+        <v>0.85722672341523776</v>
+      </c>
+      <c r="U2">
+        <f t="shared" ref="U2:W2" si="1">D37</f>
+        <v>0.89762094666139569</v>
+      </c>
+      <c r="V2">
+        <f t="shared" si="1"/>
+        <v>0.93355396393230128</v>
+      </c>
+      <c r="W2">
+        <f t="shared" si="1"/>
+        <v>0.982085205923793</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -22887,30 +23839,49 @@
         <v>0.8572899145749423</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:J18" si="1">MAX(D3,H2)</f>
+        <f t="shared" ref="H3:J18" si="2">MAX(D3,H2)</f>
         <v>0.89657845018453985</v>
       </c>
       <c r="I3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.93735117409875668</v>
       </c>
       <c r="J3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.98231837153856427</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K51" si="2">AVERAGE(C3:F3)</f>
+        <f t="shared" ref="K3:K51" si="3">AVERAGE(C3:F3)</f>
         <v>0.90880831839794196</v>
       </c>
-      <c r="P3" t="s">
+      <c r="L3">
+        <f>T$2-C3</f>
+        <v>-6.3191159704545363E-5</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M51" si="4">U$2-D3</f>
+        <v>1.0424964768558365E-3</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N51" si="5">V$2-E3</f>
+        <v>3.4507426638579863E-2</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:P51" si="6">W$2-F3</f>
+        <v>-2.3316561477126907E-4</v>
+      </c>
+      <c r="P3">
+        <v>-6.3191159704545363E-5</v>
+      </c>
+      <c r="R3" t="s">
         <v>83</v>
       </c>
-      <c r="Q3">
+      <c r="S3">
         <f>A37</f>
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -22935,27 +23906,46 @@
         <v>0.98386347020235099</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G51" si="3">MAX(C4,G3)</f>
+        <f t="shared" ref="G4:G51" si="7">MAX(C4,G3)</f>
         <v>0.8572899145749423</v>
       </c>
       <c r="H4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.89657845018453985</v>
       </c>
       <c r="I4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.93735117409875668</v>
       </c>
       <c r="J4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.98386347020235099</v>
       </c>
       <c r="K4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.90929936724172711</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="L4">
+        <f t="shared" ref="L3:L51" si="8">T$2-C4</f>
+        <v>6.1193870605502632E-4</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="4"/>
+        <v>5.7346306339821629E-3</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="5"/>
+        <v>2.8721065904339871E-2</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="6"/>
+        <v>-1.7782642785579839E-3</v>
+      </c>
+      <c r="P4">
+        <v>6.1193870605502632E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -22980,27 +23970,46 @@
         <v>0.98378101241244664</v>
       </c>
       <c r="G5">
+        <f t="shared" si="7"/>
+        <v>0.8572899145749423</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>0.89657845018453985</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>0.93735117409875668</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="2"/>
+        <v>0.98386347020235099</v>
+      </c>
+      <c r="K5">
         <f t="shared" si="3"/>
-        <v>0.8572899145749423</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="1"/>
-        <v>0.89657845018453985</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="1"/>
-        <v>0.93735117409875668</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="1"/>
-        <v>0.98386347020235099</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="2"/>
         <v>0.90302163854748452</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="L5">
+        <f t="shared" si="8"/>
+        <v>6.481803065181424E-4</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="4"/>
+        <v>5.0406699670838551E-3</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="5"/>
+        <v>5.4407241957841079E-2</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="6"/>
+        <v>-1.6958064886536395E-3</v>
+      </c>
+      <c r="P5">
+        <v>6.481803065181424E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -23025,27 +24034,46 @@
         <v>0.98562238898048571</v>
       </c>
       <c r="G6">
+        <f t="shared" si="7"/>
+        <v>0.8572899145749423</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>0.89657845018453985</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>0.93735117409875668</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>0.98562238898048571</v>
+      </c>
+      <c r="K6">
         <f t="shared" si="3"/>
-        <v>0.8572899145749423</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="1"/>
-        <v>0.89657845018453985</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="1"/>
-        <v>0.93735117409875668</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="1"/>
-        <v>0.98562238898048571</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="2"/>
         <v>0.89933415667012884</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="L6">
+        <f t="shared" si="8"/>
+        <v>4.3789115740867635E-3</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="4"/>
+        <v>1.1578293955594843E-2</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="5"/>
+        <v>6.073019077922337E-2</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="6"/>
+        <v>-3.5371830566927054E-3</v>
+      </c>
+      <c r="P6">
+        <v>4.3789115740867635E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -23070,27 +24098,46 @@
         <v>0.98249793949694708</v>
       </c>
       <c r="G7">
+        <f t="shared" si="7"/>
+        <v>0.85820946562493883</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>0.89657845018453985</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>0.93735117409875668</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="2"/>
+        <v>0.98562238898048571</v>
+      </c>
+      <c r="K7">
         <f t="shared" si="3"/>
-        <v>0.85820946562493883</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="1"/>
-        <v>0.89657845018453985</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="1"/>
-        <v>0.93735117409875668</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="1"/>
-        <v>0.98562238898048571</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="2"/>
         <v>0.91509182611515105</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="L7">
+        <f t="shared" si="8"/>
+        <v>-9.8274220970107073E-4</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="4"/>
+        <v>1.1043151169664034E-3</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="5"/>
+        <v>1.0410696138012043E-2</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="6"/>
+        <v>-4.1273357315407821E-4</v>
+      </c>
+      <c r="P7">
+        <v>-9.8274220970107073E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -23115,33 +24162,52 @@
         <v>0.98574963229168833</v>
       </c>
       <c r="G8">
+        <f t="shared" si="7"/>
+        <v>0.85820946562493883</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>0.89657845018453985</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>0.93735117409875668</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>0.98574963229168833</v>
+      </c>
+      <c r="K8">
         <f t="shared" si="3"/>
-        <v>0.85820946562493883</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="1"/>
-        <v>0.89657845018453985</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="1"/>
-        <v>0.93735117409875668</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="1"/>
-        <v>0.98574963229168833</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="2"/>
         <v>0.88477154764702659</v>
       </c>
-      <c r="P8" t="s">
+      <c r="L8">
+        <f t="shared" si="8"/>
+        <v>1.9458175705046044E-2</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="4"/>
+        <v>2.274560490700317E-2</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="5"/>
+        <v>9.2861295100467145E-2</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="6"/>
+        <v>-3.6644263678953237E-3</v>
+      </c>
+      <c r="P8">
+        <v>1.9458175705046044E-2</v>
+      </c>
+      <c r="R8" t="s">
         <v>84</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="S8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -23166,34 +24232,53 @@
         <v>0.98477486980545947</v>
       </c>
       <c r="G9">
+        <f t="shared" si="7"/>
+        <v>0.85820946562493883</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>0.89657845018453985</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>0.93735117409875668</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>0.98574963229168833</v>
+      </c>
+      <c r="K9">
         <f t="shared" si="3"/>
-        <v>0.85820946562493883</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="1"/>
-        <v>0.89657845018453985</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="1"/>
-        <v>0.93735117409875668</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="1"/>
-        <v>0.98574963229168833</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="2"/>
         <v>0.88323843911515199</v>
       </c>
+      <c r="L9">
+        <f t="shared" si="8"/>
+        <v>2.0469358014802763E-2</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="4"/>
+        <v>2.9022156477096606E-2</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="5"/>
+        <v>9.0731232861886668E-2</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="6"/>
+        <v>-2.6896638816664709E-3</v>
+      </c>
       <c r="P9">
+        <v>2.0469358014802763E-2</v>
+      </c>
+      <c r="R9">
         <f>A24</f>
         <v>23</v>
       </c>
-      <c r="Q9">
+      <c r="S9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -23218,34 +24303,53 @@
         <v>0.98361730054766294</v>
       </c>
       <c r="G10">
+        <f t="shared" si="7"/>
+        <v>0.85907546961534109</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>0.89657845018453985</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>0.93735117409875668</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="2"/>
+        <v>0.98574963229168833</v>
+      </c>
+      <c r="K10">
         <f t="shared" si="3"/>
-        <v>0.85907546961534109</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="1"/>
-        <v>0.89657845018453985</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="1"/>
-        <v>0.93735117409875668</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="1"/>
-        <v>0.98574963229168833</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="2"/>
         <v>0.91433577650690001</v>
       </c>
+      <c r="L10">
+        <f t="shared" si="8"/>
+        <v>-1.848746200103335E-3</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="4"/>
+        <v>4.2615885431357414E-3</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="5"/>
+        <v>1.2262986185964997E-2</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="6"/>
+        <v>-1.5320946238699396E-3</v>
+      </c>
       <c r="P10">
-        <f>P9</f>
+        <v>-1.848746200103335E-3</v>
+      </c>
+      <c r="R10">
+        <f>R9</f>
         <v>23</v>
       </c>
-      <c r="Q10">
+      <c r="S10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -23270,27 +24374,46 @@
         <v>0.93548690904077991</v>
       </c>
       <c r="G11">
+        <f t="shared" si="7"/>
+        <v>0.85907546961534109</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>0.89657845018453985</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>0.93735117409875668</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="2"/>
+        <v>0.98574963229168833</v>
+      </c>
+      <c r="K11">
         <f t="shared" si="3"/>
-        <v>0.85907546961534109</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="1"/>
-        <v>0.89657845018453985</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="1"/>
-        <v>0.93735117409875668</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="1"/>
-        <v>0.98574963229168833</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="2"/>
         <v>0.85789962105727924</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="L11">
+        <f t="shared" si="8"/>
+        <v>8.0801231264717055E-2</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="4"/>
+        <v>0.10135400113885173</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="5"/>
+        <v>1.0134826417029008E-2</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="6"/>
+        <v>4.6598296883013091E-2</v>
+      </c>
+      <c r="P11">
+        <v>8.0801231264717055E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -23315,33 +24438,52 @@
         <v>0.8856494746498168</v>
       </c>
       <c r="G12">
+        <f t="shared" si="7"/>
+        <v>0.85907546961534109</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>0.89657845018453985</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>0.93735117409875668</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="2"/>
+        <v>0.98574963229168833</v>
+      </c>
+      <c r="K12">
         <f t="shared" si="3"/>
-        <v>0.85907546961534109</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="1"/>
-        <v>0.89657845018453985</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="1"/>
-        <v>0.93735117409875668</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="1"/>
-        <v>0.98574963229168833</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="2"/>
         <v>0.80081004487162188</v>
       </c>
-      <c r="P12" t="s">
+      <c r="L12">
+        <f t="shared" si="8"/>
+        <v>0.1628832784226758</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="4"/>
+        <v>0.17462463651223381</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="5"/>
+        <v>3.33030142373546E-2</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="6"/>
+        <v>9.64357312739762E-2</v>
+      </c>
+      <c r="P12">
+        <v>0.1628832784226758</v>
+      </c>
+      <c r="R12" t="s">
         <v>86</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="S12" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -23366,34 +24508,53 @@
         <v>0.98232119167666831</v>
       </c>
       <c r="G13">
+        <f t="shared" si="7"/>
+        <v>0.85907546961534109</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>0.89748090521312229</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>0.93735117409875668</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="2"/>
+        <v>0.98574963229168833</v>
+      </c>
+      <c r="K13">
         <f t="shared" si="3"/>
-        <v>0.85907546961534109</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="1"/>
-        <v>0.89748090521312229</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="1"/>
-        <v>0.93735117409875668</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="1"/>
-        <v>0.98574963229168833</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="2"/>
         <v>0.91689274864500403</v>
       </c>
+      <c r="L13">
+        <f t="shared" si="8"/>
+        <v>5.4196462912670107E-4</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="4"/>
+        <v>1.4004144827339804E-4</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="5"/>
+        <v>2.4698250281870449E-3</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="6"/>
+        <v>-2.3598575287531176E-4</v>
+      </c>
       <c r="P13">
+        <v>5.4196462912670107E-4</v>
+      </c>
+      <c r="R13">
         <f>A30</f>
         <v>29</v>
       </c>
-      <c r="Q13">
+      <c r="S13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -23418,34 +24579,53 @@
         <v>0.98286078243276143</v>
       </c>
       <c r="G14">
+        <f t="shared" si="7"/>
+        <v>0.8595299494643045</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>0.89748090521312229</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>0.93735117409875668</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="2"/>
+        <v>0.98574963229168833</v>
+      </c>
+      <c r="K14">
         <f t="shared" si="3"/>
-        <v>0.8595299494643045</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="1"/>
-        <v>0.89748090521312229</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="1"/>
-        <v>0.93735117409875668</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="1"/>
-        <v>0.98574963229168833</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="2"/>
         <v>0.9074519549210297</v>
       </c>
+      <c r="L14">
+        <f t="shared" si="8"/>
+        <v>-2.3032260490667422E-3</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="4"/>
+        <v>2.7291427339927177E-3</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="5"/>
+        <v>4.1028680072651147E-2</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="6"/>
+        <v>-7.7557650896842301E-4</v>
+      </c>
       <c r="P14">
-        <f>P13</f>
+        <v>-2.3032260490667422E-3</v>
+      </c>
+      <c r="R14">
+        <f>R13</f>
         <v>29</v>
       </c>
-      <c r="Q14">
+      <c r="S14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -23470,27 +24650,46 @@
         <v>0.98334607248915218</v>
       </c>
       <c r="G15">
+        <f t="shared" si="7"/>
+        <v>0.8595299494643045</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>0.89748090521312229</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>0.93735117409875668</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="2"/>
+        <v>0.98574963229168833</v>
+      </c>
+      <c r="K15">
         <f t="shared" si="3"/>
-        <v>0.8595299494643045</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="1"/>
-        <v>0.89748090521312229</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="1"/>
-        <v>0.93735117409875668</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="1"/>
-        <v>0.98574963229168833</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="2"/>
         <v>0.91229675850064817</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="L15">
+        <f t="shared" si="8"/>
+        <v>-7.8461165307852632E-4</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="4"/>
+        <v>5.2386410935901795E-3</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="5"/>
+        <v>1.8106643054982219E-2</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="6"/>
+        <v>-1.2608665653591755E-3</v>
+      </c>
+      <c r="P15">
+        <v>-7.8461165307852632E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -23515,33 +24714,52 @@
         <v>0.98220170004374519</v>
       </c>
       <c r="G16">
+        <f t="shared" si="7"/>
+        <v>0.8595299494643045</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>0.89748090521312229</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>0.93735117409875668</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="2"/>
+        <v>0.98574963229168833</v>
+      </c>
+      <c r="K16">
         <f t="shared" si="3"/>
-        <v>0.8595299494643045</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="1"/>
-        <v>0.89748090521312229</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="1"/>
-        <v>0.93735117409875668</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="1"/>
-        <v>0.98574963229168833</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="2"/>
         <v>0.91716881525688654</v>
       </c>
-      <c r="P16" t="s">
+      <c r="L16">
+        <f t="shared" si="8"/>
+        <v>1.2578760830598279E-3</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="4"/>
+        <v>2.2738809836453377E-4</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="5"/>
+        <v>4.4280884370906382E-4</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="6"/>
+        <v>-1.1649411995218184E-4</v>
+      </c>
+      <c r="P16">
+        <v>1.2578760830598279E-3</v>
+      </c>
+      <c r="R16" t="s">
         <v>87</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="S16" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -23566,34 +24784,53 @@
         <v>0.98173808524072292</v>
       </c>
       <c r="G17">
+        <f t="shared" si="7"/>
+        <v>0.8595299494643045</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>0.89748090521312229</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>0.93735117409875668</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="2"/>
+        <v>0.98574963229168833</v>
+      </c>
+      <c r="K17">
         <f t="shared" si="3"/>
-        <v>0.8595299494643045</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="1"/>
-        <v>0.89748090521312229</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="1"/>
-        <v>0.93735117409875668</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="1"/>
-        <v>0.98574963229168833</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="2"/>
         <v>0.91683345542502381</v>
       </c>
+      <c r="L17">
+        <f t="shared" si="8"/>
+        <v>2.2438303481543409E-3</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="4"/>
+        <v>2.5213693951290361E-3</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="5"/>
+        <v>-1.9593021937209798E-3</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="6"/>
+        <v>3.4712068307007904E-4</v>
+      </c>
       <c r="P17">
+        <v>2.2438303481543409E-3</v>
+      </c>
+      <c r="R17">
         <f>A2</f>
         <v>1</v>
       </c>
-      <c r="Q17">
+      <c r="S17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -23618,34 +24855,53 @@
         <v>0.98526862057360476</v>
       </c>
       <c r="G18">
+        <f t="shared" si="7"/>
+        <v>0.8595299494643045</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>0.89748090521312229</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>0.93735117409875668</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="2"/>
+        <v>0.98574963229168833</v>
+      </c>
+      <c r="K18">
         <f t="shared" si="3"/>
-        <v>0.8595299494643045</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="1"/>
-        <v>0.89748090521312229</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="1"/>
-        <v>0.93735117409875668</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="1"/>
-        <v>0.98574963229168833</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="2"/>
         <v>0.89089622653133382</v>
       </c>
+      <c r="L18">
+        <f t="shared" si="8"/>
+        <v>1.0239258256944495E-2</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="4"/>
+        <v>1.4167751965567632E-2</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="5"/>
+        <v>8.5678338234691842E-2</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="6"/>
+        <v>-3.1834146498117555E-3</v>
+      </c>
       <c r="P18">
-        <f>P17</f>
+        <v>1.0239258256944495E-2</v>
+      </c>
+      <c r="R18">
+        <f>R17</f>
         <v>1</v>
       </c>
-      <c r="Q18">
+      <c r="S18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -23670,27 +24926,46 @@
         <v>0.98646595467727438</v>
       </c>
       <c r="G19">
+        <f t="shared" si="7"/>
+        <v>0.8595299494643045</v>
+      </c>
+      <c r="H19">
+        <f t="shared" ref="H19:H51" si="9">MAX(D19,H18)</f>
+        <v>0.89748090521312229</v>
+      </c>
+      <c r="I19">
+        <f t="shared" ref="I19:I51" si="10">MAX(E19,I18)</f>
+        <v>0.93735117409875668</v>
+      </c>
+      <c r="J19">
+        <f t="shared" ref="J19:J51" si="11">MAX(F19,J18)</f>
+        <v>0.98646595467727438</v>
+      </c>
+      <c r="K19">
         <f t="shared" si="3"/>
-        <v>0.8595299494643045</v>
-      </c>
-      <c r="H19">
-        <f t="shared" ref="H19:H51" si="4">MAX(D19,H18)</f>
-        <v>0.89748090521312229</v>
-      </c>
-      <c r="I19">
-        <f t="shared" ref="I19:I51" si="5">MAX(E19,I18)</f>
-        <v>0.93735117409875668</v>
-      </c>
-      <c r="J19">
-        <f t="shared" ref="J19:J51" si="6">MAX(F19,J18)</f>
-        <v>0.98646595467727438</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="2"/>
         <v>0.89238252723042466</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="L19">
+        <f t="shared" si="8"/>
+        <v>1.1540410815589652E-2</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="4"/>
+        <v>2.2020211183925831E-2</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="5"/>
+        <v>7.1776857764995206E-2</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="6"/>
+        <v>-4.3807487534813783E-3</v>
+      </c>
+      <c r="P19">
+        <v>1.1540410815589652E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -23715,33 +24990,52 @@
         <v>0.98212454745778754</v>
       </c>
       <c r="G20">
+        <f t="shared" si="7"/>
+        <v>0.8595299494643045</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="9"/>
+        <v>0.89748090521312229</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="10"/>
+        <v>0.93735117409875668</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="11"/>
+        <v>0.98646595467727438</v>
+      </c>
+      <c r="K20">
         <f t="shared" si="3"/>
-        <v>0.8595299494643045</v>
-      </c>
-      <c r="H20">
+        <v>0.91347547810638208</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="8"/>
+        <v>3.5921532367426678E-3</v>
+      </c>
+      <c r="M20">
         <f t="shared" si="4"/>
-        <v>0.89748090521312229</v>
-      </c>
-      <c r="I20">
+        <v>4.8782721192274225E-3</v>
+      </c>
+      <c r="N20">
         <f t="shared" si="5"/>
-        <v>0.93735117409875668</v>
-      </c>
-      <c r="J20">
+        <v>8.1538436852237606E-3</v>
+      </c>
+      <c r="O20">
         <f t="shared" si="6"/>
-        <v>0.98646595467727438</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="2"/>
-        <v>0.91347547810638208</v>
-      </c>
-      <c r="P20" t="s">
+        <v>-3.9341533994541322E-5</v>
+      </c>
+      <c r="P20">
+        <v>3.5921532367426678E-3</v>
+      </c>
+      <c r="R20" t="s">
         <v>88</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="S20" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -23766,34 +25060,53 @@
         <v>0.97268352132094815</v>
       </c>
       <c r="G21">
+        <f t="shared" si="7"/>
+        <v>0.8595299494643045</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="9"/>
+        <v>0.89748090521312229</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="10"/>
+        <v>0.93735117409875668</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="11"/>
+        <v>0.98646595467727438</v>
+      </c>
+      <c r="K21">
         <f t="shared" si="3"/>
-        <v>0.8595299494643045</v>
-      </c>
-      <c r="H21">
+        <v>0.89124324302475477</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="8"/>
+        <v>3.8622644205879242E-2</v>
+      </c>
+      <c r="M21">
         <f t="shared" si="4"/>
-        <v>0.89748090521312229</v>
-      </c>
-      <c r="I21">
+        <v>4.5419176407570205E-2</v>
+      </c>
+      <c r="N21">
         <f t="shared" si="5"/>
-        <v>0.93735117409875668</v>
-      </c>
-      <c r="J21">
+        <v>1.2070362617414232E-2</v>
+      </c>
+      <c r="O21">
         <f t="shared" si="6"/>
-        <v>0.98646595467727438</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="2"/>
-        <v>0.89124324302475477</v>
+        <v>9.4016846028448509E-3</v>
       </c>
       <c r="P21">
+        <v>3.8622644205879242E-2</v>
+      </c>
+      <c r="R21">
         <f>A19</f>
         <v>18</v>
       </c>
-      <c r="Q21">
+      <c r="S21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -23818,34 +25131,53 @@
         <v>0.98179169779567488</v>
       </c>
       <c r="G22">
+        <f t="shared" si="7"/>
+        <v>0.8595299494643045</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="9"/>
+        <v>0.89748090521312229</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="10"/>
+        <v>0.93735117409875668</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="11"/>
+        <v>0.98646595467727438</v>
+      </c>
+      <c r="K22">
         <f t="shared" si="3"/>
-        <v>0.8595299494643045</v>
-      </c>
-      <c r="H22">
+        <v>0.91743209057236519</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="8"/>
+        <v>2.2813913538127784E-3</v>
+      </c>
+      <c r="M22">
         <f t="shared" si="4"/>
-        <v>0.89748090521312229</v>
-      </c>
-      <c r="I22">
+        <v>1.2960823324987825E-3</v>
+      </c>
+      <c r="N22">
         <f t="shared" si="5"/>
-        <v>0.93735117409875668</v>
-      </c>
-      <c r="J22">
+        <v>-3.1125041711627111E-3</v>
+      </c>
+      <c r="O22">
         <f t="shared" si="6"/>
-        <v>0.98646595467727438</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="2"/>
-        <v>0.91743209057236519</v>
+        <v>2.935081281181251E-4</v>
       </c>
       <c r="P22">
-        <f>P21</f>
+        <v>2.2813913538127784E-3</v>
+      </c>
+      <c r="R22">
+        <f>R21</f>
         <v>18</v>
       </c>
-      <c r="Q22">
+      <c r="S22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -23870,27 +25202,46 @@
         <v>0.98217755179904653</v>
       </c>
       <c r="G23">
+        <f t="shared" si="7"/>
+        <v>0.8595299494643045</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="9"/>
+        <v>0.8975409603548844</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="10"/>
+        <v>0.93735117409875668</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="11"/>
+        <v>0.98646595467727438</v>
+      </c>
+      <c r="K23">
         <f t="shared" si="3"/>
-        <v>0.8595299494643045</v>
-      </c>
-      <c r="H23">
+        <v>0.91754471543691662</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="8"/>
+        <v>2.2949666793167234E-3</v>
+      </c>
+      <c r="M23">
         <f t="shared" si="4"/>
-        <v>0.8975409603548844</v>
-      </c>
-      <c r="I23">
+        <v>7.9986306511292682E-5</v>
+      </c>
+      <c r="N23">
         <f t="shared" si="5"/>
-        <v>0.93735117409875668</v>
-      </c>
-      <c r="J23">
+        <v>-1.9746289255131444E-3</v>
+      </c>
+      <c r="O23">
         <f t="shared" si="6"/>
-        <v>0.98646595467727438</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="2"/>
-        <v>0.91754471543691662</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+        <v>-9.2345875253529996E-5</v>
+      </c>
+      <c r="P23">
+        <v>2.2949666793167234E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -23915,27 +25266,46 @@
         <v>0.98352141556790418</v>
       </c>
       <c r="G24">
+        <f t="shared" si="7"/>
+        <v>0.86010753276914165</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="9"/>
+        <v>0.8975409603548844</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="10"/>
+        <v>0.93735117409875668</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="11"/>
+        <v>0.98646595467727438</v>
+      </c>
+      <c r="K24">
         <f t="shared" si="3"/>
-        <v>0.86010753276914165</v>
-      </c>
-      <c r="H24">
+        <v>0.91391163910223638</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="8"/>
+        <v>-2.8808093539038904E-3</v>
+      </c>
+      <c r="M24">
         <f t="shared" si="4"/>
-        <v>0.8975409603548844</v>
-      </c>
-      <c r="I24">
+        <v>3.0052276413879975E-3</v>
+      </c>
+      <c r="N24">
         <f t="shared" si="5"/>
-        <v>0.93735117409875668</v>
-      </c>
-      <c r="J24">
+        <v>1.615207488040904E-2</v>
+      </c>
+      <c r="O24">
         <f t="shared" si="6"/>
-        <v>0.98646595467727438</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="2"/>
-        <v>0.91391163910223638</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+        <v>-1.4362096441111749E-3</v>
+      </c>
+      <c r="P24">
+        <v>-2.8808093539038904E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -23960,27 +25330,46 @@
         <v>0.98627611118496505</v>
       </c>
       <c r="G25">
+        <f t="shared" si="7"/>
+        <v>0.86010753276914165</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="9"/>
+        <v>0.8975409603548844</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="10"/>
+        <v>0.93735117409875668</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="11"/>
+        <v>0.98646595467727438</v>
+      </c>
+      <c r="K25">
         <f t="shared" si="3"/>
-        <v>0.86010753276914165</v>
-      </c>
-      <c r="H25">
+        <v>0.9007390405548874</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="8"/>
+        <v>3.8941897331010722E-3</v>
+      </c>
+      <c r="M25">
         <f t="shared" si="4"/>
-        <v>0.8975409603548844</v>
-      </c>
-      <c r="I25">
+        <v>1.0111255955148946E-2</v>
+      </c>
+      <c r="N25">
         <f t="shared" si="5"/>
-        <v>0.93735117409875668</v>
-      </c>
-      <c r="J25">
+        <v>5.7716137286099922E-2</v>
+      </c>
+      <c r="O25">
         <f t="shared" si="6"/>
-        <v>0.98646595467727438</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="2"/>
-        <v>0.9007390405548874</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+        <v>-4.190905261172051E-3</v>
+      </c>
+      <c r="P25">
+        <v>3.8941897331010722E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -24005,27 +25394,46 @@
         <v>0.98548599539992643</v>
       </c>
       <c r="G26">
+        <f t="shared" si="7"/>
+        <v>0.86010753276914165</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="9"/>
+        <v>0.8975409603548844</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="10"/>
+        <v>0.93735117409875668</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="11"/>
+        <v>0.98646595467727438</v>
+      </c>
+      <c r="K26">
         <f t="shared" si="3"/>
-        <v>0.86010753276914165</v>
-      </c>
-      <c r="H26">
+        <v>0.90129922298274678</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="8"/>
+        <v>2.9349675485790261E-3</v>
+      </c>
+      <c r="M26">
         <f t="shared" si="4"/>
-        <v>0.8975409603548844</v>
-      </c>
-      <c r="I26">
+        <v>8.8308996127858252E-3</v>
+      </c>
+      <c r="N26">
         <f t="shared" si="5"/>
-        <v>0.93735117409875668</v>
-      </c>
-      <c r="J26">
+        <v>5.6924870316509057E-2</v>
+      </c>
+      <c r="O26">
         <f t="shared" si="6"/>
-        <v>0.98646595467727438</v>
-      </c>
-      <c r="K26">
-        <f t="shared" si="2"/>
-        <v>0.90129922298274678</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+        <v>-3.4007894761334256E-3</v>
+      </c>
+      <c r="P26">
+        <v>2.9349675485790261E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -24050,27 +25458,46 @@
         <v>0.96443870020272493</v>
       </c>
       <c r="G27">
+        <f t="shared" si="7"/>
+        <v>0.86010753276914165</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="9"/>
+        <v>0.8975409603548844</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="10"/>
+        <v>0.93735117409875668</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="11"/>
+        <v>0.98646595467727438</v>
+      </c>
+      <c r="K27">
         <f t="shared" si="3"/>
-        <v>0.86010753276914165</v>
-      </c>
-      <c r="H27">
+        <v>0.87135394883695028</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="8"/>
+        <v>5.7228126831115889E-2</v>
+      </c>
+      <c r="M27">
         <f t="shared" si="4"/>
-        <v>0.8975409603548844</v>
-      </c>
-      <c r="I27">
+        <v>6.1100802146632716E-2</v>
+      </c>
+      <c r="N27">
         <f t="shared" si="5"/>
-        <v>0.93735117409875668</v>
-      </c>
-      <c r="J27">
+        <v>4.9095609886109948E-2</v>
+      </c>
+      <c r="O27">
         <f t="shared" si="6"/>
-        <v>0.98646595467727438</v>
-      </c>
-      <c r="K27">
-        <f t="shared" si="2"/>
-        <v>0.87135394883695028</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+        <v>1.7646505721068073E-2</v>
+      </c>
+      <c r="P27">
+        <v>5.7228126831115889E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -24095,27 +25522,46 @@
         <v>0.9728033458944616</v>
       </c>
       <c r="G28">
+        <f t="shared" si="7"/>
+        <v>0.86010753276914165</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="9"/>
+        <v>0.8975409603548844</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="10"/>
+        <v>0.93735117409875668</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="11"/>
+        <v>0.98646595467727438</v>
+      </c>
+      <c r="K28">
         <f t="shared" si="3"/>
-        <v>0.86010753276914165</v>
-      </c>
-      <c r="H28">
+        <v>0.89335410857250475</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="8"/>
+        <v>3.8622644205879242E-2</v>
+      </c>
+      <c r="M28">
         <f t="shared" si="4"/>
-        <v>0.8975409603548844</v>
-      </c>
-      <c r="I28">
+        <v>4.5377116340014068E-2</v>
+      </c>
+      <c r="N28">
         <f t="shared" si="5"/>
-        <v>0.93735117409875668</v>
-      </c>
-      <c r="J28">
+        <v>3.7887850674840351E-3</v>
+      </c>
+      <c r="O28">
         <f t="shared" si="6"/>
-        <v>0.98646595467727438</v>
-      </c>
-      <c r="K28">
-        <f t="shared" si="2"/>
-        <v>0.89335410857250475</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+        <v>9.2818600293314013E-3</v>
+      </c>
+      <c r="P28">
+        <v>3.8622644205879242E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -24140,27 +25586,46 @@
         <v>0.97390102140525658</v>
       </c>
       <c r="G29">
+        <f t="shared" si="7"/>
+        <v>0.86010753276914165</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="9"/>
+        <v>0.8975409603548844</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="10"/>
+        <v>0.93735117409875668</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="11"/>
+        <v>0.98646595467727438</v>
+      </c>
+      <c r="K29">
         <f t="shared" si="3"/>
-        <v>0.86010753276914165</v>
-      </c>
-      <c r="H29">
+        <v>0.87890448629725415</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="8"/>
+        <v>4.1209271580282425E-2</v>
+      </c>
+      <c r="M29">
         <f t="shared" si="4"/>
-        <v>0.8975409603548844</v>
-      </c>
-      <c r="I29">
+        <v>4.535970975601078E-2</v>
+      </c>
+      <c r="N29">
         <f t="shared" si="5"/>
-        <v>0.93735117409875668</v>
-      </c>
-      <c r="J29">
+        <v>6.0115728888881392E-2</v>
+      </c>
+      <c r="O29">
         <f t="shared" si="6"/>
-        <v>0.98646595467727438</v>
-      </c>
-      <c r="K29">
-        <f t="shared" si="2"/>
-        <v>0.87890448629725415</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+        <v>8.1841845185364193E-3</v>
+      </c>
+      <c r="P29">
+        <v>4.1209271580282425E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -24185,27 +25650,46 @@
         <v>0.98230421537336898</v>
       </c>
       <c r="G30">
+        <f t="shared" si="7"/>
+        <v>0.86010753276914165</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="9"/>
+        <v>0.89813827620951547</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="10"/>
+        <v>0.93735117409875668</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="11"/>
+        <v>0.98646595467727438</v>
+      </c>
+      <c r="K30">
         <f t="shared" si="3"/>
-        <v>0.86010753276914165</v>
-      </c>
-      <c r="H30">
+        <v>0.90928489482023789</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="8"/>
+        <v>-6.7585378128875995E-4</v>
+      </c>
+      <c r="M30">
         <f t="shared" si="4"/>
-        <v>0.89813827620951547</v>
-      </c>
-      <c r="I30">
+        <v>-5.173295481197826E-4</v>
+      </c>
+      <c r="N30">
         <f t="shared" si="5"/>
-        <v>0.93735117409875668</v>
-      </c>
-      <c r="J30">
+        <v>3.4759453430760701E-2</v>
+      </c>
+      <c r="O30">
         <f t="shared" si="6"/>
-        <v>0.98646595467727438</v>
-      </c>
-      <c r="K30">
-        <f t="shared" si="2"/>
-        <v>0.90928489482023789</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+        <v>-2.1900944957597979E-4</v>
+      </c>
+      <c r="P30">
+        <v>-6.7585378128875995E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -24230,27 +25714,46 @@
         <v>0.98366203328118318</v>
       </c>
       <c r="G31">
+        <f t="shared" si="7"/>
+        <v>0.86010753276914165</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="9"/>
+        <v>0.89813827620951547</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="10"/>
+        <v>0.93735117409875668</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="11"/>
+        <v>0.98646595467727438</v>
+      </c>
+      <c r="K31">
         <f t="shared" si="3"/>
-        <v>0.86010753276914165</v>
-      </c>
-      <c r="H31">
+        <v>0.91438532188480792</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="8"/>
+        <v>-2.159093451386318E-3</v>
+      </c>
+      <c r="M31">
         <f t="shared" si="4"/>
-        <v>0.89813827620951547</v>
-      </c>
-      <c r="I31">
+        <v>1.5028881682580542E-3</v>
+      </c>
+      <c r="N31">
         <f t="shared" si="5"/>
-        <v>0.93735117409875668</v>
-      </c>
-      <c r="J31">
+        <v>1.5178585034013925E-2</v>
+      </c>
+      <c r="O31">
         <f t="shared" si="6"/>
-        <v>0.98646595467727438</v>
-      </c>
-      <c r="K31">
-        <f t="shared" si="2"/>
-        <v>0.91438532188480792</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+        <v>-1.5768273573901759E-3</v>
+      </c>
+      <c r="P31">
+        <v>-2.159093451386318E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -24275,27 +25778,46 @@
         <v>0.98232765447718295</v>
       </c>
       <c r="G32">
+        <f t="shared" si="7"/>
+        <v>0.86010753276914165</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="9"/>
+        <v>0.89813827620951547</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="10"/>
+        <v>0.93735117409875668</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="11"/>
+        <v>0.98646595467727438</v>
+      </c>
+      <c r="K32">
         <f t="shared" si="3"/>
-        <v>0.86010753276914165</v>
-      </c>
-      <c r="H32">
+        <v>0.91699891881421303</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="8"/>
+        <v>6.105137870013877E-4</v>
+      </c>
+      <c r="M32">
         <f t="shared" si="4"/>
-        <v>0.89813827620951547</v>
-      </c>
-      <c r="I32">
+        <v>-1.7457924236274902E-4</v>
+      </c>
+      <c r="N32">
         <f t="shared" si="5"/>
-        <v>0.93735117409875668</v>
-      </c>
-      <c r="J32">
+        <v>2.2976786846266029E-3</v>
+      </c>
+      <c r="O32">
         <f t="shared" si="6"/>
-        <v>0.98646595467727438</v>
-      </c>
-      <c r="K32">
-        <f t="shared" si="2"/>
-        <v>0.91699891881421303</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-2.4244855338995119E-4</v>
+      </c>
+      <c r="P32">
+        <v>6.105137870013877E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -24320,27 +25842,46 @@
         <v>0.98247680136356086</v>
       </c>
       <c r="G33">
+        <f t="shared" si="7"/>
+        <v>0.86010753276914165</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="9"/>
+        <v>0.89813827620951547</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="10"/>
+        <v>0.93735117409875668</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="11"/>
+        <v>0.98646595467727438</v>
+      </c>
+      <c r="K33">
         <f t="shared" si="3"/>
-        <v>0.86010753276914165</v>
-      </c>
-      <c r="H33">
+        <v>0.91395041440491542</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="8"/>
+        <v>-1.4403509931616432E-3</v>
+      </c>
+      <c r="M33">
         <f t="shared" si="4"/>
-        <v>0.89813827620951547</v>
-      </c>
-      <c r="I33">
+        <v>4.3717176086782716E-3</v>
+      </c>
+      <c r="N33">
         <f t="shared" si="5"/>
-        <v>0.93735117409875668</v>
-      </c>
-      <c r="J33">
+        <v>1.2145411137317375E-2</v>
+      </c>
+      <c r="O33">
         <f t="shared" si="6"/>
-        <v>0.98646595467727438</v>
-      </c>
-      <c r="K33">
-        <f t="shared" si="2"/>
-        <v>0.91395041440491542</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-3.915954397678556E-4</v>
+      </c>
+      <c r="P33">
+        <v>-1.4403509931616432E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -24365,27 +25906,46 @@
         <v>0.98530375705746742</v>
       </c>
       <c r="G34">
+        <f t="shared" si="7"/>
+        <v>0.86010753276914165</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="9"/>
+        <v>0.89813827620951547</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="10"/>
+        <v>0.93735117409875668</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="11"/>
+        <v>0.98646595467727438</v>
+      </c>
+      <c r="K34">
         <f t="shared" si="3"/>
-        <v>0.86010753276914165</v>
-      </c>
-      <c r="H34">
+        <v>0.9050389875682715</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="8"/>
+        <v>2.5300780266009903E-3</v>
+      </c>
+      <c r="M34">
         <f t="shared" si="4"/>
-        <v>0.89813827620951547</v>
-      </c>
-      <c r="I34">
+        <v>1.2744589866470868E-2</v>
+      </c>
+      <c r="N34">
         <f t="shared" si="5"/>
-        <v>0.93735117409875668</v>
-      </c>
-      <c r="J34">
+        <v>3.8274772900244391E-2</v>
+      </c>
+      <c r="O34">
         <f t="shared" si="6"/>
-        <v>0.98646595467727438</v>
-      </c>
-      <c r="K34">
-        <f t="shared" si="2"/>
-        <v>0.9050389875682715</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-3.2185511336744188E-3</v>
+      </c>
+      <c r="P34">
+        <v>2.5300780266009903E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -24410,27 +25970,46 @@
         <v>0.98355586956172869</v>
       </c>
       <c r="G35">
+        <f t="shared" si="7"/>
+        <v>0.86010753276914165</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="9"/>
+        <v>0.89813827620951547</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="10"/>
+        <v>0.93735117409875668</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="11"/>
+        <v>0.98646595467727438</v>
+      </c>
+      <c r="K35">
         <f t="shared" si="3"/>
-        <v>0.86010753276914165</v>
-      </c>
-      <c r="H35">
+        <v>0.91071651817152954</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="8"/>
+        <v>-1.96973055509575E-3</v>
+      </c>
+      <c r="M35">
         <f t="shared" si="4"/>
-        <v>0.89813827620951547</v>
-      </c>
-      <c r="I35">
+        <v>4.7795718947277743E-3</v>
+      </c>
+      <c r="N35">
         <f t="shared" si="5"/>
-        <v>0.93735117409875668</v>
-      </c>
-      <c r="J35">
+        <v>2.6281589544913331E-2</v>
+      </c>
+      <c r="O35">
         <f t="shared" si="6"/>
-        <v>0.98646595467727438</v>
-      </c>
-      <c r="K35">
-        <f t="shared" si="2"/>
-        <v>0.91071651817152954</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-1.4706636379356874E-3</v>
+      </c>
+      <c r="P35">
+        <v>-1.96973055509575E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -24455,27 +26034,46 @@
         <v>0.98223401372574115</v>
       </c>
       <c r="G36">
+        <f t="shared" si="7"/>
+        <v>0.86010753276914165</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="9"/>
+        <v>0.89813827620951547</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="10"/>
+        <v>0.93735117409875668</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="11"/>
+        <v>0.98646595467727438</v>
+      </c>
+      <c r="K36">
         <f t="shared" si="3"/>
-        <v>0.86010753276914165</v>
-      </c>
-      <c r="H36">
+        <v>0.91436015862858233</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="8"/>
+        <v>-3.8710150192611259E-4</v>
+      </c>
+      <c r="M36">
         <f t="shared" si="4"/>
-        <v>0.89813827620951547</v>
-      </c>
-      <c r="I36">
+        <v>1.2871446550400956E-3</v>
+      </c>
+      <c r="N36">
         <f t="shared" si="5"/>
-        <v>0.93735117409875668</v>
-      </c>
-      <c r="J36">
+        <v>1.2294970067232347E-2</v>
+      </c>
+      <c r="O36">
         <f t="shared" si="6"/>
-        <v>0.98646595467727438</v>
-      </c>
-      <c r="K36">
-        <f t="shared" si="2"/>
-        <v>0.91436015862858233</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-1.4880780194814758E-4</v>
+      </c>
+      <c r="P36">
+        <v>-3.8710150192611259E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -24500,27 +26098,46 @@
         <v>0.982085205923793</v>
       </c>
       <c r="G37">
+        <f t="shared" si="7"/>
+        <v>0.86010753276914165</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="9"/>
+        <v>0.89813827620951547</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="10"/>
+        <v>0.93735117409875668</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="11"/>
+        <v>0.98646595467727438</v>
+      </c>
+      <c r="K37">
         <f t="shared" si="3"/>
-        <v>0.86010753276914165</v>
-      </c>
-      <c r="H37">
+        <v>0.91762170998318204</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M37">
         <f t="shared" si="4"/>
-        <v>0.89813827620951547</v>
-      </c>
-      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="N37">
         <f t="shared" si="5"/>
-        <v>0.93735117409875668</v>
-      </c>
-      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="O37">
         <f t="shared" si="6"/>
-        <v>0.98646595467727438</v>
-      </c>
-      <c r="K37">
-        <f t="shared" si="2"/>
-        <v>0.91762170998318204</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -24545,27 +26162,46 @@
         <v>0.98217987198591139</v>
       </c>
       <c r="G38">
+        <f t="shared" si="7"/>
+        <v>0.86010753276914165</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="9"/>
+        <v>0.89813827620951547</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="10"/>
+        <v>0.93735117409875668</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="11"/>
+        <v>0.98646595467727438</v>
+      </c>
+      <c r="K38">
         <f t="shared" si="3"/>
-        <v>0.86010753276914165</v>
-      </c>
-      <c r="H38">
+        <v>0.91734352762335281</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="8"/>
+        <v>2.2911393365057098E-3</v>
+      </c>
+      <c r="M38">
         <f t="shared" si="4"/>
-        <v>0.89813827620951547</v>
-      </c>
-      <c r="I38">
+        <v>1.1630825510128284E-3</v>
+      </c>
+      <c r="N38">
         <f t="shared" si="5"/>
-        <v>0.93735117409875668</v>
-      </c>
-      <c r="J38">
+        <v>-2.2468263860838666E-3</v>
+      </c>
+      <c r="O38">
         <f t="shared" si="6"/>
-        <v>0.98646595467727438</v>
-      </c>
-      <c r="K38">
-        <f t="shared" si="2"/>
-        <v>0.91734352762335281</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-9.4666062118387018E-5</v>
+      </c>
+      <c r="P38">
+        <v>2.2911393365057098E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -24590,27 +26226,46 @@
         <v>0.98279931516875896</v>
       </c>
       <c r="G39">
+        <f t="shared" si="7"/>
+        <v>0.86010753276914165</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="9"/>
+        <v>0.89813827620951547</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="10"/>
+        <v>0.93735117409875668</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="11"/>
+        <v>0.98646595467727438</v>
+      </c>
+      <c r="K39">
         <f t="shared" si="3"/>
-        <v>0.86010753276914165</v>
-      </c>
-      <c r="H39">
+        <v>0.91329471522980876</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="8"/>
+        <v>-7.3646270619875942E-4</v>
+      </c>
+      <c r="M39">
         <f t="shared" si="4"/>
-        <v>0.89813827620951547</v>
-      </c>
-      <c r="I39">
+        <v>3.1541129655371369E-3</v>
+      </c>
+      <c r="N39">
         <f t="shared" si="5"/>
-        <v>0.93735117409875668</v>
-      </c>
-      <c r="J39">
+        <v>1.5604437999120369E-2</v>
+      </c>
+      <c r="O39">
         <f t="shared" si="6"/>
-        <v>0.98646595467727438</v>
-      </c>
-      <c r="K39">
-        <f t="shared" si="2"/>
-        <v>0.91329471522980876</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-7.1410924496595474E-4</v>
+      </c>
+      <c r="P39">
+        <v>-7.3646270619875942E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -24635,27 +26290,46 @@
         <v>0.98339428419917974</v>
       </c>
       <c r="G40">
+        <f t="shared" si="7"/>
+        <v>0.86010753276914165</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="9"/>
+        <v>0.89813827620951547</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="10"/>
+        <v>0.93735117409875668</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="11"/>
+        <v>0.98646595467727438</v>
+      </c>
+      <c r="K40">
         <f t="shared" si="3"/>
-        <v>0.86010753276914165</v>
-      </c>
-      <c r="H40">
+        <v>0.91201689440091749</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="8"/>
+        <v>3.8680392022051313E-3</v>
+      </c>
+      <c r="M40">
         <f t="shared" si="4"/>
-        <v>0.89813827620951547</v>
-      </c>
-      <c r="I40">
+        <v>4.4947907596109005E-3</v>
+      </c>
+      <c r="N40">
         <f t="shared" si="5"/>
-        <v>0.93735117409875668</v>
-      </c>
-      <c r="J40">
+        <v>1.5365510642628699E-2</v>
+      </c>
+      <c r="O40">
         <f t="shared" si="6"/>
-        <v>0.98646595467727438</v>
-      </c>
-      <c r="K40">
-        <f t="shared" si="2"/>
-        <v>0.91201689440091749</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-1.3090782753867325E-3</v>
+      </c>
+      <c r="P40">
+        <v>3.8680392022051313E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -24680,27 +26354,46 @@
         <v>0.98431841528739616</v>
       </c>
       <c r="G41">
+        <f t="shared" si="7"/>
+        <v>0.86010753276914165</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="9"/>
+        <v>0.89813827620951547</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="10"/>
+        <v>0.93735117409875668</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="11"/>
+        <v>0.98646595467727438</v>
+      </c>
+      <c r="K41">
         <f t="shared" si="3"/>
-        <v>0.86010753276914165</v>
-      </c>
-      <c r="H41">
+        <v>0.88579197605260118</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="8"/>
+        <v>1.9599322104825845E-2</v>
+      </c>
+      <c r="M41">
         <f t="shared" si="4"/>
-        <v>0.89813827620951547</v>
-      </c>
-      <c r="I41">
+        <v>2.3370807361034029E-2</v>
+      </c>
+      <c r="N41">
         <f t="shared" si="5"/>
-        <v>0.93735117409875668</v>
-      </c>
-      <c r="J41">
+        <v>8.6582015620066177E-2</v>
+      </c>
+      <c r="O41">
         <f t="shared" si="6"/>
-        <v>0.98646595467727438</v>
-      </c>
-      <c r="K41">
-        <f t="shared" si="2"/>
-        <v>0.88579197605260118</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-2.2332093636031614E-3</v>
+      </c>
+      <c r="P41">
+        <v>1.9599322104825845E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -24725,27 +26418,46 @@
         <v>0.98305153689389968</v>
       </c>
       <c r="G42">
+        <f t="shared" si="7"/>
+        <v>0.86010753276914165</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="9"/>
+        <v>0.89813827620951547</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="10"/>
+        <v>0.93735117409875668</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="11"/>
+        <v>0.98646595467727438</v>
+      </c>
+      <c r="K42">
         <f t="shared" si="3"/>
-        <v>0.86010753276914165</v>
-      </c>
-      <c r="H42">
+        <v>0.89723809715482727</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="8"/>
+        <v>1.1697914236158957E-2</v>
+      </c>
+      <c r="M42">
         <f t="shared" si="4"/>
-        <v>0.89813827620951547</v>
-      </c>
-      <c r="I42">
+        <v>1.3171505406875395E-2</v>
+      </c>
+      <c r="N42">
         <f t="shared" si="5"/>
-        <v>0.93735117409875668</v>
-      </c>
-      <c r="J42">
+        <v>5.763136264049129E-2</v>
+      </c>
+      <c r="O42">
         <f t="shared" si="6"/>
-        <v>0.98646595467727438</v>
-      </c>
-      <c r="K42">
-        <f t="shared" si="2"/>
-        <v>0.89723809715482727</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-9.663309701066769E-4</v>
+      </c>
+      <c r="P42">
+        <v>1.1697914236158957E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -24770,27 +26482,46 @@
         <v>0.8856494746498168</v>
       </c>
       <c r="G43">
+        <f t="shared" si="7"/>
+        <v>0.86010753276914165</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="9"/>
+        <v>0.89813827620951547</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="10"/>
+        <v>0.93735117409875668</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="11"/>
+        <v>0.98646595467727438</v>
+      </c>
+      <c r="K43">
         <f t="shared" si="3"/>
-        <v>0.86010753276914165</v>
-      </c>
-      <c r="H43">
+        <v>0.80081004487162188</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="8"/>
+        <v>0.1628832784226758</v>
+      </c>
+      <c r="M43">
         <f t="shared" si="4"/>
-        <v>0.89813827620951547</v>
-      </c>
-      <c r="I43">
+        <v>0.17462463651223381</v>
+      </c>
+      <c r="N43">
         <f t="shared" si="5"/>
-        <v>0.93735117409875668</v>
-      </c>
-      <c r="J43">
+        <v>3.33030142373546E-2</v>
+      </c>
+      <c r="O43">
         <f t="shared" si="6"/>
-        <v>0.98646595467727438</v>
-      </c>
-      <c r="K43">
-        <f t="shared" si="2"/>
-        <v>0.80081004487162188</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+        <v>9.64357312739762E-2</v>
+      </c>
+      <c r="P43">
+        <v>0.1628832784226758</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -24815,27 +26546,46 @@
         <v>0.98561241146244449</v>
       </c>
       <c r="G44">
+        <f t="shared" si="7"/>
+        <v>0.86010753276914165</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="9"/>
+        <v>0.89813827620951547</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="10"/>
+        <v>0.93735117409875668</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="11"/>
+        <v>0.98646595467727438</v>
+      </c>
+      <c r="K44">
         <f t="shared" si="3"/>
-        <v>0.86010753276914165</v>
-      </c>
-      <c r="H44">
+        <v>0.90268517295608297</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="8"/>
+        <v>1.1033271246695397E-3</v>
+      </c>
+      <c r="M44">
         <f t="shared" si="4"/>
-        <v>0.89813827620951547</v>
-      </c>
-      <c r="I44">
+        <v>5.9180537978847925E-3</v>
+      </c>
+      <c r="N44">
         <f t="shared" si="5"/>
-        <v>0.93735117409875668</v>
-      </c>
-      <c r="J44">
+        <v>5.6251972724492894E-2</v>
+      </c>
+      <c r="O44">
         <f t="shared" si="6"/>
-        <v>0.98646595467727438</v>
-      </c>
-      <c r="K44">
-        <f t="shared" si="2"/>
-        <v>0.90268517295608297</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-3.52720553865149E-3</v>
+      </c>
+      <c r="P44">
+        <v>1.1033271246695397E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -24860,27 +26610,46 @@
         <v>0.98583855298290712</v>
       </c>
       <c r="G45">
+        <f t="shared" si="7"/>
+        <v>0.86010753276914165</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="9"/>
+        <v>0.89813827620951547</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="10"/>
+        <v>0.93735117409875668</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="11"/>
+        <v>0.98646595467727438</v>
+      </c>
+      <c r="K45">
         <f t="shared" si="3"/>
-        <v>0.86010753276914165</v>
-      </c>
-      <c r="H45">
+        <v>0.89780449301188103</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="8"/>
+        <v>5.569652295993599E-3</v>
+      </c>
+      <c r="M45">
         <f t="shared" si="4"/>
-        <v>0.89813827620951547</v>
-      </c>
-      <c r="I45">
+        <v>1.3788995387855385E-2</v>
+      </c>
+      <c r="N45">
         <f t="shared" si="5"/>
-        <v>0.93735117409875668</v>
-      </c>
-      <c r="J45">
+        <v>6.3663567260468512E-2</v>
+      </c>
+      <c r="O45">
         <f t="shared" si="6"/>
-        <v>0.98646595467727438</v>
-      </c>
-      <c r="K45">
-        <f t="shared" si="2"/>
-        <v>0.89780449301188103</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-3.7533470591141205E-3</v>
+      </c>
+      <c r="P45">
+        <v>5.569652295993599E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -24905,27 +26674,46 @@
         <v>0.9641705618032137</v>
       </c>
       <c r="G46">
+        <f t="shared" si="7"/>
+        <v>0.86010753276914165</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="9"/>
+        <v>0.89813827620951547</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="10"/>
+        <v>0.93735117409875668</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="11"/>
+        <v>0.98646595467727438</v>
+      </c>
+      <c r="K46">
         <f t="shared" si="3"/>
-        <v>0.86010753276914165</v>
-      </c>
-      <c r="H46">
+        <v>0.8805333579552892</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="8"/>
+        <v>5.5247453458252438E-2</v>
+      </c>
+      <c r="M46">
         <f t="shared" si="4"/>
-        <v>0.89813827620951547</v>
-      </c>
-      <c r="I46">
+        <v>6.1100802146632716E-2</v>
+      </c>
+      <c r="N46">
         <f t="shared" si="5"/>
-        <v>0.93735117409875668</v>
-      </c>
-      <c r="J46">
+        <v>1.4090508386107037E-2</v>
+      </c>
+      <c r="O46">
         <f t="shared" si="6"/>
-        <v>0.98646595467727438</v>
-      </c>
-      <c r="K46">
-        <f t="shared" si="2"/>
-        <v>0.8805333579552892</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.7914644120579304E-2</v>
+      </c>
+      <c r="P46">
+        <v>5.5247453458252438E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -24950,27 +26738,46 @@
         <v>0.97681858320524451</v>
       </c>
       <c r="G47">
+        <f t="shared" si="7"/>
+        <v>0.86010753276914165</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="9"/>
+        <v>0.89813827620951547</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="10"/>
+        <v>0.93735117409875668</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="11"/>
+        <v>0.98646595467727438</v>
+      </c>
+      <c r="K47">
         <f t="shared" si="3"/>
-        <v>0.86010753276914165</v>
-      </c>
-      <c r="H47">
+        <v>0.90164816918177659</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="8"/>
+        <v>2.5755134803363333E-2</v>
+      </c>
+      <c r="M47">
         <f t="shared" si="4"/>
-        <v>0.89813827620951547</v>
-      </c>
-      <c r="I47">
+        <v>2.813497970056722E-2</v>
+      </c>
+      <c r="N47">
         <f t="shared" si="5"/>
-        <v>0.93735117409875668</v>
-      </c>
-      <c r="J47">
+        <v>4.7374259831423071E-3</v>
+      </c>
+      <c r="O47">
         <f t="shared" si="6"/>
-        <v>0.98646595467727438</v>
-      </c>
-      <c r="K47">
-        <f t="shared" si="2"/>
-        <v>0.90164816918177659</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+        <v>5.2666227185484971E-3</v>
+      </c>
+      <c r="P47">
+        <v>2.5755134803363333E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -24995,27 +26802,46 @@
         <v>0.98222130009709707</v>
       </c>
       <c r="G48">
+        <f t="shared" si="7"/>
+        <v>0.86010753276914165</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="9"/>
+        <v>0.89813827620951547</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="10"/>
+        <v>0.93735117409875668</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="11"/>
+        <v>0.98646595467727438</v>
+      </c>
+      <c r="K48">
         <f t="shared" si="3"/>
-        <v>0.86010753276914165</v>
-      </c>
-      <c r="H48">
+        <v>0.9150141429204236</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="8"/>
+        <v>3.9960166865027347E-5</v>
+      </c>
+      <c r="M48">
         <f t="shared" si="4"/>
-        <v>0.89813827620951547</v>
-      </c>
-      <c r="I48">
+        <v>4.9778776003039926E-4</v>
+      </c>
+      <c r="N48">
         <f t="shared" si="5"/>
-        <v>0.93735117409875668</v>
-      </c>
-      <c r="J48">
+        <v>1.0028614497442079E-2</v>
+      </c>
+      <c r="O48">
         <f t="shared" si="6"/>
-        <v>0.98646595467727438</v>
-      </c>
-      <c r="K48">
-        <f t="shared" si="2"/>
-        <v>0.9150141429204236</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-1.3609417330406881E-4</v>
+      </c>
+      <c r="P48">
+        <v>3.9960166865027347E-5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -25040,27 +26866,46 @@
         <v>0.98280620240647631</v>
       </c>
       <c r="G49">
+        <f t="shared" si="7"/>
+        <v>0.86010753276914165</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="9"/>
+        <v>0.89813827620951547</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="10"/>
+        <v>0.93735117409875668</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="11"/>
+        <v>0.98646595467727438</v>
+      </c>
+      <c r="K49">
         <f t="shared" si="3"/>
-        <v>0.86010753276914165</v>
-      </c>
-      <c r="H49">
+        <v>0.8966183257989131</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="8"/>
+        <v>1.1768651972416833E-2</v>
+      </c>
+      <c r="M49">
         <f t="shared" si="4"/>
-        <v>0.89813827620951547</v>
-      </c>
-      <c r="I49">
+        <v>1.3117503920852314E-2</v>
+      </c>
+      <c r="N49">
         <f t="shared" si="5"/>
-        <v>0.93735117409875668</v>
-      </c>
-      <c r="J49">
+        <v>5.9848377326489399E-2</v>
+      </c>
+      <c r="O49">
         <f t="shared" si="6"/>
-        <v>0.98646595467727438</v>
-      </c>
-      <c r="K49">
-        <f t="shared" si="2"/>
-        <v>0.8966183257989131</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-7.2099648268331151E-4</v>
+      </c>
+      <c r="P49">
+        <v>1.1768651972416833E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -25085,27 +26930,46 @@
         <v>0.98299768821423295</v>
       </c>
       <c r="G50">
+        <f t="shared" si="7"/>
+        <v>0.86010753276914165</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="9"/>
+        <v>0.89813827620951547</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="10"/>
+        <v>0.93735117409875668</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="11"/>
+        <v>0.98646595467727438</v>
+      </c>
+      <c r="K50">
         <f t="shared" si="3"/>
-        <v>0.86010753276914165</v>
-      </c>
-      <c r="H50">
+        <v>0.91465230458932634</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="8"/>
+        <v>-2.8083265978713357E-3</v>
+      </c>
+      <c r="M50">
         <f t="shared" si="4"/>
-        <v>0.89813827620951547</v>
-      </c>
-      <c r="I50">
+        <v>2.7428620641668511E-3</v>
+      </c>
+      <c r="N50">
         <f t="shared" si="5"/>
-        <v>0.93735117409875668</v>
-      </c>
-      <c r="J50">
+        <v>1.2855568399566919E-2</v>
+      </c>
+      <c r="O50">
         <f t="shared" si="6"/>
-        <v>0.98646595467727438</v>
-      </c>
-      <c r="K50">
-        <f t="shared" si="2"/>
-        <v>0.91465230458932634</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-9.1248229043994211E-4</v>
+      </c>
+      <c r="P50">
+        <v>-2.8083265978713357E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -25130,50 +26994,819 @@
         <v>0.98173642604045752</v>
       </c>
       <c r="G51">
+        <f t="shared" si="7"/>
+        <v>0.86010753276914165</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="9"/>
+        <v>0.89813827620951547</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="10"/>
+        <v>0.93735117409875668</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="11"/>
+        <v>0.98646595467727438</v>
+      </c>
+      <c r="K51">
         <f t="shared" si="3"/>
-        <v>0.86010753276914165</v>
-      </c>
-      <c r="H51">
+        <v>0.91726862757437622</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="8"/>
+        <v>2.5231020998391918E-3</v>
+      </c>
+      <c r="M51">
         <f t="shared" si="4"/>
-        <v>0.89813827620951547</v>
-      </c>
-      <c r="I51">
+        <v>9.9523024823944262E-4</v>
+      </c>
+      <c r="N51">
         <f t="shared" si="5"/>
-        <v>0.93735117409875668</v>
-      </c>
-      <c r="J51">
+        <v>-2.4547825961910297E-3</v>
+      </c>
+      <c r="O51">
         <f t="shared" si="6"/>
-        <v>0.98646595467727438</v>
-      </c>
-      <c r="K51">
-        <f t="shared" si="2"/>
-        <v>0.91726862757437622</v>
+        <v>3.487798833354816E-4</v>
+      </c>
+      <c r="P51">
+        <v>2.5231020998391918E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P52">
+        <v>1.25073866177795E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P53">
+        <v>1.0424964768558365E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P54">
+        <v>5.7346306339821629E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P55">
+        <v>5.0406699670838551E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P56">
+        <v>1.1578293955594843E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P57">
+        <v>1.1043151169664034E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P58">
+        <v>2.274560490700317E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P59">
+        <v>2.9022156477096606E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P60">
+        <v>4.2615885431357414E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P61">
+        <v>0.10135400113885173</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P62">
+        <v>0.17462463651223381</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P63">
+        <v>1.4004144827339804E-4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P64">
+        <v>2.7291427339927177E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P65">
+        <v>5.2386410935901795E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P66">
+        <v>2.2738809836453377E-4</v>
+      </c>
+    </row>
+    <row r="67" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P67">
+        <v>2.5213693951290361E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P68">
+        <v>1.4167751965567632E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P69">
+        <v>2.2020211183925831E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P70">
+        <v>4.8782721192274225E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P71">
+        <v>4.5419176407570205E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P72">
+        <v>1.2960823324987825E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P73">
+        <v>7.9986306511292682E-5</v>
+      </c>
+    </row>
+    <row r="74" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P74">
+        <v>3.0052276413879975E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P75">
+        <v>1.0111255955148946E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P76">
+        <v>8.8308996127858252E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P77">
+        <v>6.1100802146632716E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P78">
+        <v>4.5377116340014068E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P79">
+        <v>4.535970975601078E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P80">
+        <v>-5.173295481197826E-4</v>
+      </c>
+    </row>
+    <row r="81" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P81">
+        <v>1.5028881682580542E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P82">
+        <v>-1.7457924236274902E-4</v>
+      </c>
+    </row>
+    <row r="83" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P83">
+        <v>4.3717176086782716E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P84">
+        <v>1.2744589866470868E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P85">
+        <v>4.7795718947277743E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P86">
+        <v>1.2871446550400956E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P88">
+        <v>1.1630825510128284E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P89">
+        <v>3.1541129655371369E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P90">
+        <v>4.4947907596109005E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P91">
+        <v>2.3370807361034029E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P92">
+        <v>1.3171505406875395E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P93">
+        <v>0.17462463651223381</v>
+      </c>
+    </row>
+    <row r="94" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P94">
+        <v>5.9180537978847925E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P95">
+        <v>1.3788995387855385E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P96">
+        <v>6.1100802146632716E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P97">
+        <v>2.813497970056722E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P98">
+        <v>4.9778776003039926E-4</v>
+      </c>
+    </row>
+    <row r="99" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P99">
+        <v>1.3117503920852314E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P100">
+        <v>2.7428620641668511E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P101">
+        <v>9.9523024823944262E-4</v>
+      </c>
+    </row>
+    <row r="102" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P102">
+        <v>-3.7972101664554003E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P103">
+        <v>3.4507426638579863E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P104">
+        <v>2.8721065904339871E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P105">
+        <v>5.4407241957841079E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P106">
+        <v>6.073019077922337E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P107">
+        <v>1.0410696138012043E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P108">
+        <v>9.2861295100467145E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P109">
+        <v>9.0731232861886668E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P110">
+        <v>1.2262986185964997E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P111">
+        <v>1.0134826417029008E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P112">
+        <v>3.33030142373546E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P113">
+        <v>2.4698250281870449E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P114">
+        <v>4.1028680072651147E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P115">
+        <v>1.8106643054982219E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P116">
+        <v>4.4280884370906382E-4</v>
+      </c>
+    </row>
+    <row r="117" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P117">
+        <v>-1.9593021937209798E-3</v>
+      </c>
+    </row>
+    <row r="118" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P118">
+        <v>8.5678338234691842E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P119">
+        <v>7.1776857764995206E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P120">
+        <v>8.1538436852237606E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P121">
+        <v>1.2070362617414232E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P122">
+        <v>-3.1125041711627111E-3</v>
+      </c>
+    </row>
+    <row r="123" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P123">
+        <v>-1.9746289255131444E-3</v>
+      </c>
+    </row>
+    <row r="124" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P124">
+        <v>1.615207488040904E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P125">
+        <v>5.7716137286099922E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P126">
+        <v>5.6924870316509057E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P127">
+        <v>4.9095609886109948E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P128">
+        <v>3.7887850674840351E-3</v>
+      </c>
+    </row>
+    <row r="129" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P129">
+        <v>6.0115728888881392E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P130">
+        <v>3.4759453430760701E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P131">
+        <v>1.5178585034013925E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P132">
+        <v>2.2976786846266029E-3</v>
+      </c>
+    </row>
+    <row r="133" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P133">
+        <v>1.2145411137317375E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P134">
+        <v>3.8274772900244391E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P135">
+        <v>2.6281589544913331E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P136">
+        <v>1.2294970067232347E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P138">
+        <v>-2.2468263860838666E-3</v>
+      </c>
+    </row>
+    <row r="139" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P139">
+        <v>1.5604437999120369E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P140">
+        <v>1.5365510642628699E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P141">
+        <v>8.6582015620066177E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P142">
+        <v>5.763136264049129E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P143">
+        <v>3.33030142373546E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P144">
+        <v>5.6251972724492894E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P145">
+        <v>6.3663567260468512E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P146">
+        <v>1.4090508386107037E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P147">
+        <v>4.7374259831423071E-3</v>
+      </c>
+    </row>
+    <row r="148" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P148">
+        <v>1.0028614497442079E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P149">
+        <v>5.9848377326489399E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P150">
+        <v>1.2855568399566919E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P151">
+        <v>-2.4547825961910297E-3</v>
+      </c>
+    </row>
+    <row r="152" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P152">
+        <v>7.2783589330160936E-4</v>
+      </c>
+    </row>
+    <row r="153" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P153">
+        <v>-2.3316561477126907E-4</v>
+      </c>
+    </row>
+    <row r="154" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P154">
+        <v>-1.7782642785579839E-3</v>
+      </c>
+    </row>
+    <row r="155" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P155">
+        <v>-1.6958064886536395E-3</v>
+      </c>
+    </row>
+    <row r="156" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P156">
+        <v>-3.5371830566927054E-3</v>
+      </c>
+    </row>
+    <row r="157" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P157">
+        <v>-4.1273357315407821E-4</v>
+      </c>
+    </row>
+    <row r="158" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P158">
+        <v>-3.6644263678953237E-3</v>
+      </c>
+    </row>
+    <row r="159" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P159">
+        <v>-2.6896638816664709E-3</v>
+      </c>
+    </row>
+    <row r="160" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P160">
+        <v>-1.5320946238699396E-3</v>
+      </c>
+    </row>
+    <row r="161" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P161">
+        <v>4.6598296883013091E-2</v>
+      </c>
+    </row>
+    <row r="162" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P162">
+        <v>9.64357312739762E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P163">
+        <v>-2.3598575287531176E-4</v>
+      </c>
+    </row>
+    <row r="164" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P164">
+        <v>-7.7557650896842301E-4</v>
+      </c>
+    </row>
+    <row r="165" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P165">
+        <v>-1.2608665653591755E-3</v>
+      </c>
+    </row>
+    <row r="166" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P166">
+        <v>-1.1649411995218184E-4</v>
+      </c>
+    </row>
+    <row r="167" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P167">
+        <v>3.4712068307007904E-4</v>
+      </c>
+    </row>
+    <row r="168" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P168">
+        <v>-3.1834146498117555E-3</v>
+      </c>
+    </row>
+    <row r="169" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P169">
+        <v>-4.3807487534813783E-3</v>
+      </c>
+    </row>
+    <row r="170" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P170">
+        <v>-3.9341533994541322E-5</v>
+      </c>
+    </row>
+    <row r="171" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P171">
+        <v>9.4016846028448509E-3</v>
+      </c>
+    </row>
+    <row r="172" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P172">
+        <v>2.935081281181251E-4</v>
+      </c>
+    </row>
+    <row r="173" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P173">
+        <v>-9.2345875253529996E-5</v>
+      </c>
+    </row>
+    <row r="174" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P174">
+        <v>-1.4362096441111749E-3</v>
+      </c>
+    </row>
+    <row r="175" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P175">
+        <v>-4.190905261172051E-3</v>
+      </c>
+    </row>
+    <row r="176" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P176">
+        <v>-3.4007894761334256E-3</v>
+      </c>
+    </row>
+    <row r="177" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P177">
+        <v>1.7646505721068073E-2</v>
+      </c>
+    </row>
+    <row r="178" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P178">
+        <v>9.2818600293314013E-3</v>
+      </c>
+    </row>
+    <row r="179" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P179">
+        <v>8.1841845185364193E-3</v>
+      </c>
+    </row>
+    <row r="180" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P180">
+        <v>-2.1900944957597979E-4</v>
+      </c>
+    </row>
+    <row r="181" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P181">
+        <v>-1.5768273573901759E-3</v>
+      </c>
+    </row>
+    <row r="182" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P182">
+        <v>-2.4244855338995119E-4</v>
+      </c>
+    </row>
+    <row r="183" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P183">
+        <v>-3.915954397678556E-4</v>
+      </c>
+    </row>
+    <row r="184" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P184">
+        <v>-3.2185511336744188E-3</v>
+      </c>
+    </row>
+    <row r="185" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P185">
+        <v>-1.4706636379356874E-3</v>
+      </c>
+    </row>
+    <row r="186" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P186">
+        <v>-1.4880780194814758E-4</v>
+      </c>
+    </row>
+    <row r="187" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P188">
+        <v>-9.4666062118387018E-5</v>
+      </c>
+    </row>
+    <row r="189" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P189">
+        <v>-7.1410924496595474E-4</v>
+      </c>
+    </row>
+    <row r="190" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P190">
+        <v>-1.3090782753867325E-3</v>
+      </c>
+    </row>
+    <row r="191" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P191">
+        <v>-2.2332093636031614E-3</v>
+      </c>
+    </row>
+    <row r="192" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P192">
+        <v>-9.663309701066769E-4</v>
+      </c>
+    </row>
+    <row r="193" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P193">
+        <v>9.64357312739762E-2</v>
+      </c>
+    </row>
+    <row r="194" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P194">
+        <v>-3.52720553865149E-3</v>
+      </c>
+    </row>
+    <row r="195" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P195">
+        <v>-3.7533470591141205E-3</v>
+      </c>
+    </row>
+    <row r="196" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P196">
+        <v>1.7914644120579304E-2</v>
+      </c>
+    </row>
+    <row r="197" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P197">
+        <v>5.2666227185484971E-3</v>
+      </c>
+    </row>
+    <row r="198" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P198">
+        <v>-1.3609417330406881E-4</v>
+      </c>
+    </row>
+    <row r="199" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P199">
+        <v>-7.2099648268331151E-4</v>
+      </c>
+    </row>
+    <row r="200" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P200">
+        <v>-9.1248229043994211E-4</v>
+      </c>
+    </row>
+    <row r="201" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P201">
+        <v>3.487798833354816E-4</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>$Q$2</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>$G$51</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>$H$51</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>$I$51</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>$J$51</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K1048576">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+      <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HW1/results/v1/DecisionTreeClassifier/random/calculationsAndCharts.xlsx
+++ b/HW1/results/v1/DecisionTreeClassifier/random/calculationsAndCharts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\donts\Documents\Files\AutoML\HW1\repo\AutoML\HW1\results\v1\DecisionTreeClassifier\random\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7BCAC6E-0B6D-408C-AA0F-5DCFF02EE03C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1641F4-3E62-496A-B647-5FFD834029A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" firstSheet="4" activeTab="5" xr2:uid="{5557167C-0605-4BD0-8448-1B4F42F20281}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="4" xr2:uid="{5557167C-0605-4BD0-8448-1B4F42F20281}"/>
   </bookViews>
   <sheets>
     <sheet name="PhishingWebsites" sheetId="5" r:id="rId1"/>
@@ -26,23 +26,13 @@
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$L$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$L$1:$O$1</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$L$1:$O$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$L$2:$L$51</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$M$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$M$2:$M$51</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$N$1</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$N$2:$N$51</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$O$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$O$2:$O$51</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$L$2:$L$51</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$M$1</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$M$2:$M$51</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$N$1</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$N$2:$N$51</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$O$1</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$O$2:$O$51</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$L$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$L$2:$L$51</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$M$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$M$2:$M$51</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$N$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$N$2:$N$51</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$O$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$O$2:$O$51</definedName>
     <definedName name="ExternalData_1" localSheetId="3" hidden="1">elevators!$A$1:$V$51</definedName>
     <definedName name="ExternalData_2" localSheetId="2" hidden="1">MagicTelescope!$A$1:$V$51</definedName>
     <definedName name="ExternalData_3" localSheetId="1" hidden="1">mozilla4!$A$1:$V$51</definedName>
@@ -86,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="100">
   <si>
     <t>Column1</t>
   </si>
@@ -364,9 +354,6 @@
     <t>mozilla</t>
   </si>
   <si>
-    <t>cummulate</t>
-  </si>
-  <si>
     <t>MagicTelescope</t>
   </si>
   <si>
@@ -374,6 +361,21 @@
   </si>
   <si>
     <t>PhishingWebsites</t>
+  </si>
+  <si>
+    <t>cummulative elevators</t>
+  </si>
+  <si>
+    <t>cummulative telescope</t>
+  </si>
+  <si>
+    <t>cummulative mozilla</t>
+  </si>
+  <si>
+    <t>cummulative phishing</t>
+  </si>
+  <si>
+    <t>cummulative</t>
   </si>
 </sst>
 </file>
@@ -983,7 +985,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$R$9:$R$10</c:f>
+              <c:f>Sheet1!$V$9:$V$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -998,7 +1000,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$S$9:$S$10</c:f>
+              <c:f>Sheet1!$W$9:$W$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2911,7 +2913,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$R$13:$R$14</c:f>
+              <c:f>Sheet1!$V$13:$V$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2926,7 +2928,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$S$9:$S$10</c:f>
+              <c:f>Sheet1!$W$9:$W$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -4868,7 +4870,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$R$21:$R$22</c:f>
+              <c:f>Sheet1!$V$21:$V$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -4883,7 +4885,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$S$9:$S$10</c:f>
+              <c:f>Sheet1!$W$9:$W$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5927,22 +5929,22 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.11</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.13</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.15</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.17</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -5952,7 +5954,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{08480053-DB8D-41F1-B052-F987FD1A5AF4}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.9</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>elevators</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5965,7 +5967,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{088522FA-4E8F-462C-AAA0-FD991C8222DB}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.12</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>MagicTelescope</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5978,7 +5980,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{CA1BE64D-B77E-476C-978D-AD7608AE2F16}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.14</cx:f>
+              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v>mozilla4</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5991,7 +5993,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{41F18BAC-5EC7-4531-80A4-0959B57FBB9F}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.16</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>PhishingWebsites</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8800,7 +8802,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{1F092FD3-9BB4-47B2-B017-23B18CF630F2}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="59" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="59" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8855,7 +8857,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8657167" cy="6286500"/>
+    <xdr:ext cx="8653220" cy="6285424"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
@@ -8921,7 +8923,7 @@
         <cdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC592C65-2BE7-2C58-C837-36689F2295E0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F6BEC81-92EE-22A7-BDCC-C8FEB9C83AB3}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -8932,7 +8934,7 @@
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="0" y="0"/>
-          <a:ext cx="8657167" cy="6286500"/>
+          <a:ext cx="8653220" cy="6285424"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -23641,10 +23643,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7922235-7E49-4102-BA15-4B3DDB670ECB}">
-  <dimension ref="A1:W201"/>
+  <dimension ref="A1:AA201"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:O1"/>
+    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:O51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23657,11 +23659,11 @@
     <col min="7" max="10" width="19.453125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
     <col min="12" max="15" width="20.36328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.36328125" customWidth="1"/>
-    <col min="18" max="18" width="23.453125" customWidth="1"/>
+    <col min="16" max="20" width="20.36328125" customWidth="1"/>
+    <col min="22" max="22" width="23.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>72</v>
       </c>
@@ -23699,31 +23701,43 @@
         <v>89</v>
       </c>
       <c r="M1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N1" t="s">
         <v>93</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>94</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>95</v>
       </c>
-      <c r="P1" t="s">
-        <v>92</v>
+      <c r="Q1" t="s">
+        <v>96</v>
+      </c>
+      <c r="R1" t="s">
+        <v>97</v>
+      </c>
+      <c r="S1" t="s">
+        <v>98</v>
       </c>
       <c r="T1" t="s">
+        <v>99</v>
+      </c>
+      <c r="X1" t="s">
         <v>89</v>
       </c>
-      <c r="U1" t="s">
+      <c r="Y1" t="s">
         <v>90</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Z1" t="s">
         <v>91</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AA1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -23768,49 +23782,65 @@
         <v>0.91286251999349477</v>
       </c>
       <c r="L2">
-        <f>T$2-C2</f>
+        <f>X$2-C2</f>
         <v>9.5987476141227157E-3</v>
       </c>
       <c r="M2">
-        <f>U$2-D2</f>
+        <f>Y$2-D2</f>
         <v>1.2507386617779503E-2</v>
       </c>
       <c r="N2">
-        <f>V$2-E2</f>
+        <f>Z$2-E2</f>
         <v>-3.7972101664554003E-3</v>
       </c>
       <c r="O2">
-        <f>W$2-F2</f>
+        <f>AA$2-F2</f>
         <v>7.2783589330160936E-4</v>
       </c>
       <c r="P2">
-        <v>9.5987476141227157E-3</v>
-      </c>
-      <c r="R2" t="s">
+        <f>$W$2-C2</f>
+        <v>6.9993734182067002E-2</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" ref="Q2:S2" si="1">$W$2-D2</f>
+        <v>3.2508149939565856E-2</v>
+      </c>
+      <c r="R2">
+        <f t="shared" si="1"/>
+        <v>-1.9729464115574635E-2</v>
+      </c>
+      <c r="S2">
+        <f t="shared" si="1"/>
+        <v>-6.373566004730935E-2</v>
+      </c>
+      <c r="T2">
+        <v>6.9993734182067002E-2</v>
+      </c>
+      <c r="V2" t="s">
         <v>81</v>
       </c>
-      <c r="S2">
+      <c r="W2">
         <f>MAX(K:K)</f>
         <v>0.91762170998318204</v>
       </c>
-      <c r="T2">
+      <c r="X2">
         <f>C37</f>
         <v>0.85722672341523776</v>
       </c>
-      <c r="U2">
-        <f t="shared" ref="U2:W2" si="1">D37</f>
+      <c r="Y2">
+        <f>D37</f>
         <v>0.89762094666139569</v>
       </c>
-      <c r="V2">
-        <f t="shared" si="1"/>
+      <c r="Z2">
+        <f>E37</f>
         <v>0.93355396393230128</v>
       </c>
-      <c r="W2">
-        <f t="shared" si="1"/>
+      <c r="AA2">
+        <f>F37</f>
         <v>0.982085205923793</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -23855,33 +23885,49 @@
         <v>0.90880831839794196</v>
       </c>
       <c r="L3">
-        <f>T$2-C3</f>
+        <f>X$2-C3</f>
         <v>-6.3191159704545363E-5</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M51" si="4">U$2-D3</f>
+        <f t="shared" ref="M3:M51" si="4">Y$2-D3</f>
         <v>1.0424964768558365E-3</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N51" si="5">V$2-E3</f>
+        <f t="shared" ref="N3:N51" si="5">Z$2-E3</f>
         <v>3.4507426638579863E-2</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:P51" si="6">W$2-F3</f>
+        <f t="shared" ref="O3:O51" si="6">AA$2-F3</f>
         <v>-2.3316561477126907E-4</v>
       </c>
       <c r="P3">
-        <v>-6.3191159704545363E-5</v>
-      </c>
-      <c r="R3" t="s">
+        <f t="shared" ref="P3:P51" si="7">$W$2-C3</f>
+        <v>6.0331795408239741E-2</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q51" si="8">$W$2-D3</f>
+        <v>2.1043259798642189E-2</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R51" si="9">$W$2-E3</f>
+        <v>1.8575172689460628E-2</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:T51" si="10">$W$2-F3</f>
+        <v>-6.4696661555382229E-2</v>
+      </c>
+      <c r="T3">
+        <v>6.0331795408239741E-2</v>
+      </c>
+      <c r="V3" t="s">
         <v>83</v>
       </c>
-      <c r="S3">
+      <c r="W3">
         <f>A37</f>
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -23906,7 +23952,7 @@
         <v>0.98386347020235099</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G51" si="7">MAX(C4,G3)</f>
+        <f t="shared" ref="G4:G51" si="11">MAX(C4,G3)</f>
         <v>0.8572899145749423</v>
       </c>
       <c r="H4">
@@ -23926,7 +23972,7 @@
         <v>0.90929936724172711</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L3:L51" si="8">T$2-C4</f>
+        <f t="shared" ref="L4:L51" si="12">X$2-C4</f>
         <v>6.1193870605502632E-4</v>
       </c>
       <c r="M4">
@@ -23942,10 +23988,26 @@
         <v>-1.7782642785579839E-3</v>
       </c>
       <c r="P4">
-        <v>6.1193870605502632E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v>6.1006925273999313E-2</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="8"/>
+        <v>2.5735393955768515E-2</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="9"/>
+        <v>1.2788811955220636E-2</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="10"/>
+        <v>-6.6241760219168944E-2</v>
+      </c>
+      <c r="T4">
+        <v>6.1006925273999313E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -23970,7 +24032,7 @@
         <v>0.98378101241244664</v>
       </c>
       <c r="G5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.8572899145749423</v>
       </c>
       <c r="H5">
@@ -23990,7 +24052,7 @@
         <v>0.90302163854748452</v>
       </c>
       <c r="L5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>6.481803065181424E-4</v>
       </c>
       <c r="M5">
@@ -24006,10 +24068,26 @@
         <v>-1.6958064886536395E-3</v>
       </c>
       <c r="P5">
-        <v>6.481803065181424E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v>6.1043166874462429E-2</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="8"/>
+        <v>2.5041433288870207E-2</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="9"/>
+        <v>3.8474988008721844E-2</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="10"/>
+        <v>-6.6159302429264599E-2</v>
+      </c>
+      <c r="T5">
+        <v>6.1043166874462429E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -24034,7 +24112,7 @@
         <v>0.98562238898048571</v>
       </c>
       <c r="G6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.8572899145749423</v>
       </c>
       <c r="H6">
@@ -24054,7 +24132,7 @@
         <v>0.89933415667012884</v>
       </c>
       <c r="L6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>4.3789115740867635E-3</v>
       </c>
       <c r="M6">
@@ -24070,10 +24148,26 @@
         <v>-3.5371830566927054E-3</v>
       </c>
       <c r="P6">
-        <v>4.3789115740867635E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v>6.477389814203105E-2</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="8"/>
+        <v>3.1579057277381195E-2</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="9"/>
+        <v>4.4797936830104135E-2</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="10"/>
+        <v>-6.8000678997303665E-2</v>
+      </c>
+      <c r="T6">
+        <v>6.477389814203105E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -24098,7 +24192,7 @@
         <v>0.98249793949694708</v>
       </c>
       <c r="G7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.85820946562493883</v>
       </c>
       <c r="H7">
@@ -24118,7 +24212,7 @@
         <v>0.91509182611515105</v>
       </c>
       <c r="L7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>-9.8274220970107073E-4</v>
       </c>
       <c r="M7">
@@ -24134,10 +24228,26 @@
         <v>-4.1273357315407821E-4</v>
       </c>
       <c r="P7">
-        <v>-9.8274220970107073E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v>5.9412244358243216E-2</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="8"/>
+        <v>2.1105078438752756E-2</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="9"/>
+        <v>-5.5215578111071917E-3</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="10"/>
+        <v>-6.4876229513765038E-2</v>
+      </c>
+      <c r="T7">
+        <v>5.9412244358243216E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -24162,7 +24272,7 @@
         <v>0.98574963229168833</v>
       </c>
       <c r="G8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.85820946562493883</v>
       </c>
       <c r="H8">
@@ -24182,7 +24292,7 @@
         <v>0.88477154764702659</v>
       </c>
       <c r="L8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.9458175705046044E-2</v>
       </c>
       <c r="M8">
@@ -24198,16 +24308,32 @@
         <v>-3.6644263678953237E-3</v>
       </c>
       <c r="P8">
-        <v>1.9458175705046044E-2</v>
-      </c>
-      <c r="R8" t="s">
+        <f t="shared" si="7"/>
+        <v>7.985316227299033E-2</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="8"/>
+        <v>4.2746368228789522E-2</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="9"/>
+        <v>7.692904115134791E-2</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="10"/>
+        <v>-6.8127922308506283E-2</v>
+      </c>
+      <c r="T8">
+        <v>7.985316227299033E-2</v>
+      </c>
+      <c r="V8" t="s">
         <v>84</v>
       </c>
-      <c r="S8" t="s">
+      <c r="W8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -24232,7 +24358,7 @@
         <v>0.98477486980545947</v>
       </c>
       <c r="G9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.85820946562493883</v>
       </c>
       <c r="H9">
@@ -24252,7 +24378,7 @@
         <v>0.88323843911515199</v>
       </c>
       <c r="L9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2.0469358014802763E-2</v>
       </c>
       <c r="M9">
@@ -24268,17 +24394,33 @@
         <v>-2.6896638816664709E-3</v>
       </c>
       <c r="P9">
-        <v>2.0469358014802763E-2</v>
+        <f t="shared" si="7"/>
+        <v>8.086434458274705E-2</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="8"/>
+        <v>4.9022919798882958E-2</v>
       </c>
       <c r="R9">
+        <f t="shared" si="9"/>
+        <v>7.4798978912767433E-2</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="10"/>
+        <v>-6.7153159822277431E-2</v>
+      </c>
+      <c r="T9">
+        <v>8.086434458274705E-2</v>
+      </c>
+      <c r="V9">
         <f>A24</f>
         <v>23</v>
       </c>
-      <c r="S9">
+      <c r="W9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -24303,7 +24445,7 @@
         <v>0.98361730054766294</v>
       </c>
       <c r="G10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.85907546961534109</v>
       </c>
       <c r="H10">
@@ -24323,7 +24465,7 @@
         <v>0.91433577650690001</v>
       </c>
       <c r="L10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>-1.848746200103335E-3</v>
       </c>
       <c r="M10">
@@ -24339,17 +24481,33 @@
         <v>-1.5320946238699396E-3</v>
       </c>
       <c r="P10">
-        <v>-1.848746200103335E-3</v>
+        <f t="shared" si="7"/>
+        <v>5.8546240367840952E-2</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="8"/>
+        <v>2.4262351864922094E-2</v>
       </c>
       <c r="R10">
-        <f>R9</f>
+        <f t="shared" si="9"/>
+        <v>-3.6692677631542381E-3</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="10"/>
+        <v>-6.5995590564480899E-2</v>
+      </c>
+      <c r="T10">
+        <v>5.8546240367840952E-2</v>
+      </c>
+      <c r="V10">
+        <f>V9</f>
         <v>23</v>
       </c>
-      <c r="S10">
+      <c r="W10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -24374,7 +24532,7 @@
         <v>0.93548690904077991</v>
       </c>
       <c r="G11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.85907546961534109</v>
       </c>
       <c r="H11">
@@ -24394,7 +24552,7 @@
         <v>0.85789962105727924</v>
       </c>
       <c r="L11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>8.0801231264717055E-2</v>
       </c>
       <c r="M11">
@@ -24410,10 +24568,26 @@
         <v>4.6598296883013091E-2</v>
       </c>
       <c r="P11">
-        <v>8.0801231264717055E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v>0.14119621783266134</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="8"/>
+        <v>0.12135476446063809</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="9"/>
+        <v>-5.7974275320902269E-3</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="10"/>
+        <v>-1.7865199057597869E-2</v>
+      </c>
+      <c r="T11">
+        <v>0.14119621783266134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -24438,7 +24612,7 @@
         <v>0.8856494746498168</v>
       </c>
       <c r="G12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.85907546961534109</v>
       </c>
       <c r="H12">
@@ -24458,7 +24632,7 @@
         <v>0.80081004487162188</v>
       </c>
       <c r="L12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.1628832784226758</v>
       </c>
       <c r="M12">
@@ -24474,16 +24648,32 @@
         <v>9.64357312739762E-2</v>
       </c>
       <c r="P12">
-        <v>0.1628832784226758</v>
-      </c>
-      <c r="R12" t="s">
+        <f t="shared" si="7"/>
+        <v>0.22327826499062009</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="8"/>
+        <v>0.19462539983402016</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="9"/>
+        <v>1.7370760288235365E-2</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="10"/>
+        <v>3.197223533336524E-2</v>
+      </c>
+      <c r="T12">
+        <v>0.22327826499062009</v>
+      </c>
+      <c r="V12" t="s">
         <v>86</v>
       </c>
-      <c r="S12" t="s">
+      <c r="W12" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -24508,7 +24698,7 @@
         <v>0.98232119167666831</v>
       </c>
       <c r="G13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.85907546961534109</v>
       </c>
       <c r="H13">
@@ -24528,7 +24718,7 @@
         <v>0.91689274864500403</v>
       </c>
       <c r="L13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>5.4196462912670107E-4</v>
       </c>
       <c r="M13">
@@ -24544,17 +24734,33 @@
         <v>-2.3598575287531176E-4</v>
       </c>
       <c r="P13">
-        <v>5.4196462912670107E-4</v>
+        <f t="shared" si="7"/>
+        <v>6.0936951197070988E-2</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="8"/>
+        <v>2.014080477005975E-2</v>
       </c>
       <c r="R13">
+        <f t="shared" si="9"/>
+        <v>-1.346242892093219E-2</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="10"/>
+        <v>-6.4699481693486272E-2</v>
+      </c>
+      <c r="T13">
+        <v>6.0936951197070988E-2</v>
+      </c>
+      <c r="V13">
         <f>A30</f>
         <v>29</v>
       </c>
-      <c r="S13">
+      <c r="W13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -24579,7 +24785,7 @@
         <v>0.98286078243276143</v>
       </c>
       <c r="G14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.8595299494643045</v>
       </c>
       <c r="H14">
@@ -24599,7 +24805,7 @@
         <v>0.9074519549210297</v>
       </c>
       <c r="L14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>-2.3032260490667422E-3</v>
       </c>
       <c r="M14">
@@ -24615,17 +24821,33 @@
         <v>-7.7557650896842301E-4</v>
       </c>
       <c r="P14">
-        <v>-2.3032260490667422E-3</v>
+        <f t="shared" si="7"/>
+        <v>5.8091760518877544E-2</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="8"/>
+        <v>2.272990605577907E-2</v>
       </c>
       <c r="R14">
-        <f>R13</f>
+        <f t="shared" si="9"/>
+        <v>2.5096426123531912E-2</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="10"/>
+        <v>-6.5239072449579383E-2</v>
+      </c>
+      <c r="T14">
+        <v>5.8091760518877544E-2</v>
+      </c>
+      <c r="V14">
+        <f>V13</f>
         <v>29</v>
       </c>
-      <c r="S14">
+      <c r="W14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -24650,7 +24872,7 @@
         <v>0.98334607248915218</v>
       </c>
       <c r="G15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.8595299494643045</v>
       </c>
       <c r="H15">
@@ -24670,7 +24892,7 @@
         <v>0.91229675850064817</v>
       </c>
       <c r="L15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>-7.8461165307852632E-4</v>
       </c>
       <c r="M15">
@@ -24686,10 +24908,26 @@
         <v>-1.2608665653591755E-3</v>
       </c>
       <c r="P15">
-        <v>-7.8461165307852632E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v>5.961037491486576E-2</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="8"/>
+        <v>2.5239404415376532E-2</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="9"/>
+        <v>2.1743891058629838E-3</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="10"/>
+        <v>-6.5724362505970135E-2</v>
+      </c>
+      <c r="T15">
+        <v>5.961037491486576E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -24714,7 +24952,7 @@
         <v>0.98220170004374519</v>
       </c>
       <c r="G16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.8595299494643045</v>
       </c>
       <c r="H16">
@@ -24734,7 +24972,7 @@
         <v>0.91716881525688654</v>
       </c>
       <c r="L16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.2578760830598279E-3</v>
       </c>
       <c r="M16">
@@ -24750,16 +24988,32 @@
         <v>-1.1649411995218184E-4</v>
       </c>
       <c r="P16">
-        <v>1.2578760830598279E-3</v>
-      </c>
-      <c r="R16" t="s">
+        <f t="shared" si="7"/>
+        <v>6.1652862651004114E-2</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="8"/>
+        <v>2.0228151420150886E-2</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="9"/>
+        <v>-1.5489445105410171E-2</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="10"/>
+        <v>-6.4579990060563142E-2</v>
+      </c>
+      <c r="T16">
+        <v>6.1652862651004114E-2</v>
+      </c>
+      <c r="V16" t="s">
         <v>87</v>
       </c>
-      <c r="S16" t="s">
+      <c r="W16" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -24784,7 +25038,7 @@
         <v>0.98173808524072292</v>
       </c>
       <c r="G17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.8595299494643045</v>
       </c>
       <c r="H17">
@@ -24804,7 +25058,7 @@
         <v>0.91683345542502381</v>
       </c>
       <c r="L17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2.2438303481543409E-3</v>
       </c>
       <c r="M17">
@@ -24820,17 +25074,33 @@
         <v>3.4712068307007904E-4</v>
       </c>
       <c r="P17">
-        <v>2.2438303481543409E-3</v>
+        <f t="shared" si="7"/>
+        <v>6.2638816916098627E-2</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="8"/>
+        <v>2.2522132716915388E-2</v>
       </c>
       <c r="R17">
+        <f t="shared" si="9"/>
+        <v>-1.7891556142840215E-2</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="10"/>
+        <v>-6.4116375257540881E-2</v>
+      </c>
+      <c r="T17">
+        <v>6.2638816916098627E-2</v>
+      </c>
+      <c r="V17">
         <f>A2</f>
         <v>1</v>
       </c>
-      <c r="S17">
+      <c r="W17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -24855,7 +25125,7 @@
         <v>0.98526862057360476</v>
       </c>
       <c r="G18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.8595299494643045</v>
       </c>
       <c r="H18">
@@ -24875,7 +25145,7 @@
         <v>0.89089622653133382</v>
       </c>
       <c r="L18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.0239258256944495E-2</v>
       </c>
       <c r="M18">
@@ -24891,17 +25161,33 @@
         <v>-3.1834146498117555E-3</v>
       </c>
       <c r="P18">
-        <v>1.0239258256944495E-2</v>
+        <f t="shared" si="7"/>
+        <v>7.0634244824888781E-2</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="8"/>
+        <v>3.4168515287353984E-2</v>
       </c>
       <c r="R18">
-        <f>R17</f>
+        <f t="shared" si="9"/>
+        <v>6.9746084285572607E-2</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="10"/>
+        <v>-6.7646910590422715E-2</v>
+      </c>
+      <c r="T18">
+        <v>7.0634244824888781E-2</v>
+      </c>
+      <c r="V18">
+        <f>V17</f>
         <v>1</v>
       </c>
-      <c r="S18">
+      <c r="W18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -24926,19 +25212,19 @@
         <v>0.98646595467727438</v>
       </c>
       <c r="G19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.8595299494643045</v>
       </c>
       <c r="H19">
-        <f t="shared" ref="H19:H51" si="9">MAX(D19,H18)</f>
+        <f t="shared" ref="H19:H51" si="13">MAX(D19,H18)</f>
         <v>0.89748090521312229</v>
       </c>
       <c r="I19">
-        <f t="shared" ref="I19:I51" si="10">MAX(E19,I18)</f>
+        <f t="shared" ref="I19:I51" si="14">MAX(E19,I18)</f>
         <v>0.93735117409875668</v>
       </c>
       <c r="J19">
-        <f t="shared" ref="J19:J51" si="11">MAX(F19,J18)</f>
+        <f t="shared" ref="J19:J51" si="15">MAX(F19,J18)</f>
         <v>0.98646595467727438</v>
       </c>
       <c r="K19">
@@ -24946,7 +25232,7 @@
         <v>0.89238252723042466</v>
       </c>
       <c r="L19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.1540410815589652E-2</v>
       </c>
       <c r="M19">
@@ -24962,10 +25248,26 @@
         <v>-4.3807487534813783E-3</v>
       </c>
       <c r="P19">
-        <v>1.1540410815589652E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v>7.1935397383533939E-2</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="8"/>
+        <v>4.2020974505712183E-2</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="9"/>
+        <v>5.5844603815875971E-2</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="10"/>
+        <v>-6.8844244694092338E-2</v>
+      </c>
+      <c r="T19">
+        <v>7.1935397383533939E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -24990,19 +25292,19 @@
         <v>0.98212454745778754</v>
       </c>
       <c r="G20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.8595299494643045</v>
       </c>
       <c r="H20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.89748090521312229</v>
       </c>
       <c r="I20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.93735117409875668</v>
       </c>
       <c r="J20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.98646595467727438</v>
       </c>
       <c r="K20">
@@ -25010,7 +25312,7 @@
         <v>0.91347547810638208</v>
       </c>
       <c r="L20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3.5921532367426678E-3</v>
       </c>
       <c r="M20">
@@ -25026,16 +25328,32 @@
         <v>-3.9341533994541322E-5</v>
       </c>
       <c r="P20">
-        <v>3.5921532367426678E-3</v>
-      </c>
-      <c r="R20" t="s">
+        <f t="shared" si="7"/>
+        <v>6.3987139804686954E-2</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="8"/>
+        <v>2.4879035441013775E-2</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="9"/>
+        <v>-7.7784102638954744E-3</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="10"/>
+        <v>-6.4502837474605501E-2</v>
+      </c>
+      <c r="T20">
+        <v>6.3987139804686954E-2</v>
+      </c>
+      <c r="V20" t="s">
         <v>88</v>
       </c>
-      <c r="S20" t="s">
+      <c r="W20" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -25060,19 +25378,19 @@
         <v>0.97268352132094815</v>
       </c>
       <c r="G21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.8595299494643045</v>
       </c>
       <c r="H21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.89748090521312229</v>
       </c>
       <c r="I21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.93735117409875668</v>
       </c>
       <c r="J21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.98646595467727438</v>
       </c>
       <c r="K21">
@@ -25080,7 +25398,7 @@
         <v>0.89124324302475477</v>
       </c>
       <c r="L21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3.8622644205879242E-2</v>
       </c>
       <c r="M21">
@@ -25096,17 +25414,33 @@
         <v>9.4016846028448509E-3</v>
       </c>
       <c r="P21">
-        <v>3.8622644205879242E-2</v>
+        <f t="shared" si="7"/>
+        <v>9.9017630773823528E-2</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="8"/>
+        <v>6.5419939729356558E-2</v>
       </c>
       <c r="R21">
+        <f t="shared" si="9"/>
+        <v>-3.861891331705003E-3</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="10"/>
+        <v>-5.5061811337766109E-2</v>
+      </c>
+      <c r="T21">
+        <v>9.9017630773823528E-2</v>
+      </c>
+      <c r="V21">
         <f>A19</f>
         <v>18</v>
       </c>
-      <c r="S21">
+      <c r="W21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -25131,19 +25465,19 @@
         <v>0.98179169779567488</v>
       </c>
       <c r="G22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.8595299494643045</v>
       </c>
       <c r="H22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.89748090521312229</v>
       </c>
       <c r="I22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.93735117409875668</v>
       </c>
       <c r="J22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.98646595467727438</v>
       </c>
       <c r="K22">
@@ -25151,7 +25485,7 @@
         <v>0.91743209057236519</v>
       </c>
       <c r="L22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2.2813913538127784E-3</v>
       </c>
       <c r="M22">
@@ -25167,17 +25501,33 @@
         <v>2.935081281181251E-4</v>
       </c>
       <c r="P22">
-        <v>2.2813913538127784E-3</v>
+        <f t="shared" si="7"/>
+        <v>6.2676377921757065E-2</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="8"/>
+        <v>2.1296845654285135E-2</v>
       </c>
       <c r="R22">
-        <f>R21</f>
+        <f t="shared" si="9"/>
+        <v>-1.9044758120281946E-2</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="10"/>
+        <v>-6.4169987812492835E-2</v>
+      </c>
+      <c r="T22">
+        <v>6.2676377921757065E-2</v>
+      </c>
+      <c r="V22">
+        <f>V21</f>
         <v>18</v>
       </c>
-      <c r="S22">
+      <c r="W22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -25202,19 +25552,19 @@
         <v>0.98217755179904653</v>
       </c>
       <c r="G23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.8595299494643045</v>
       </c>
       <c r="H23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.8975409603548844</v>
       </c>
       <c r="I23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.93735117409875668</v>
       </c>
       <c r="J23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.98646595467727438</v>
       </c>
       <c r="K23">
@@ -25222,7 +25572,7 @@
         <v>0.91754471543691662</v>
       </c>
       <c r="L23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2.2949666793167234E-3</v>
       </c>
       <c r="M23">
@@ -25238,10 +25588,26 @@
         <v>-9.2345875253529996E-5</v>
       </c>
       <c r="P23">
-        <v>2.2949666793167234E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v>6.268995324726101E-2</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="8"/>
+        <v>2.0080749628297645E-2</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="9"/>
+        <v>-1.7906882874632379E-2</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="10"/>
+        <v>-6.455584181586449E-2</v>
+      </c>
+      <c r="T23">
+        <v>6.268995324726101E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -25266,19 +25632,19 @@
         <v>0.98352141556790418</v>
       </c>
       <c r="G24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.86010753276914165</v>
       </c>
       <c r="H24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.8975409603548844</v>
       </c>
       <c r="I24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.93735117409875668</v>
       </c>
       <c r="J24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.98646595467727438</v>
       </c>
       <c r="K24">
@@ -25286,7 +25652,7 @@
         <v>0.91391163910223638</v>
       </c>
       <c r="L24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>-2.8808093539038904E-3</v>
       </c>
       <c r="M24">
@@ -25302,10 +25668,26 @@
         <v>-1.4362096441111749E-3</v>
       </c>
       <c r="P24">
-        <v>-2.8808093539038904E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v>5.7514177214040396E-2</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="8"/>
+        <v>2.300599096317435E-2</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="9"/>
+        <v>2.1982093128980473E-4</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="10"/>
+        <v>-6.5899705584722135E-2</v>
+      </c>
+      <c r="T24">
+        <v>5.7514177214040396E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -25330,19 +25712,19 @@
         <v>0.98627611118496505</v>
       </c>
       <c r="G25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.86010753276914165</v>
       </c>
       <c r="H25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.8975409603548844</v>
       </c>
       <c r="I25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.93735117409875668</v>
       </c>
       <c r="J25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.98646595467727438</v>
       </c>
       <c r="K25">
@@ -25350,7 +25732,7 @@
         <v>0.9007390405548874</v>
       </c>
       <c r="L25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3.8941897331010722E-3</v>
       </c>
       <c r="M25">
@@ -25366,10 +25748,26 @@
         <v>-4.190905261172051E-3</v>
       </c>
       <c r="P25">
-        <v>3.8941897331010722E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v>6.4289176301045359E-2</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="8"/>
+        <v>3.0112019276935298E-2</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="9"/>
+        <v>4.1783883336980687E-2</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="10"/>
+        <v>-6.8654401201783011E-2</v>
+      </c>
+      <c r="T25">
+        <v>6.4289176301045359E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -25394,19 +25792,19 @@
         <v>0.98548599539992643</v>
       </c>
       <c r="G26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.86010753276914165</v>
       </c>
       <c r="H26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.8975409603548844</v>
       </c>
       <c r="I26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.93735117409875668</v>
       </c>
       <c r="J26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.98646595467727438</v>
       </c>
       <c r="K26">
@@ -25414,7 +25812,7 @@
         <v>0.90129922298274678</v>
       </c>
       <c r="L26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2.9349675485790261E-3</v>
       </c>
       <c r="M26">
@@ -25430,10 +25828,26 @@
         <v>-3.4007894761334256E-3</v>
       </c>
       <c r="P26">
-        <v>2.9349675485790261E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v>6.3329954116523313E-2</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="8"/>
+        <v>2.8831662934572178E-2</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="9"/>
+        <v>4.0992616367389823E-2</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="10"/>
+        <v>-6.7864285416744385E-2</v>
+      </c>
+      <c r="T26">
+        <v>6.3329954116523313E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -25458,19 +25872,19 @@
         <v>0.96443870020272493</v>
       </c>
       <c r="G27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.86010753276914165</v>
       </c>
       <c r="H27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.8975409603548844</v>
       </c>
       <c r="I27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.93735117409875668</v>
       </c>
       <c r="J27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.98646595467727438</v>
       </c>
       <c r="K27">
@@ -25478,7 +25892,7 @@
         <v>0.87135394883695028</v>
       </c>
       <c r="L27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>5.7228126831115889E-2</v>
       </c>
       <c r="M27">
@@ -25494,10 +25908,26 @@
         <v>1.7646505721068073E-2</v>
       </c>
       <c r="P27">
-        <v>5.7228126831115889E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v>0.11762311339906018</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="8"/>
+        <v>8.1101565468419068E-2</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="9"/>
+        <v>3.3163355936990713E-2</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="10"/>
+        <v>-4.6816990219542887E-2</v>
+      </c>
+      <c r="T27">
+        <v>0.11762311339906018</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -25522,19 +25952,19 @@
         <v>0.9728033458944616</v>
       </c>
       <c r="G28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.86010753276914165</v>
       </c>
       <c r="H28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.8975409603548844</v>
       </c>
       <c r="I28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.93735117409875668</v>
       </c>
       <c r="J28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.98646595467727438</v>
       </c>
       <c r="K28">
@@ -25542,7 +25972,7 @@
         <v>0.89335410857250475</v>
       </c>
       <c r="L28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3.8622644205879242E-2</v>
       </c>
       <c r="M28">
@@ -25558,10 +25988,26 @@
         <v>9.2818600293314013E-3</v>
       </c>
       <c r="P28">
-        <v>3.8622644205879242E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v>9.9017630773823528E-2</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="8"/>
+        <v>6.537787966180042E-2</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="9"/>
+        <v>-1.21434688816352E-2</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="10"/>
+        <v>-5.5181635911279558E-2</v>
+      </c>
+      <c r="T28">
+        <v>9.9017630773823528E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -25586,19 +26032,19 @@
         <v>0.97390102140525658</v>
       </c>
       <c r="G29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.86010753276914165</v>
       </c>
       <c r="H29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.8975409603548844</v>
       </c>
       <c r="I29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.93735117409875668</v>
       </c>
       <c r="J29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.98646595467727438</v>
       </c>
       <c r="K29">
@@ -25606,7 +26052,7 @@
         <v>0.87890448629725415</v>
       </c>
       <c r="L29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>4.1209271580282425E-2</v>
       </c>
       <c r="M29">
@@ -25622,10 +26068,26 @@
         <v>8.1841845185364193E-3</v>
       </c>
       <c r="P29">
-        <v>4.1209271580282425E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v>0.10160425814822671</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="8"/>
+        <v>6.5360473077797132E-2</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="9"/>
+        <v>4.4183474939762157E-2</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="10"/>
+        <v>-5.6279311422074541E-2</v>
+      </c>
+      <c r="T29">
+        <v>0.10160425814822671</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -25650,19 +26112,19 @@
         <v>0.98230421537336898</v>
       </c>
       <c r="G30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.86010753276914165</v>
       </c>
       <c r="H30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.89813827620951547</v>
       </c>
       <c r="I30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.93735117409875668</v>
       </c>
       <c r="J30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.98646595467727438</v>
       </c>
       <c r="K30">
@@ -25670,7 +26132,7 @@
         <v>0.90928489482023789</v>
       </c>
       <c r="L30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>-6.7585378128875995E-4</v>
       </c>
       <c r="M30">
@@ -25686,10 +26148,26 @@
         <v>-2.1900944957597979E-4</v>
       </c>
       <c r="P30">
-        <v>-6.7585378128875995E-4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v>5.9719132786655527E-2</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="8"/>
+        <v>1.948343377366657E-2</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="9"/>
+        <v>1.8827199481641466E-2</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="10"/>
+        <v>-6.468250539018694E-2</v>
+      </c>
+      <c r="T30">
+        <v>5.9719132786655527E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -25714,19 +26192,19 @@
         <v>0.98366203328118318</v>
       </c>
       <c r="G31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.86010753276914165</v>
       </c>
       <c r="H31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.89813827620951547</v>
       </c>
       <c r="I31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.93735117409875668</v>
       </c>
       <c r="J31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.98646595467727438</v>
       </c>
       <c r="K31">
@@ -25734,7 +26212,7 @@
         <v>0.91438532188480792</v>
       </c>
       <c r="L31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>-2.159093451386318E-3</v>
       </c>
       <c r="M31">
@@ -25750,10 +26228,26 @@
         <v>-1.5768273573901759E-3</v>
       </c>
       <c r="P31">
-        <v>-2.159093451386318E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v>5.8235893116557969E-2</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="8"/>
+        <v>2.1503651490044406E-2</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="9"/>
+        <v>-7.5366891510530998E-4</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="10"/>
+        <v>-6.6040323298001136E-2</v>
+      </c>
+      <c r="T31">
+        <v>5.8235893116557969E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -25778,19 +26272,19 @@
         <v>0.98232765447718295</v>
       </c>
       <c r="G32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.86010753276914165</v>
       </c>
       <c r="H32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.89813827620951547</v>
       </c>
       <c r="I32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.93735117409875668</v>
       </c>
       <c r="J32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.98646595467727438</v>
       </c>
       <c r="K32">
@@ -25798,7 +26292,7 @@
         <v>0.91699891881421303</v>
       </c>
       <c r="L32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>6.105137870013877E-4</v>
       </c>
       <c r="M32">
@@ -25814,10 +26308,26 @@
         <v>-2.4244855338995119E-4</v>
       </c>
       <c r="P32">
-        <v>6.105137870013877E-4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v>6.1005500354945674E-2</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="8"/>
+        <v>1.9826184079423603E-2</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="9"/>
+        <v>-1.3634575264492632E-2</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="10"/>
+        <v>-6.4705944494000911E-2</v>
+      </c>
+      <c r="T32">
+        <v>6.1005500354945674E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -25842,19 +26352,19 @@
         <v>0.98247680136356086</v>
       </c>
       <c r="G33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.86010753276914165</v>
       </c>
       <c r="H33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.89813827620951547</v>
       </c>
       <c r="I33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.93735117409875668</v>
       </c>
       <c r="J33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.98646595467727438</v>
       </c>
       <c r="K33">
@@ -25862,7 +26372,7 @@
         <v>0.91395041440491542</v>
       </c>
       <c r="L33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>-1.4403509931616432E-3</v>
       </c>
       <c r="M33">
@@ -25878,10 +26388,26 @@
         <v>-3.915954397678556E-4</v>
       </c>
       <c r="P33">
-        <v>-1.4403509931616432E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v>5.8954635574782643E-2</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="8"/>
+        <v>2.4372480930464624E-2</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="9"/>
+        <v>-3.7868428118018604E-3</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="10"/>
+        <v>-6.4855091380378815E-2</v>
+      </c>
+      <c r="T33">
+        <v>5.8954635574782643E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -25906,19 +26432,19 @@
         <v>0.98530375705746742</v>
       </c>
       <c r="G34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.86010753276914165</v>
       </c>
       <c r="H34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.89813827620951547</v>
       </c>
       <c r="I34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.93735117409875668</v>
       </c>
       <c r="J34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.98646595467727438</v>
       </c>
       <c r="K34">
@@ -25926,7 +26452,7 @@
         <v>0.9050389875682715</v>
       </c>
       <c r="L34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2.5300780266009903E-3</v>
       </c>
       <c r="M34">
@@ -25942,10 +26468,26 @@
         <v>-3.2185511336744188E-3</v>
       </c>
       <c r="P34">
-        <v>2.5300780266009903E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v>6.2925064594545277E-2</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="8"/>
+        <v>3.274535318825722E-2</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="9"/>
+        <v>2.2342518951125157E-2</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="10"/>
+        <v>-6.7682047074285379E-2</v>
+      </c>
+      <c r="T34">
+        <v>6.2925064594545277E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -25970,19 +26512,19 @@
         <v>0.98355586956172869</v>
       </c>
       <c r="G35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.86010753276914165</v>
       </c>
       <c r="H35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.89813827620951547</v>
       </c>
       <c r="I35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.93735117409875668</v>
       </c>
       <c r="J35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.98646595467727438</v>
       </c>
       <c r="K35">
@@ -25990,7 +26532,7 @@
         <v>0.91071651817152954</v>
       </c>
       <c r="L35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>-1.96973055509575E-3</v>
       </c>
       <c r="M35">
@@ -26006,10 +26548,26 @@
         <v>-1.4706636379356874E-3</v>
       </c>
       <c r="P35">
-        <v>-1.96973055509575E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v>5.8425256012848537E-2</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="8"/>
+        <v>2.4780335216514127E-2</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="9"/>
+        <v>1.0349335595794096E-2</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="10"/>
+        <v>-6.5934159578546647E-2</v>
+      </c>
+      <c r="T35">
+        <v>5.8425256012848537E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -26034,19 +26592,19 @@
         <v>0.98223401372574115</v>
       </c>
       <c r="G36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.86010753276914165</v>
       </c>
       <c r="H36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.89813827620951547</v>
       </c>
       <c r="I36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.93735117409875668</v>
       </c>
       <c r="J36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.98646595467727438</v>
       </c>
       <c r="K36">
@@ -26054,7 +26612,7 @@
         <v>0.91436015862858233</v>
       </c>
       <c r="L36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>-3.8710150192611259E-4</v>
       </c>
       <c r="M36">
@@ -26070,10 +26628,26 @@
         <v>-1.4880780194814758E-4</v>
       </c>
       <c r="P36">
-        <v>-3.8710150192611259E-4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v>6.0007885066018174E-2</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="8"/>
+        <v>2.1287907976826448E-2</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="9"/>
+        <v>-3.637283881886888E-3</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="10"/>
+        <v>-6.4612303742559107E-2</v>
+      </c>
+      <c r="T36">
+        <v>6.0007885066018174E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -26098,19 +26672,19 @@
         <v>0.982085205923793</v>
       </c>
       <c r="G37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.86010753276914165</v>
       </c>
       <c r="H37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.89813827620951547</v>
       </c>
       <c r="I37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.93735117409875668</v>
       </c>
       <c r="J37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.98646595467727438</v>
       </c>
       <c r="K37">
@@ -26118,7 +26692,7 @@
         <v>0.91762170998318204</v>
       </c>
       <c r="L37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M37">
@@ -26134,10 +26708,26 @@
         <v>0</v>
       </c>
       <c r="P37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v>6.0394986567944287E-2</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="8"/>
+        <v>2.0000763321786352E-2</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="9"/>
+        <v>-1.5932253949119235E-2</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="10"/>
+        <v>-6.446349594061096E-2</v>
+      </c>
+      <c r="T37">
+        <v>6.0394986567944287E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -26162,19 +26752,19 @@
         <v>0.98217987198591139</v>
       </c>
       <c r="G38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.86010753276914165</v>
       </c>
       <c r="H38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.89813827620951547</v>
       </c>
       <c r="I38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.93735117409875668</v>
       </c>
       <c r="J38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.98646595467727438</v>
       </c>
       <c r="K38">
@@ -26182,7 +26772,7 @@
         <v>0.91734352762335281</v>
       </c>
       <c r="L38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2.2911393365057098E-3</v>
       </c>
       <c r="M38">
@@ -26198,10 +26788,26 @@
         <v>-9.4666062118387018E-5</v>
       </c>
       <c r="P38">
-        <v>2.2911393365057098E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v>6.2686125904449996E-2</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="8"/>
+        <v>2.1163845872799181E-2</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="9"/>
+        <v>-1.8179080335203102E-2</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="10"/>
+        <v>-6.4558162002729347E-2</v>
+      </c>
+      <c r="T38">
+        <v>6.2686125904449996E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -26226,19 +26832,19 @@
         <v>0.98279931516875896</v>
       </c>
       <c r="G39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.86010753276914165</v>
       </c>
       <c r="H39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.89813827620951547</v>
       </c>
       <c r="I39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.93735117409875668</v>
       </c>
       <c r="J39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.98646595467727438</v>
       </c>
       <c r="K39">
@@ -26246,7 +26852,7 @@
         <v>0.91329471522980876</v>
       </c>
       <c r="L39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>-7.3646270619875942E-4</v>
       </c>
       <c r="M39">
@@ -26262,10 +26868,26 @@
         <v>-7.1410924496595474E-4</v>
       </c>
       <c r="P39">
-        <v>-7.3646270619875942E-4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v>5.9658523861745527E-2</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="8"/>
+        <v>2.3154876287323489E-2</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="9"/>
+        <v>-3.2781594999886643E-4</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="10"/>
+        <v>-6.5177605185576915E-2</v>
+      </c>
+      <c r="T39">
+        <v>5.9658523861745527E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -26290,19 +26912,19 @@
         <v>0.98339428419917974</v>
       </c>
       <c r="G40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.86010753276914165</v>
       </c>
       <c r="H40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.89813827620951547</v>
       </c>
       <c r="I40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.93735117409875668</v>
       </c>
       <c r="J40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.98646595467727438</v>
       </c>
       <c r="K40">
@@ -26310,7 +26932,7 @@
         <v>0.91201689440091749</v>
       </c>
       <c r="L40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3.8680392022051313E-3</v>
       </c>
       <c r="M40">
@@ -26326,10 +26948,26 @@
         <v>-1.3090782753867325E-3</v>
       </c>
       <c r="P40">
-        <v>3.8680392022051313E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v>6.4263025770149418E-2</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="8"/>
+        <v>2.4495554081397253E-2</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="9"/>
+        <v>-5.6674330649053584E-4</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="10"/>
+        <v>-6.5772574215997692E-2</v>
+      </c>
+      <c r="T40">
+        <v>6.4263025770149418E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -26354,19 +26992,19 @@
         <v>0.98431841528739616</v>
       </c>
       <c r="G41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.86010753276914165</v>
       </c>
       <c r="H41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.89813827620951547</v>
       </c>
       <c r="I41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.93735117409875668</v>
       </c>
       <c r="J41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.98646595467727438</v>
       </c>
       <c r="K41">
@@ -26374,7 +27012,7 @@
         <v>0.88579197605260118</v>
       </c>
       <c r="L41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.9599322104825845E-2</v>
       </c>
       <c r="M41">
@@ -26390,10 +27028,26 @@
         <v>-2.2332093636031614E-3</v>
       </c>
       <c r="P41">
-        <v>1.9599322104825845E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v>7.9994308672770131E-2</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="8"/>
+        <v>4.3371570682820382E-2</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="9"/>
+        <v>7.0649761670946942E-2</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="10"/>
+        <v>-6.6696705304214121E-2</v>
+      </c>
+      <c r="T41">
+        <v>7.9994308672770131E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -26418,19 +27072,19 @@
         <v>0.98305153689389968</v>
       </c>
       <c r="G42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.86010753276914165</v>
       </c>
       <c r="H42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.89813827620951547</v>
       </c>
       <c r="I42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.93735117409875668</v>
       </c>
       <c r="J42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.98646595467727438</v>
       </c>
       <c r="K42">
@@ -26438,7 +27092,7 @@
         <v>0.89723809715482727</v>
       </c>
       <c r="L42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.1697914236158957E-2</v>
       </c>
       <c r="M42">
@@ -26454,10 +27108,26 @@
         <v>-9.663309701066769E-4</v>
       </c>
       <c r="P42">
-        <v>1.1697914236158957E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v>7.2092900804103244E-2</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="8"/>
+        <v>3.3172268728661747E-2</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="9"/>
+        <v>4.1699108691372055E-2</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="10"/>
+        <v>-6.5429826910717637E-2</v>
+      </c>
+      <c r="T42">
+        <v>7.2092900804103244E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -26482,19 +27152,19 @@
         <v>0.8856494746498168</v>
       </c>
       <c r="G43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.86010753276914165</v>
       </c>
       <c r="H43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.89813827620951547</v>
       </c>
       <c r="I43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.93735117409875668</v>
       </c>
       <c r="J43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.98646595467727438</v>
       </c>
       <c r="K43">
@@ -26502,7 +27172,7 @@
         <v>0.80081004487162188</v>
       </c>
       <c r="L43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.1628832784226758</v>
       </c>
       <c r="M43">
@@ -26518,10 +27188,26 @@
         <v>9.64357312739762E-2</v>
       </c>
       <c r="P43">
-        <v>0.1628832784226758</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v>0.22327826499062009</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="8"/>
+        <v>0.19462539983402016</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="9"/>
+        <v>1.7370760288235365E-2</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="10"/>
+        <v>3.197223533336524E-2</v>
+      </c>
+      <c r="T43">
+        <v>0.22327826499062009</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -26546,19 +27232,19 @@
         <v>0.98561241146244449</v>
       </c>
       <c r="G44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.86010753276914165</v>
       </c>
       <c r="H44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.89813827620951547</v>
       </c>
       <c r="I44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.93735117409875668</v>
       </c>
       <c r="J44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.98646595467727438</v>
       </c>
       <c r="K44">
@@ -26566,7 +27252,7 @@
         <v>0.90268517295608297</v>
       </c>
       <c r="L44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.1033271246695397E-3</v>
       </c>
       <c r="M44">
@@ -26582,10 +27268,26 @@
         <v>-3.52720553865149E-3</v>
       </c>
       <c r="P44">
-        <v>1.1033271246695397E-3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v>6.1498313692613826E-2</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="8"/>
+        <v>2.5918817119671145E-2</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="9"/>
+        <v>4.0319718775373659E-2</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="10"/>
+        <v>-6.799070147926245E-2</v>
+      </c>
+      <c r="T44">
+        <v>6.1498313692613826E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -26610,19 +27312,19 @@
         <v>0.98583855298290712</v>
       </c>
       <c r="G45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.86010753276914165</v>
       </c>
       <c r="H45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.89813827620951547</v>
       </c>
       <c r="I45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.93735117409875668</v>
       </c>
       <c r="J45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.98646595467727438</v>
       </c>
       <c r="K45">
@@ -26630,7 +27332,7 @@
         <v>0.89780449301188103</v>
       </c>
       <c r="L45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>5.569652295993599E-3</v>
       </c>
       <c r="M45">
@@ -26646,10 +27348,26 @@
         <v>-3.7533470591141205E-3</v>
       </c>
       <c r="P45">
-        <v>5.569652295993599E-3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v>6.5964638863937886E-2</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="8"/>
+        <v>3.3789758709641737E-2</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="9"/>
+        <v>4.7731313311349277E-2</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="10"/>
+        <v>-6.821684299972508E-2</v>
+      </c>
+      <c r="T45">
+        <v>6.5964638863937886E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -26674,19 +27392,19 @@
         <v>0.9641705618032137</v>
       </c>
       <c r="G46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.86010753276914165</v>
       </c>
       <c r="H46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.89813827620951547</v>
       </c>
       <c r="I46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.93735117409875668</v>
       </c>
       <c r="J46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.98646595467727438</v>
       </c>
       <c r="K46">
@@ -26694,7 +27412,7 @@
         <v>0.8805333579552892</v>
       </c>
       <c r="L46">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>5.5247453458252438E-2</v>
       </c>
       <c r="M46">
@@ -26710,10 +27428,26 @@
         <v>1.7914644120579304E-2</v>
       </c>
       <c r="P46">
-        <v>5.5247453458252438E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v>0.11564244002619672</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="8"/>
+        <v>8.1101565468419068E-2</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="9"/>
+        <v>-1.8417455630121982E-3</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="10"/>
+        <v>-4.6548851820031656E-2</v>
+      </c>
+      <c r="T46">
+        <v>0.11564244002619672</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -26738,19 +27472,19 @@
         <v>0.97681858320524451</v>
       </c>
       <c r="G47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.86010753276914165</v>
       </c>
       <c r="H47">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.89813827620951547</v>
       </c>
       <c r="I47">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.93735117409875668</v>
       </c>
       <c r="J47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.98646595467727438</v>
       </c>
       <c r="K47">
@@ -26758,7 +27492,7 @@
         <v>0.90164816918177659</v>
       </c>
       <c r="L47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2.5755134803363333E-2</v>
       </c>
       <c r="M47">
@@ -26774,10 +27508,26 @@
         <v>5.2666227185484971E-3</v>
       </c>
       <c r="P47">
-        <v>2.5755134803363333E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v>8.615012137130762E-2</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="8"/>
+        <v>4.8135743022353572E-2</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="9"/>
+        <v>-1.1194827965976928E-2</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="10"/>
+        <v>-5.9196873222062463E-2</v>
+      </c>
+      <c r="T47">
+        <v>8.615012137130762E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -26802,19 +27552,19 @@
         <v>0.98222130009709707</v>
       </c>
       <c r="G48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.86010753276914165</v>
       </c>
       <c r="H48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.89813827620951547</v>
       </c>
       <c r="I48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.93735117409875668</v>
       </c>
       <c r="J48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.98646595467727438</v>
       </c>
       <c r="K48">
@@ -26822,7 +27572,7 @@
         <v>0.9150141429204236</v>
       </c>
       <c r="L48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3.9960166865027347E-5</v>
       </c>
       <c r="M48">
@@ -26838,10 +27588,26 @@
         <v>-1.3609417330406881E-4</v>
       </c>
       <c r="P48">
-        <v>3.9960166865027347E-5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v>6.0434946734809314E-2</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="8"/>
+        <v>2.0498551081816752E-2</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="9"/>
+        <v>-5.9036394516771562E-3</v>
+      </c>
+      <c r="S48">
+        <f t="shared" si="10"/>
+        <v>-6.4599590113915029E-2</v>
+      </c>
+      <c r="T48">
+        <v>6.0434946734809314E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -26866,19 +27632,19 @@
         <v>0.98280620240647631</v>
       </c>
       <c r="G49">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.86010753276914165</v>
       </c>
       <c r="H49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.89813827620951547</v>
       </c>
       <c r="I49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.93735117409875668</v>
       </c>
       <c r="J49">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.98646595467727438</v>
       </c>
       <c r="K49">
@@ -26886,7 +27652,7 @@
         <v>0.8966183257989131</v>
       </c>
       <c r="L49">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.1768651972416833E-2</v>
       </c>
       <c r="M49">
@@ -26902,10 +27668,26 @@
         <v>-7.2099648268331151E-4</v>
       </c>
       <c r="P49">
-        <v>1.1768651972416833E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v>7.2163638540361119E-2</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="8"/>
+        <v>3.3118267242638666E-2</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="9"/>
+        <v>4.3916123377370164E-2</v>
+      </c>
+      <c r="S49">
+        <f t="shared" si="10"/>
+        <v>-6.5184492423294271E-2</v>
+      </c>
+      <c r="T49">
+        <v>7.2163638540361119E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -26930,19 +27712,19 @@
         <v>0.98299768821423295</v>
       </c>
       <c r="G50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.86010753276914165</v>
       </c>
       <c r="H50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.89813827620951547</v>
       </c>
       <c r="I50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.93735117409875668</v>
       </c>
       <c r="J50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.98646595467727438</v>
       </c>
       <c r="K50">
@@ -26950,7 +27732,7 @@
         <v>0.91465230458932634</v>
       </c>
       <c r="L50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>-2.8083265978713357E-3</v>
       </c>
       <c r="M50">
@@ -26966,10 +27748,26 @@
         <v>-9.1248229043994211E-4</v>
       </c>
       <c r="P50">
-        <v>-2.8083265978713357E-3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v>5.7586659970072951E-2</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="8"/>
+        <v>2.2743625385953203E-2</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="9"/>
+        <v>-3.076685549552316E-3</v>
+      </c>
+      <c r="S50">
+        <f t="shared" si="10"/>
+        <v>-6.5375978231050902E-2</v>
+      </c>
+      <c r="T50">
+        <v>5.7586659970072951E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -26994,19 +27792,19 @@
         <v>0.98173642604045752</v>
       </c>
       <c r="G51">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.86010753276914165</v>
       </c>
       <c r="H51">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.89813827620951547</v>
       </c>
       <c r="I51">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.93735117409875668</v>
       </c>
       <c r="J51">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.98646595467727438</v>
       </c>
       <c r="K51">
@@ -27014,7 +27812,7 @@
         <v>0.91726862757437622</v>
       </c>
       <c r="L51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2.5231020998391918E-3</v>
       </c>
       <c r="M51">
@@ -27030,757 +27828,773 @@
         <v>3.487798833354816E-4</v>
       </c>
       <c r="P51">
-        <v>2.5231020998391918E-3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="P52">
-        <v>1.25073866177795E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="P53">
-        <v>1.0424964768558365E-3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="P54">
-        <v>5.7346306339821629E-3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="P55">
-        <v>5.0406699670838551E-3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="P56">
-        <v>1.1578293955594843E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="P57">
-        <v>1.1043151169664034E-3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="P58">
-        <v>2.274560490700317E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="P59">
-        <v>2.9022156477096606E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="P60">
-        <v>4.2615885431357414E-3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="P61">
-        <v>0.10135400113885173</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="P62">
-        <v>0.17462463651223381</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="P63">
-        <v>1.4004144827339804E-4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="P64">
-        <v>2.7291427339927177E-3</v>
-      </c>
-    </row>
-    <row r="65" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P65">
-        <v>5.2386410935901795E-3</v>
-      </c>
-    </row>
-    <row r="66" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P66">
-        <v>2.2738809836453377E-4</v>
-      </c>
-    </row>
-    <row r="67" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P67">
-        <v>2.5213693951290361E-3</v>
-      </c>
-    </row>
-    <row r="68" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P68">
-        <v>1.4167751965567632E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P69">
-        <v>2.2020211183925831E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P70">
-        <v>4.8782721192274225E-3</v>
-      </c>
-    </row>
-    <row r="71" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P71">
-        <v>4.5419176407570205E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P72">
-        <v>1.2960823324987825E-3</v>
-      </c>
-    </row>
-    <row r="73" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P73">
-        <v>7.9986306511292682E-5</v>
-      </c>
-    </row>
-    <row r="74" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P74">
-        <v>3.0052276413879975E-3</v>
-      </c>
-    </row>
-    <row r="75" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P75">
-        <v>1.0111255955148946E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P76">
-        <v>8.8308996127858252E-3</v>
-      </c>
-    </row>
-    <row r="77" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P77">
-        <v>6.1100802146632716E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P78">
-        <v>4.5377116340014068E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P79">
-        <v>4.535970975601078E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P80">
-        <v>-5.173295481197826E-4</v>
-      </c>
-    </row>
-    <row r="81" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P81">
-        <v>1.5028881682580542E-3</v>
-      </c>
-    </row>
-    <row r="82" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P82">
-        <v>-1.7457924236274902E-4</v>
-      </c>
-    </row>
-    <row r="83" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P83">
-        <v>4.3717176086782716E-3</v>
-      </c>
-    </row>
-    <row r="84" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P84">
-        <v>1.2744589866470868E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P85">
-        <v>4.7795718947277743E-3</v>
-      </c>
-    </row>
-    <row r="86" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P86">
-        <v>1.2871446550400956E-3</v>
-      </c>
-    </row>
-    <row r="87" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P88">
-        <v>1.1630825510128284E-3</v>
-      </c>
-    </row>
-    <row r="89" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P89">
-        <v>3.1541129655371369E-3</v>
-      </c>
-    </row>
-    <row r="90" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P90">
-        <v>4.4947907596109005E-3</v>
-      </c>
-    </row>
-    <row r="91" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P91">
-        <v>2.3370807361034029E-2</v>
-      </c>
-    </row>
-    <row r="92" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P92">
-        <v>1.3171505406875395E-2</v>
-      </c>
-    </row>
-    <row r="93" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P93">
-        <v>0.17462463651223381</v>
-      </c>
-    </row>
-    <row r="94" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P94">
-        <v>5.9180537978847925E-3</v>
-      </c>
-    </row>
-    <row r="95" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P95">
-        <v>1.3788995387855385E-2</v>
-      </c>
-    </row>
-    <row r="96" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P96">
-        <v>6.1100802146632716E-2</v>
-      </c>
-    </row>
-    <row r="97" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P97">
-        <v>2.813497970056722E-2</v>
-      </c>
-    </row>
-    <row r="98" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P98">
-        <v>4.9778776003039926E-4</v>
-      </c>
-    </row>
-    <row r="99" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P99">
-        <v>1.3117503920852314E-2</v>
-      </c>
-    </row>
-    <row r="100" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P100">
-        <v>2.7428620641668511E-3</v>
-      </c>
-    </row>
-    <row r="101" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P101">
-        <v>9.9523024823944262E-4</v>
-      </c>
-    </row>
-    <row r="102" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P102">
-        <v>-3.7972101664554003E-3</v>
-      </c>
-    </row>
-    <row r="103" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P103">
-        <v>3.4507426638579863E-2</v>
-      </c>
-    </row>
-    <row r="104" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P104">
-        <v>2.8721065904339871E-2</v>
-      </c>
-    </row>
-    <row r="105" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P105">
-        <v>5.4407241957841079E-2</v>
-      </c>
-    </row>
-    <row r="106" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P106">
-        <v>6.073019077922337E-2</v>
-      </c>
-    </row>
-    <row r="107" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P107">
-        <v>1.0410696138012043E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P108">
-        <v>9.2861295100467145E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P109">
-        <v>9.0731232861886668E-2</v>
-      </c>
-    </row>
-    <row r="110" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P110">
-        <v>1.2262986185964997E-2</v>
-      </c>
-    </row>
-    <row r="111" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P111">
-        <v>1.0134826417029008E-2</v>
-      </c>
-    </row>
-    <row r="112" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P112">
-        <v>3.33030142373546E-2</v>
-      </c>
-    </row>
-    <row r="113" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P113">
-        <v>2.4698250281870449E-3</v>
-      </c>
-    </row>
-    <row r="114" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P114">
-        <v>4.1028680072651147E-2</v>
-      </c>
-    </row>
-    <row r="115" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P115">
-        <v>1.8106643054982219E-2</v>
-      </c>
-    </row>
-    <row r="116" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P116">
-        <v>4.4280884370906382E-4</v>
-      </c>
-    </row>
-    <row r="117" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P117">
-        <v>-1.9593021937209798E-3</v>
-      </c>
-    </row>
-    <row r="118" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P118">
-        <v>8.5678338234691842E-2</v>
-      </c>
-    </row>
-    <row r="119" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P119">
-        <v>7.1776857764995206E-2</v>
-      </c>
-    </row>
-    <row r="120" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P120">
-        <v>8.1538436852237606E-3</v>
-      </c>
-    </row>
-    <row r="121" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P121">
-        <v>1.2070362617414232E-2</v>
-      </c>
-    </row>
-    <row r="122" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P122">
-        <v>-3.1125041711627111E-3</v>
-      </c>
-    </row>
-    <row r="123" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P123">
-        <v>-1.9746289255131444E-3</v>
-      </c>
-    </row>
-    <row r="124" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P124">
-        <v>1.615207488040904E-2</v>
-      </c>
-    </row>
-    <row r="125" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P125">
-        <v>5.7716137286099922E-2</v>
-      </c>
-    </row>
-    <row r="126" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P126">
-        <v>5.6924870316509057E-2</v>
-      </c>
-    </row>
-    <row r="127" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P127">
-        <v>4.9095609886109948E-2</v>
-      </c>
-    </row>
-    <row r="128" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P128">
-        <v>3.7887850674840351E-3</v>
-      </c>
-    </row>
-    <row r="129" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P129">
-        <v>6.0115728888881392E-2</v>
-      </c>
-    </row>
-    <row r="130" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P130">
-        <v>3.4759453430760701E-2</v>
-      </c>
-    </row>
-    <row r="131" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P131">
-        <v>1.5178585034013925E-2</v>
-      </c>
-    </row>
-    <row r="132" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P132">
-        <v>2.2976786846266029E-3</v>
-      </c>
-    </row>
-    <row r="133" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P133">
-        <v>1.2145411137317375E-2</v>
-      </c>
-    </row>
-    <row r="134" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P134">
-        <v>3.8274772900244391E-2</v>
-      </c>
-    </row>
-    <row r="135" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P135">
-        <v>2.6281589544913331E-2</v>
-      </c>
-    </row>
-    <row r="136" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P136">
-        <v>1.2294970067232347E-2</v>
-      </c>
-    </row>
-    <row r="137" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P138">
-        <v>-2.2468263860838666E-3</v>
-      </c>
-    </row>
-    <row r="139" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P139">
-        <v>1.5604437999120369E-2</v>
-      </c>
-    </row>
-    <row r="140" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P140">
-        <v>1.5365510642628699E-2</v>
-      </c>
-    </row>
-    <row r="141" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P141">
-        <v>8.6582015620066177E-2</v>
-      </c>
-    </row>
-    <row r="142" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P142">
-        <v>5.763136264049129E-2</v>
-      </c>
-    </row>
-    <row r="143" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P143">
-        <v>3.33030142373546E-2</v>
-      </c>
-    </row>
-    <row r="144" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P144">
-        <v>5.6251972724492894E-2</v>
-      </c>
-    </row>
-    <row r="145" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P145">
-        <v>6.3663567260468512E-2</v>
-      </c>
-    </row>
-    <row r="146" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P146">
-        <v>1.4090508386107037E-2</v>
-      </c>
-    </row>
-    <row r="147" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P147">
-        <v>4.7374259831423071E-3</v>
-      </c>
-    </row>
-    <row r="148" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P148">
-        <v>1.0028614497442079E-2</v>
-      </c>
-    </row>
-    <row r="149" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P149">
-        <v>5.9848377326489399E-2</v>
-      </c>
-    </row>
-    <row r="150" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P150">
-        <v>1.2855568399566919E-2</v>
-      </c>
-    </row>
-    <row r="151" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P151">
-        <v>-2.4547825961910297E-3</v>
-      </c>
-    </row>
-    <row r="152" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P152">
-        <v>7.2783589330160936E-4</v>
-      </c>
-    </row>
-    <row r="153" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P153">
-        <v>-2.3316561477126907E-4</v>
-      </c>
-    </row>
-    <row r="154" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P154">
-        <v>-1.7782642785579839E-3</v>
-      </c>
-    </row>
-    <row r="155" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P155">
-        <v>-1.6958064886536395E-3</v>
-      </c>
-    </row>
-    <row r="156" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P156">
-        <v>-3.5371830566927054E-3</v>
-      </c>
-    </row>
-    <row r="157" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P157">
-        <v>-4.1273357315407821E-4</v>
-      </c>
-    </row>
-    <row r="158" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P158">
-        <v>-3.6644263678953237E-3</v>
-      </c>
-    </row>
-    <row r="159" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P159">
-        <v>-2.6896638816664709E-3</v>
-      </c>
-    </row>
-    <row r="160" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P160">
-        <v>-1.5320946238699396E-3</v>
-      </c>
-    </row>
-    <row r="161" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P161">
-        <v>4.6598296883013091E-2</v>
-      </c>
-    </row>
-    <row r="162" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P162">
-        <v>9.64357312739762E-2</v>
-      </c>
-    </row>
-    <row r="163" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P163">
-        <v>-2.3598575287531176E-4</v>
-      </c>
-    </row>
-    <row r="164" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P164">
-        <v>-7.7557650896842301E-4</v>
-      </c>
-    </row>
-    <row r="165" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P165">
-        <v>-1.2608665653591755E-3</v>
-      </c>
-    </row>
-    <row r="166" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P166">
-        <v>-1.1649411995218184E-4</v>
-      </c>
-    </row>
-    <row r="167" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P167">
-        <v>3.4712068307007904E-4</v>
-      </c>
-    </row>
-    <row r="168" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P168">
-        <v>-3.1834146498117555E-3</v>
-      </c>
-    </row>
-    <row r="169" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P169">
-        <v>-4.3807487534813783E-3</v>
-      </c>
-    </row>
-    <row r="170" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P170">
-        <v>-3.9341533994541322E-5</v>
-      </c>
-    </row>
-    <row r="171" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P171">
-        <v>9.4016846028448509E-3</v>
-      </c>
-    </row>
-    <row r="172" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P172">
-        <v>2.935081281181251E-4</v>
-      </c>
-    </row>
-    <row r="173" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P173">
-        <v>-9.2345875253529996E-5</v>
-      </c>
-    </row>
-    <row r="174" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P174">
-        <v>-1.4362096441111749E-3</v>
-      </c>
-    </row>
-    <row r="175" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P175">
-        <v>-4.190905261172051E-3</v>
-      </c>
-    </row>
-    <row r="176" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P176">
-        <v>-3.4007894761334256E-3</v>
-      </c>
-    </row>
-    <row r="177" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P177">
-        <v>1.7646505721068073E-2</v>
-      </c>
-    </row>
-    <row r="178" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P178">
-        <v>9.2818600293314013E-3</v>
-      </c>
-    </row>
-    <row r="179" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P179">
-        <v>8.1841845185364193E-3</v>
-      </c>
-    </row>
-    <row r="180" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P180">
-        <v>-2.1900944957597979E-4</v>
-      </c>
-    </row>
-    <row r="181" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P181">
-        <v>-1.5768273573901759E-3</v>
-      </c>
-    </row>
-    <row r="182" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P182">
-        <v>-2.4244855338995119E-4</v>
-      </c>
-    </row>
-    <row r="183" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P183">
-        <v>-3.915954397678556E-4</v>
-      </c>
-    </row>
-    <row r="184" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P184">
-        <v>-3.2185511336744188E-3</v>
-      </c>
-    </row>
-    <row r="185" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P185">
-        <v>-1.4706636379356874E-3</v>
-      </c>
-    </row>
-    <row r="186" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P186">
-        <v>-1.4880780194814758E-4</v>
-      </c>
-    </row>
-    <row r="187" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P187">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P188">
-        <v>-9.4666062118387018E-5</v>
-      </c>
-    </row>
-    <row r="189" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P189">
-        <v>-7.1410924496595474E-4</v>
-      </c>
-    </row>
-    <row r="190" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P190">
-        <v>-1.3090782753867325E-3</v>
-      </c>
-    </row>
-    <row r="191" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P191">
-        <v>-2.2332093636031614E-3</v>
-      </c>
-    </row>
-    <row r="192" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P192">
-        <v>-9.663309701066769E-4</v>
-      </c>
-    </row>
-    <row r="193" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P193">
-        <v>9.64357312739762E-2</v>
-      </c>
-    </row>
-    <row r="194" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P194">
-        <v>-3.52720553865149E-3</v>
-      </c>
-    </row>
-    <row r="195" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P195">
-        <v>-3.7533470591141205E-3</v>
-      </c>
-    </row>
-    <row r="196" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P196">
-        <v>1.7914644120579304E-2</v>
-      </c>
-    </row>
-    <row r="197" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P197">
-        <v>5.2666227185484971E-3</v>
-      </c>
-    </row>
-    <row r="198" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P198">
-        <v>-1.3609417330406881E-4</v>
-      </c>
-    </row>
-    <row r="199" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P199">
-        <v>-7.2099648268331151E-4</v>
-      </c>
-    </row>
-    <row r="200" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P200">
-        <v>-9.1248229043994211E-4</v>
-      </c>
-    </row>
-    <row r="201" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P201">
-        <v>3.487798833354816E-4</v>
+        <f t="shared" si="7"/>
+        <v>6.2918088667783478E-2</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="8"/>
+        <v>2.0995993570025795E-2</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="9"/>
+        <v>-1.8387036545310265E-2</v>
+      </c>
+      <c r="S51">
+        <f t="shared" si="10"/>
+        <v>-6.4114716057275478E-2</v>
+      </c>
+      <c r="T51">
+        <v>6.2918088667783478E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T52">
+        <v>3.2508149939565856E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T53">
+        <v>2.1043259798642189E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T54">
+        <v>2.5735393955768515E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T55">
+        <v>2.5041433288870207E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T56">
+        <v>3.1579057277381195E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T57">
+        <v>2.1105078438752756E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T58">
+        <v>4.2746368228789522E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T59">
+        <v>4.9022919798882958E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T60">
+        <v>2.4262351864922094E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T61">
+        <v>0.12135476446063809</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T62">
+        <v>0.19462539983402016</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T63">
+        <v>2.014080477005975E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T64">
+        <v>2.272990605577907E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T65">
+        <v>2.5239404415376532E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T66">
+        <v>2.0228151420150886E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T67">
+        <v>2.2522132716915388E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T68">
+        <v>3.4168515287353984E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T69">
+        <v>4.2020974505712183E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T70">
+        <v>2.4879035441013775E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T71">
+        <v>6.5419939729356558E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T72">
+        <v>2.1296845654285135E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T73">
+        <v>2.0080749628297645E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T74">
+        <v>2.300599096317435E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T75">
+        <v>3.0112019276935298E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T76">
+        <v>2.8831662934572178E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T77">
+        <v>8.1101565468419068E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T78">
+        <v>6.537787966180042E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T79">
+        <v>6.5360473077797132E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T80">
+        <v>1.948343377366657E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T81">
+        <v>2.1503651490044406E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T82">
+        <v>1.9826184079423603E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T83">
+        <v>2.4372480930464624E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T84">
+        <v>3.274535318825722E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T85">
+        <v>2.4780335216514127E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T86">
+        <v>2.1287907976826448E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T87">
+        <v>2.0000763321786352E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T88">
+        <v>2.1163845872799181E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T89">
+        <v>2.3154876287323489E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T90">
+        <v>2.4495554081397253E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T91">
+        <v>4.3371570682820382E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T92">
+        <v>3.3172268728661747E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T93">
+        <v>0.19462539983402016</v>
+      </c>
+    </row>
+    <row r="94" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T94">
+        <v>2.5918817119671145E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T95">
+        <v>3.3789758709641737E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T96">
+        <v>8.1101565468419068E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T97">
+        <v>4.8135743022353572E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T98">
+        <v>2.0498551081816752E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T99">
+        <v>3.3118267242638666E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T100">
+        <v>2.2743625385953203E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T101">
+        <v>2.0995993570025795E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T102">
+        <v>-1.9729464115574635E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T103">
+        <v>1.8575172689460628E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T104">
+        <v>1.2788811955220636E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T105">
+        <v>3.8474988008721844E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T106">
+        <v>4.4797936830104135E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T107">
+        <v>-5.5215578111071917E-3</v>
+      </c>
+    </row>
+    <row r="108" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T108">
+        <v>7.692904115134791E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T109">
+        <v>7.4798978912767433E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T110">
+        <v>-3.6692677631542381E-3</v>
+      </c>
+    </row>
+    <row r="111" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T111">
+        <v>-5.7974275320902269E-3</v>
+      </c>
+    </row>
+    <row r="112" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T112">
+        <v>1.7370760288235365E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T113">
+        <v>-1.346242892093219E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T114">
+        <v>2.5096426123531912E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T115">
+        <v>2.1743891058629838E-3</v>
+      </c>
+    </row>
+    <row r="116" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T116">
+        <v>-1.5489445105410171E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T117">
+        <v>-1.7891556142840215E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T118">
+        <v>6.9746084285572607E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T119">
+        <v>5.5844603815875971E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T120">
+        <v>-7.7784102638954744E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T121">
+        <v>-3.861891331705003E-3</v>
+      </c>
+    </row>
+    <row r="122" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T122">
+        <v>-1.9044758120281946E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T123">
+        <v>-1.7906882874632379E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T124">
+        <v>2.1982093128980473E-4</v>
+      </c>
+    </row>
+    <row r="125" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T125">
+        <v>4.1783883336980687E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T126">
+        <v>4.0992616367389823E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T127">
+        <v>3.3163355936990713E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T128">
+        <v>-1.21434688816352E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T129">
+        <v>4.4183474939762157E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T130">
+        <v>1.8827199481641466E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T131">
+        <v>-7.5366891510530998E-4</v>
+      </c>
+    </row>
+    <row r="132" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T132">
+        <v>-1.3634575264492632E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T133">
+        <v>-3.7868428118018604E-3</v>
+      </c>
+    </row>
+    <row r="134" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T134">
+        <v>2.2342518951125157E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T135">
+        <v>1.0349335595794096E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T136">
+        <v>-3.637283881886888E-3</v>
+      </c>
+    </row>
+    <row r="137" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T137">
+        <v>-1.5932253949119235E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T138">
+        <v>-1.8179080335203102E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T139">
+        <v>-3.2781594999886643E-4</v>
+      </c>
+    </row>
+    <row r="140" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T140">
+        <v>-5.6674330649053584E-4</v>
+      </c>
+    </row>
+    <row r="141" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T141">
+        <v>7.0649761670946942E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T142">
+        <v>4.1699108691372055E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T143">
+        <v>1.7370760288235365E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T144">
+        <v>4.0319718775373659E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T145">
+        <v>4.7731313311349277E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T146">
+        <v>-1.8417455630121982E-3</v>
+      </c>
+    </row>
+    <row r="147" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T147">
+        <v>-1.1194827965976928E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T148">
+        <v>-5.9036394516771562E-3</v>
+      </c>
+    </row>
+    <row r="149" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T149">
+        <v>4.3916123377370164E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T150">
+        <v>-3.076685549552316E-3</v>
+      </c>
+    </row>
+    <row r="151" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T151">
+        <v>-1.8387036545310265E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T152">
+        <v>-6.373566004730935E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T153">
+        <v>-6.4696661555382229E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T154">
+        <v>-6.6241760219168944E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T155">
+        <v>-6.6159302429264599E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T156">
+        <v>-6.8000678997303665E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T157">
+        <v>-6.4876229513765038E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T158">
+        <v>-6.8127922308506283E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T159">
+        <v>-6.7153159822277431E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T160">
+        <v>-6.5995590564480899E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T161">
+        <v>-1.7865199057597869E-2</v>
+      </c>
+    </row>
+    <row r="162" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T162">
+        <v>3.197223533336524E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T163">
+        <v>-6.4699481693486272E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T164">
+        <v>-6.5239072449579383E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T165">
+        <v>-6.5724362505970135E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T166">
+        <v>-6.4579990060563142E-2</v>
+      </c>
+    </row>
+    <row r="167" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T167">
+        <v>-6.4116375257540881E-2</v>
+      </c>
+    </row>
+    <row r="168" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T168">
+        <v>-6.7646910590422715E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T169">
+        <v>-6.8844244694092338E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T170">
+        <v>-6.4502837474605501E-2</v>
+      </c>
+    </row>
+    <row r="171" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T171">
+        <v>-5.5061811337766109E-2</v>
+      </c>
+    </row>
+    <row r="172" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T172">
+        <v>-6.4169987812492835E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T173">
+        <v>-6.455584181586449E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T174">
+        <v>-6.5899705584722135E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T175">
+        <v>-6.8654401201783011E-2</v>
+      </c>
+    </row>
+    <row r="176" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T176">
+        <v>-6.7864285416744385E-2</v>
+      </c>
+    </row>
+    <row r="177" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T177">
+        <v>-4.6816990219542887E-2</v>
+      </c>
+    </row>
+    <row r="178" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T178">
+        <v>-5.5181635911279558E-2</v>
+      </c>
+    </row>
+    <row r="179" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T179">
+        <v>-5.6279311422074541E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T180">
+        <v>-6.468250539018694E-2</v>
+      </c>
+    </row>
+    <row r="181" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T181">
+        <v>-6.6040323298001136E-2</v>
+      </c>
+    </row>
+    <row r="182" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T182">
+        <v>-6.4705944494000911E-2</v>
+      </c>
+    </row>
+    <row r="183" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T183">
+        <v>-6.4855091380378815E-2</v>
+      </c>
+    </row>
+    <row r="184" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T184">
+        <v>-6.7682047074285379E-2</v>
+      </c>
+    </row>
+    <row r="185" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T185">
+        <v>-6.5934159578546647E-2</v>
+      </c>
+    </row>
+    <row r="186" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T186">
+        <v>-6.4612303742559107E-2</v>
+      </c>
+    </row>
+    <row r="187" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T187">
+        <v>-6.446349594061096E-2</v>
+      </c>
+    </row>
+    <row r="188" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T188">
+        <v>-6.4558162002729347E-2</v>
+      </c>
+    </row>
+    <row r="189" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T189">
+        <v>-6.5177605185576915E-2</v>
+      </c>
+    </row>
+    <row r="190" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T190">
+        <v>-6.5772574215997692E-2</v>
+      </c>
+    </row>
+    <row r="191" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T191">
+        <v>-6.6696705304214121E-2</v>
+      </c>
+    </row>
+    <row r="192" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T192">
+        <v>-6.5429826910717637E-2</v>
+      </c>
+    </row>
+    <row r="193" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T193">
+        <v>3.197223533336524E-2</v>
+      </c>
+    </row>
+    <row r="194" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T194">
+        <v>-6.799070147926245E-2</v>
+      </c>
+    </row>
+    <row r="195" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T195">
+        <v>-6.821684299972508E-2</v>
+      </c>
+    </row>
+    <row r="196" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T196">
+        <v>-4.6548851820031656E-2</v>
+      </c>
+    </row>
+    <row r="197" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T197">
+        <v>-5.9196873222062463E-2</v>
+      </c>
+    </row>
+    <row r="198" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T198">
+        <v>-6.4599590113915029E-2</v>
+      </c>
+    </row>
+    <row r="199" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T199">
+        <v>-6.5184492423294271E-2</v>
+      </c>
+    </row>
+    <row r="200" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T200">
+        <v>-6.5375978231050902E-2</v>
+      </c>
+    </row>
+    <row r="201" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T201">
+        <v>-6.4114716057275478E-2</v>
       </c>
     </row>
   </sheetData>
@@ -27806,7 +28620,7 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1048576">
     <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
-      <formula>$S$2</formula>
+      <formula>$W$2</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HW1/results/v1/DecisionTreeClassifier/random/calculationsAndCharts.xlsx
+++ b/HW1/results/v1/DecisionTreeClassifier/random/calculationsAndCharts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\donts\Documents\Files\AutoML\HW1\repo\AutoML\HW1\results\v1\DecisionTreeClassifier\random\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1641F4-3E62-496A-B647-5FFD834029A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655597FB-12B3-4697-9EC1-2C3DAE5B77A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="4" xr2:uid="{5557167C-0605-4BD0-8448-1B4F42F20281}"/>
   </bookViews>
@@ -27,12 +27,20 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$L$1</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$L$2:$L$51</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$M$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$M$2:$M$51</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$N$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$N$2:$N$51</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$O$1</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$O$2:$O$51</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$M$1</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$M$2:$M$51</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$N$1</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$N$2:$N$51</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$O$1</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$O$2:$O$51</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$L$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$L$2:$L$51</definedName>
     <definedName name="ExternalData_1" localSheetId="3" hidden="1">elevators!$A$1:$V$51</definedName>
     <definedName name="ExternalData_2" localSheetId="2" hidden="1">MagicTelescope!$A$1:$V$51</definedName>
     <definedName name="ExternalData_3" localSheetId="1" hidden="1">mozilla4!$A$1:$V$51</definedName>
@@ -484,6 +492,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFA5A5A5"/>
+      <color rgb="FFFFC000"/>
+      <color rgb="FFED7D31"/>
       <color rgb="FF4472C4"/>
     </mruColors>
   </colors>
@@ -1396,7 +1407,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="ED7D31"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3353,7 +3364,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="4472C4"/>
+                <a:srgbClr val="FFC000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -5309,7 +5320,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="A5A5A5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -5929,22 +5940,22 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.11</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.13</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.15</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -5954,7 +5965,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{08480053-DB8D-41F1-B052-F987FD1A5AF4}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.8</cx:f>
               <cx:v>elevators</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5967,7 +5978,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{088522FA-4E8F-462C-AAA0-FD991C8222DB}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.10</cx:f>
               <cx:v>MagicTelescope</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5980,7 +5991,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{CA1BE64D-B77E-476C-978D-AD7608AE2F16}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:f>_xlchart.v1.12</cx:f>
               <cx:v>mozilla4</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5993,7 +6004,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{41F18BAC-5EC7-4531-80A4-0959B57FBB9F}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.14</cx:f>
               <cx:v>PhishingWebsites</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8923,7 +8934,7 @@
         <cdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F6BEC81-92EE-22A7-BDCC-C8FEB9C83AB3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5370883-14C0-56DD-39F7-54D05090D6D8}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -23646,7 +23657,7 @@
   <dimension ref="A1:AA201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:O51"/>
+      <selection activeCell="Y9" sqref="Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23913,7 +23924,7 @@
         <v>1.8575172689460628E-2</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:T51" si="10">$W$2-F3</f>
+        <f t="shared" ref="S3:S51" si="10">$W$2-F3</f>
         <v>-6.4696661555382229E-2</v>
       </c>
       <c r="T3">
@@ -23926,6 +23937,22 @@
         <f>A37</f>
         <v>36</v>
       </c>
+      <c r="X3">
+        <f>ROUND($W2-X2,4)</f>
+        <v>6.0400000000000002E-2</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" ref="Y3:AA3" si="11">ROUND($W2-Y2,4)</f>
+        <v>0.02</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" si="11"/>
+        <v>-1.5900000000000001E-2</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" si="11"/>
+        <v>-6.4500000000000002E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4">
@@ -23952,7 +23979,7 @@
         <v>0.98386347020235099</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G51" si="11">MAX(C4,G3)</f>
+        <f t="shared" ref="G4:G51" si="12">MAX(C4,G3)</f>
         <v>0.8572899145749423</v>
       </c>
       <c r="H4">
@@ -23972,7 +23999,7 @@
         <v>0.90929936724172711</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4:L51" si="12">X$2-C4</f>
+        <f t="shared" ref="L4:L51" si="13">X$2-C4</f>
         <v>6.1193870605502632E-4</v>
       </c>
       <c r="M4">
@@ -24032,7 +24059,7 @@
         <v>0.98378101241244664</v>
       </c>
       <c r="G5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.8572899145749423</v>
       </c>
       <c r="H5">
@@ -24052,7 +24079,7 @@
         <v>0.90302163854748452</v>
       </c>
       <c r="L5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6.481803065181424E-4</v>
       </c>
       <c r="M5">
@@ -24112,7 +24139,7 @@
         <v>0.98562238898048571</v>
       </c>
       <c r="G6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.8572899145749423</v>
       </c>
       <c r="H6">
@@ -24132,7 +24159,7 @@
         <v>0.89933415667012884</v>
       </c>
       <c r="L6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4.3789115740867635E-3</v>
       </c>
       <c r="M6">
@@ -24192,7 +24219,7 @@
         <v>0.98249793949694708</v>
       </c>
       <c r="G7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.85820946562493883</v>
       </c>
       <c r="H7">
@@ -24212,7 +24239,7 @@
         <v>0.91509182611515105</v>
       </c>
       <c r="L7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-9.8274220970107073E-4</v>
       </c>
       <c r="M7">
@@ -24272,7 +24299,7 @@
         <v>0.98574963229168833</v>
       </c>
       <c r="G8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.85820946562493883</v>
       </c>
       <c r="H8">
@@ -24292,7 +24319,7 @@
         <v>0.88477154764702659</v>
       </c>
       <c r="L8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.9458175705046044E-2</v>
       </c>
       <c r="M8">
@@ -24358,7 +24385,7 @@
         <v>0.98477486980545947</v>
       </c>
       <c r="G9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.85820946562493883</v>
       </c>
       <c r="H9">
@@ -24378,7 +24405,7 @@
         <v>0.88323843911515199</v>
       </c>
       <c r="L9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.0469358014802763E-2</v>
       </c>
       <c r="M9">
@@ -24445,7 +24472,7 @@
         <v>0.98361730054766294</v>
       </c>
       <c r="G10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.85907546961534109</v>
       </c>
       <c r="H10">
@@ -24465,7 +24492,7 @@
         <v>0.91433577650690001</v>
       </c>
       <c r="L10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-1.848746200103335E-3</v>
       </c>
       <c r="M10">
@@ -24532,7 +24559,7 @@
         <v>0.93548690904077991</v>
       </c>
       <c r="G11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.85907546961534109</v>
       </c>
       <c r="H11">
@@ -24552,7 +24579,7 @@
         <v>0.85789962105727924</v>
       </c>
       <c r="L11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8.0801231264717055E-2</v>
       </c>
       <c r="M11">
@@ -24612,7 +24639,7 @@
         <v>0.8856494746498168</v>
       </c>
       <c r="G12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.85907546961534109</v>
       </c>
       <c r="H12">
@@ -24632,7 +24659,7 @@
         <v>0.80081004487162188</v>
       </c>
       <c r="L12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.1628832784226758</v>
       </c>
       <c r="M12">
@@ -24698,7 +24725,7 @@
         <v>0.98232119167666831</v>
       </c>
       <c r="G13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.85907546961534109</v>
       </c>
       <c r="H13">
@@ -24718,7 +24745,7 @@
         <v>0.91689274864500403</v>
       </c>
       <c r="L13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5.4196462912670107E-4</v>
       </c>
       <c r="M13">
@@ -24785,7 +24812,7 @@
         <v>0.98286078243276143</v>
       </c>
       <c r="G14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.8595299494643045</v>
       </c>
       <c r="H14">
@@ -24805,7 +24832,7 @@
         <v>0.9074519549210297</v>
       </c>
       <c r="L14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-2.3032260490667422E-3</v>
       </c>
       <c r="M14">
@@ -24872,7 +24899,7 @@
         <v>0.98334607248915218</v>
       </c>
       <c r="G15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.8595299494643045</v>
       </c>
       <c r="H15">
@@ -24892,7 +24919,7 @@
         <v>0.91229675850064817</v>
       </c>
       <c r="L15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-7.8461165307852632E-4</v>
       </c>
       <c r="M15">
@@ -24952,7 +24979,7 @@
         <v>0.98220170004374519</v>
       </c>
       <c r="G16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.8595299494643045</v>
       </c>
       <c r="H16">
@@ -24972,7 +24999,7 @@
         <v>0.91716881525688654</v>
       </c>
       <c r="L16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.2578760830598279E-3</v>
       </c>
       <c r="M16">
@@ -25038,7 +25065,7 @@
         <v>0.98173808524072292</v>
       </c>
       <c r="G17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.8595299494643045</v>
       </c>
       <c r="H17">
@@ -25058,7 +25085,7 @@
         <v>0.91683345542502381</v>
       </c>
       <c r="L17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.2438303481543409E-3</v>
       </c>
       <c r="M17">
@@ -25125,7 +25152,7 @@
         <v>0.98526862057360476</v>
       </c>
       <c r="G18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.8595299494643045</v>
       </c>
       <c r="H18">
@@ -25145,7 +25172,7 @@
         <v>0.89089622653133382</v>
       </c>
       <c r="L18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.0239258256944495E-2</v>
       </c>
       <c r="M18">
@@ -25212,19 +25239,19 @@
         <v>0.98646595467727438</v>
       </c>
       <c r="G19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.8595299494643045</v>
       </c>
       <c r="H19">
-        <f t="shared" ref="H19:H51" si="13">MAX(D19,H18)</f>
+        <f t="shared" ref="H19:H51" si="14">MAX(D19,H18)</f>
         <v>0.89748090521312229</v>
       </c>
       <c r="I19">
-        <f t="shared" ref="I19:I51" si="14">MAX(E19,I18)</f>
+        <f t="shared" ref="I19:I51" si="15">MAX(E19,I18)</f>
         <v>0.93735117409875668</v>
       </c>
       <c r="J19">
-        <f t="shared" ref="J19:J51" si="15">MAX(F19,J18)</f>
+        <f t="shared" ref="J19:J51" si="16">MAX(F19,J18)</f>
         <v>0.98646595467727438</v>
       </c>
       <c r="K19">
@@ -25232,7 +25259,7 @@
         <v>0.89238252723042466</v>
       </c>
       <c r="L19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.1540410815589652E-2</v>
       </c>
       <c r="M19">
@@ -25292,19 +25319,19 @@
         <v>0.98212454745778754</v>
       </c>
       <c r="G20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.8595299494643045</v>
       </c>
       <c r="H20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.89748090521312229</v>
       </c>
       <c r="I20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.93735117409875668</v>
       </c>
       <c r="J20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.98646595467727438</v>
       </c>
       <c r="K20">
@@ -25312,7 +25339,7 @@
         <v>0.91347547810638208</v>
       </c>
       <c r="L20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.5921532367426678E-3</v>
       </c>
       <c r="M20">
@@ -25378,19 +25405,19 @@
         <v>0.97268352132094815</v>
       </c>
       <c r="G21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.8595299494643045</v>
       </c>
       <c r="H21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.89748090521312229</v>
       </c>
       <c r="I21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.93735117409875668</v>
       </c>
       <c r="J21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.98646595467727438</v>
       </c>
       <c r="K21">
@@ -25398,7 +25425,7 @@
         <v>0.89124324302475477</v>
       </c>
       <c r="L21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.8622644205879242E-2</v>
       </c>
       <c r="M21">
@@ -25465,19 +25492,19 @@
         <v>0.98179169779567488</v>
       </c>
       <c r="G22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.8595299494643045</v>
       </c>
       <c r="H22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.89748090521312229</v>
       </c>
       <c r="I22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.93735117409875668</v>
       </c>
       <c r="J22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.98646595467727438</v>
       </c>
       <c r="K22">
@@ -25485,7 +25512,7 @@
         <v>0.91743209057236519</v>
       </c>
       <c r="L22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.2813913538127784E-3</v>
       </c>
       <c r="M22">
@@ -25552,19 +25579,19 @@
         <v>0.98217755179904653</v>
       </c>
       <c r="G23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.8595299494643045</v>
       </c>
       <c r="H23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.8975409603548844</v>
       </c>
       <c r="I23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.93735117409875668</v>
       </c>
       <c r="J23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.98646595467727438</v>
       </c>
       <c r="K23">
@@ -25572,7 +25599,7 @@
         <v>0.91754471543691662</v>
       </c>
       <c r="L23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.2949666793167234E-3</v>
       </c>
       <c r="M23">
@@ -25632,19 +25659,19 @@
         <v>0.98352141556790418</v>
       </c>
       <c r="G24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.86010753276914165</v>
       </c>
       <c r="H24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.8975409603548844</v>
       </c>
       <c r="I24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.93735117409875668</v>
       </c>
       <c r="J24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.98646595467727438</v>
       </c>
       <c r="K24">
@@ -25652,7 +25679,7 @@
         <v>0.91391163910223638</v>
       </c>
       <c r="L24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-2.8808093539038904E-3</v>
       </c>
       <c r="M24">
@@ -25712,19 +25739,19 @@
         <v>0.98627611118496505</v>
       </c>
       <c r="G25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.86010753276914165</v>
       </c>
       <c r="H25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.8975409603548844</v>
       </c>
       <c r="I25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.93735117409875668</v>
       </c>
       <c r="J25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.98646595467727438</v>
       </c>
       <c r="K25">
@@ -25732,7 +25759,7 @@
         <v>0.9007390405548874</v>
       </c>
       <c r="L25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.8941897331010722E-3</v>
       </c>
       <c r="M25">
@@ -25792,19 +25819,19 @@
         <v>0.98548599539992643</v>
       </c>
       <c r="G26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.86010753276914165</v>
       </c>
       <c r="H26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.8975409603548844</v>
       </c>
       <c r="I26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.93735117409875668</v>
       </c>
       <c r="J26">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.98646595467727438</v>
       </c>
       <c r="K26">
@@ -25812,7 +25839,7 @@
         <v>0.90129922298274678</v>
       </c>
       <c r="L26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.9349675485790261E-3</v>
       </c>
       <c r="M26">
@@ -25872,19 +25899,19 @@
         <v>0.96443870020272493</v>
       </c>
       <c r="G27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.86010753276914165</v>
       </c>
       <c r="H27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.8975409603548844</v>
       </c>
       <c r="I27">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.93735117409875668</v>
       </c>
       <c r="J27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.98646595467727438</v>
       </c>
       <c r="K27">
@@ -25892,7 +25919,7 @@
         <v>0.87135394883695028</v>
       </c>
       <c r="L27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5.7228126831115889E-2</v>
       </c>
       <c r="M27">
@@ -25952,19 +25979,19 @@
         <v>0.9728033458944616</v>
       </c>
       <c r="G28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.86010753276914165</v>
       </c>
       <c r="H28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.8975409603548844</v>
       </c>
       <c r="I28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.93735117409875668</v>
       </c>
       <c r="J28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.98646595467727438</v>
       </c>
       <c r="K28">
@@ -25972,7 +25999,7 @@
         <v>0.89335410857250475</v>
       </c>
       <c r="L28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.8622644205879242E-2</v>
       </c>
       <c r="M28">
@@ -26032,19 +26059,19 @@
         <v>0.97390102140525658</v>
       </c>
       <c r="G29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.86010753276914165</v>
       </c>
       <c r="H29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.8975409603548844</v>
       </c>
       <c r="I29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.93735117409875668</v>
       </c>
       <c r="J29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.98646595467727438</v>
       </c>
       <c r="K29">
@@ -26052,7 +26079,7 @@
         <v>0.87890448629725415</v>
       </c>
       <c r="L29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4.1209271580282425E-2</v>
       </c>
       <c r="M29">
@@ -26112,19 +26139,19 @@
         <v>0.98230421537336898</v>
       </c>
       <c r="G30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.86010753276914165</v>
       </c>
       <c r="H30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.89813827620951547</v>
       </c>
       <c r="I30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.93735117409875668</v>
       </c>
       <c r="J30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.98646595467727438</v>
       </c>
       <c r="K30">
@@ -26132,7 +26159,7 @@
         <v>0.90928489482023789</v>
       </c>
       <c r="L30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-6.7585378128875995E-4</v>
       </c>
       <c r="M30">
@@ -26192,19 +26219,19 @@
         <v>0.98366203328118318</v>
       </c>
       <c r="G31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.86010753276914165</v>
       </c>
       <c r="H31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.89813827620951547</v>
       </c>
       <c r="I31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.93735117409875668</v>
       </c>
       <c r="J31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.98646595467727438</v>
       </c>
       <c r="K31">
@@ -26212,7 +26239,7 @@
         <v>0.91438532188480792</v>
       </c>
       <c r="L31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-2.159093451386318E-3</v>
       </c>
       <c r="M31">
@@ -26272,19 +26299,19 @@
         <v>0.98232765447718295</v>
       </c>
       <c r="G32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.86010753276914165</v>
       </c>
       <c r="H32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.89813827620951547</v>
       </c>
       <c r="I32">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.93735117409875668</v>
       </c>
       <c r="J32">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.98646595467727438</v>
       </c>
       <c r="K32">
@@ -26292,7 +26319,7 @@
         <v>0.91699891881421303</v>
       </c>
       <c r="L32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6.105137870013877E-4</v>
       </c>
       <c r="M32">
@@ -26352,19 +26379,19 @@
         <v>0.98247680136356086</v>
       </c>
       <c r="G33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.86010753276914165</v>
       </c>
       <c r="H33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.89813827620951547</v>
       </c>
       <c r="I33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.93735117409875668</v>
       </c>
       <c r="J33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.98646595467727438</v>
       </c>
       <c r="K33">
@@ -26372,7 +26399,7 @@
         <v>0.91395041440491542</v>
       </c>
       <c r="L33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-1.4403509931616432E-3</v>
       </c>
       <c r="M33">
@@ -26432,19 +26459,19 @@
         <v>0.98530375705746742</v>
       </c>
       <c r="G34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.86010753276914165</v>
       </c>
       <c r="H34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.89813827620951547</v>
       </c>
       <c r="I34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.93735117409875668</v>
       </c>
       <c r="J34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.98646595467727438</v>
       </c>
       <c r="K34">
@@ -26452,7 +26479,7 @@
         <v>0.9050389875682715</v>
       </c>
       <c r="L34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.5300780266009903E-3</v>
       </c>
       <c r="M34">
@@ -26512,19 +26539,19 @@
         <v>0.98355586956172869</v>
       </c>
       <c r="G35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.86010753276914165</v>
       </c>
       <c r="H35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.89813827620951547</v>
       </c>
       <c r="I35">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.93735117409875668</v>
       </c>
       <c r="J35">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.98646595467727438</v>
       </c>
       <c r="K35">
@@ -26532,7 +26559,7 @@
         <v>0.91071651817152954</v>
       </c>
       <c r="L35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-1.96973055509575E-3</v>
       </c>
       <c r="M35">
@@ -26592,19 +26619,19 @@
         <v>0.98223401372574115</v>
       </c>
       <c r="G36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.86010753276914165</v>
       </c>
       <c r="H36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.89813827620951547</v>
       </c>
       <c r="I36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.93735117409875668</v>
       </c>
       <c r="J36">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.98646595467727438</v>
       </c>
       <c r="K36">
@@ -26612,7 +26639,7 @@
         <v>0.91436015862858233</v>
       </c>
       <c r="L36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-3.8710150192611259E-4</v>
       </c>
       <c r="M36">
@@ -26672,19 +26699,19 @@
         <v>0.982085205923793</v>
       </c>
       <c r="G37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.86010753276914165</v>
       </c>
       <c r="H37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.89813827620951547</v>
       </c>
       <c r="I37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.93735117409875668</v>
       </c>
       <c r="J37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.98646595467727438</v>
       </c>
       <c r="K37">
@@ -26692,7 +26719,7 @@
         <v>0.91762170998318204</v>
       </c>
       <c r="L37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M37">
@@ -26752,19 +26779,19 @@
         <v>0.98217987198591139</v>
       </c>
       <c r="G38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.86010753276914165</v>
       </c>
       <c r="H38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.89813827620951547</v>
       </c>
       <c r="I38">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.93735117409875668</v>
       </c>
       <c r="J38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.98646595467727438</v>
       </c>
       <c r="K38">
@@ -26772,7 +26799,7 @@
         <v>0.91734352762335281</v>
       </c>
       <c r="L38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.2911393365057098E-3</v>
       </c>
       <c r="M38">
@@ -26832,19 +26859,19 @@
         <v>0.98279931516875896</v>
       </c>
       <c r="G39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.86010753276914165</v>
       </c>
       <c r="H39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.89813827620951547</v>
       </c>
       <c r="I39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.93735117409875668</v>
       </c>
       <c r="J39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.98646595467727438</v>
       </c>
       <c r="K39">
@@ -26852,7 +26879,7 @@
         <v>0.91329471522980876</v>
       </c>
       <c r="L39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-7.3646270619875942E-4</v>
       </c>
       <c r="M39">
@@ -26912,19 +26939,19 @@
         <v>0.98339428419917974</v>
       </c>
       <c r="G40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.86010753276914165</v>
       </c>
       <c r="H40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.89813827620951547</v>
       </c>
       <c r="I40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.93735117409875668</v>
       </c>
       <c r="J40">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.98646595467727438</v>
       </c>
       <c r="K40">
@@ -26932,7 +26959,7 @@
         <v>0.91201689440091749</v>
       </c>
       <c r="L40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.8680392022051313E-3</v>
       </c>
       <c r="M40">
@@ -26992,19 +27019,19 @@
         <v>0.98431841528739616</v>
       </c>
       <c r="G41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.86010753276914165</v>
       </c>
       <c r="H41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.89813827620951547</v>
       </c>
       <c r="I41">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.93735117409875668</v>
       </c>
       <c r="J41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.98646595467727438</v>
       </c>
       <c r="K41">
@@ -27012,7 +27039,7 @@
         <v>0.88579197605260118</v>
       </c>
       <c r="L41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.9599322104825845E-2</v>
       </c>
       <c r="M41">
@@ -27072,19 +27099,19 @@
         <v>0.98305153689389968</v>
       </c>
       <c r="G42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.86010753276914165</v>
       </c>
       <c r="H42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.89813827620951547</v>
       </c>
       <c r="I42">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.93735117409875668</v>
       </c>
       <c r="J42">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.98646595467727438</v>
       </c>
       <c r="K42">
@@ -27092,7 +27119,7 @@
         <v>0.89723809715482727</v>
       </c>
       <c r="L42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.1697914236158957E-2</v>
       </c>
       <c r="M42">
@@ -27152,19 +27179,19 @@
         <v>0.8856494746498168</v>
       </c>
       <c r="G43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.86010753276914165</v>
       </c>
       <c r="H43">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.89813827620951547</v>
       </c>
       <c r="I43">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.93735117409875668</v>
       </c>
       <c r="J43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.98646595467727438</v>
       </c>
       <c r="K43">
@@ -27172,7 +27199,7 @@
         <v>0.80081004487162188</v>
       </c>
       <c r="L43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.1628832784226758</v>
       </c>
       <c r="M43">
@@ -27232,19 +27259,19 @@
         <v>0.98561241146244449</v>
       </c>
       <c r="G44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.86010753276914165</v>
       </c>
       <c r="H44">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.89813827620951547</v>
       </c>
       <c r="I44">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.93735117409875668</v>
       </c>
       <c r="J44">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.98646595467727438</v>
       </c>
       <c r="K44">
@@ -27252,7 +27279,7 @@
         <v>0.90268517295608297</v>
       </c>
       <c r="L44">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.1033271246695397E-3</v>
       </c>
       <c r="M44">
@@ -27312,19 +27339,19 @@
         <v>0.98583855298290712</v>
       </c>
       <c r="G45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.86010753276914165</v>
       </c>
       <c r="H45">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.89813827620951547</v>
       </c>
       <c r="I45">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.93735117409875668</v>
       </c>
       <c r="J45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.98646595467727438</v>
       </c>
       <c r="K45">
@@ -27332,7 +27359,7 @@
         <v>0.89780449301188103</v>
       </c>
       <c r="L45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5.569652295993599E-3</v>
       </c>
       <c r="M45">
@@ -27392,19 +27419,19 @@
         <v>0.9641705618032137</v>
       </c>
       <c r="G46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.86010753276914165</v>
       </c>
       <c r="H46">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.89813827620951547</v>
       </c>
       <c r="I46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.93735117409875668</v>
       </c>
       <c r="J46">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.98646595467727438</v>
       </c>
       <c r="K46">
@@ -27412,7 +27439,7 @@
         <v>0.8805333579552892</v>
       </c>
       <c r="L46">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5.5247453458252438E-2</v>
       </c>
       <c r="M46">
@@ -27472,19 +27499,19 @@
         <v>0.97681858320524451</v>
       </c>
       <c r="G47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.86010753276914165</v>
       </c>
       <c r="H47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.89813827620951547</v>
       </c>
       <c r="I47">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.93735117409875668</v>
       </c>
       <c r="J47">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.98646595467727438</v>
       </c>
       <c r="K47">
@@ -27492,7 +27519,7 @@
         <v>0.90164816918177659</v>
       </c>
       <c r="L47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.5755134803363333E-2</v>
       </c>
       <c r="M47">
@@ -27552,19 +27579,19 @@
         <v>0.98222130009709707</v>
       </c>
       <c r="G48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.86010753276914165</v>
       </c>
       <c r="H48">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.89813827620951547</v>
       </c>
       <c r="I48">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.93735117409875668</v>
       </c>
       <c r="J48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.98646595467727438</v>
       </c>
       <c r="K48">
@@ -27572,7 +27599,7 @@
         <v>0.9150141429204236</v>
       </c>
       <c r="L48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.9960166865027347E-5</v>
       </c>
       <c r="M48">
@@ -27632,19 +27659,19 @@
         <v>0.98280620240647631</v>
       </c>
       <c r="G49">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.86010753276914165</v>
       </c>
       <c r="H49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.89813827620951547</v>
       </c>
       <c r="I49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.93735117409875668</v>
       </c>
       <c r="J49">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.98646595467727438</v>
       </c>
       <c r="K49">
@@ -27652,7 +27679,7 @@
         <v>0.8966183257989131</v>
       </c>
       <c r="L49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.1768651972416833E-2</v>
       </c>
       <c r="M49">
@@ -27712,19 +27739,19 @@
         <v>0.98299768821423295</v>
       </c>
       <c r="G50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.86010753276914165</v>
       </c>
       <c r="H50">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.89813827620951547</v>
       </c>
       <c r="I50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.93735117409875668</v>
       </c>
       <c r="J50">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.98646595467727438</v>
       </c>
       <c r="K50">
@@ -27732,7 +27759,7 @@
         <v>0.91465230458932634</v>
       </c>
       <c r="L50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-2.8083265978713357E-3</v>
       </c>
       <c r="M50">
@@ -27792,19 +27819,19 @@
         <v>0.98173642604045752</v>
       </c>
       <c r="G51">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.86010753276914165</v>
       </c>
       <c r="H51">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.89813827620951547</v>
       </c>
       <c r="I51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.93735117409875668</v>
       </c>
       <c r="J51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.98646595467727438</v>
       </c>
       <c r="K51">
@@ -27812,7 +27839,7 @@
         <v>0.91726862757437622</v>
       </c>
       <c r="L51">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.5231020998391918E-3</v>
       </c>
       <c r="M51">

--- a/HW1/results/v1/DecisionTreeClassifier/random/calculationsAndCharts.xlsx
+++ b/HW1/results/v1/DecisionTreeClassifier/random/calculationsAndCharts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\donts\Documents\Files\AutoML\HW1\repo\AutoML\HW1\results\v1\DecisionTreeClassifier\random\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655597FB-12B3-4697-9EC1-2C3DAE5B77A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DBA24F1-F4C7-437A-A5AC-F82E3B69DE41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="4" xr2:uid="{5557167C-0605-4BD0-8448-1B4F42F20281}"/>
   </bookViews>
@@ -27,20 +27,12 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$L$1</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$L$2:$L$51</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$M$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$M$2:$M$51</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$N$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$N$2:$N$51</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$O$1</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$O$2:$O$51</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$M$1</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$M$2:$M$51</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$N$1</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$N$2:$N$51</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$O$1</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$O$2:$O$51</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$L$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$L$2:$L$51</definedName>
     <definedName name="ExternalData_1" localSheetId="3" hidden="1">elevators!$A$1:$V$51</definedName>
     <definedName name="ExternalData_2" localSheetId="2" hidden="1">MagicTelescope!$A$1:$V$51</definedName>
     <definedName name="ExternalData_3" localSheetId="1" hidden="1">mozilla4!$A$1:$V$51</definedName>
@@ -425,7 +417,307 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="39">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -5940,22 +6232,22 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.11</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.13</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.15</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -5965,7 +6257,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{08480053-DB8D-41F1-B052-F987FD1A5AF4}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>elevators</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5978,7 +6270,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{088522FA-4E8F-462C-AAA0-FD991C8222DB}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.10</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>MagicTelescope</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5991,7 +6283,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{CA1BE64D-B77E-476C-978D-AD7608AE2F16}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.12</cx:f>
+              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v>mozilla4</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6004,7 +6296,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{41F18BAC-5EC7-4531-80A4-0959B57FBB9F}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.14</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>PhishingWebsites</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8934,7 +9226,7 @@
         <cdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5370883-14C0-56DD-39F7-54D05090D6D8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB2451BD-17C2-34DE-13A6-C4F2E33EF4DA}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -9243,7 +9535,7 @@
     <tableColumn id="6" xr3:uid="{EEAD5D32-3E6B-452C-B989-6CB8DBCF116A}" uniqueName="6" name="param_model__max_depth" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{637D9482-394A-4D7F-822C-2E8CA18153BB}" uniqueName="7" name="param_model__min_samples_leaf" queryTableFieldId="7"/>
     <tableColumn id="8" xr3:uid="{2B502AA1-F923-4A87-902C-46F9B5F2DDB6}" uniqueName="8" name="param_model__min_samples_split" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{CA0679ED-33C6-44CC-B2BF-FDA06FFB42B1}" uniqueName="9" name="params" queryTableFieldId="9" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{CA0679ED-33C6-44CC-B2BF-FDA06FFB42B1}" uniqueName="9" name="params" queryTableFieldId="9" dataDxfId="38"/>
     <tableColumn id="10" xr3:uid="{C4B2F8CF-32F2-4F97-97E8-2B880862D3EF}" uniqueName="10" name="split0_test_score" queryTableFieldId="10"/>
     <tableColumn id="11" xr3:uid="{B07C7E56-F766-4622-9127-006E03A2AE4B}" uniqueName="11" name="split1_test_score" queryTableFieldId="11"/>
     <tableColumn id="12" xr3:uid="{6A08D0C3-F8A9-46D7-BFDE-D0AD0C2CE8AC}" uniqueName="12" name="split2_test_score" queryTableFieldId="12"/>
@@ -9274,7 +9566,7 @@
     <tableColumn id="6" xr3:uid="{B53BE787-C40F-4E0E-B387-2FBE008979BB}" uniqueName="6" name="param_model__max_depth" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{3064DE41-129D-479E-BE65-F347EDBCF815}" uniqueName="7" name="param_model__min_samples_leaf" queryTableFieldId="7"/>
     <tableColumn id="8" xr3:uid="{E846947F-986E-49FF-B018-C2BF61415071}" uniqueName="8" name="param_model__min_samples_split" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{907D8A3B-5BC7-411E-A081-1D427E24D29D}" uniqueName="9" name="params" queryTableFieldId="9" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{907D8A3B-5BC7-411E-A081-1D427E24D29D}" uniqueName="9" name="params" queryTableFieldId="9" dataDxfId="37"/>
     <tableColumn id="10" xr3:uid="{AF0A5CEB-450E-435C-951C-DC555DB00DB3}" uniqueName="10" name="split0_test_score" queryTableFieldId="10"/>
     <tableColumn id="11" xr3:uid="{595787E0-D234-46D5-BCB4-2364521EA6B1}" uniqueName="11" name="split1_test_score" queryTableFieldId="11"/>
     <tableColumn id="12" xr3:uid="{C8E57173-FCF7-4109-8965-1CF496ADE0C4}" uniqueName="12" name="split2_test_score" queryTableFieldId="12"/>
@@ -9305,7 +9597,7 @@
     <tableColumn id="6" xr3:uid="{26F2D8DC-4FC3-496A-9E4D-9DDD5489588C}" uniqueName="6" name="param_model__max_depth" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{94358387-69CC-43A2-BBE3-1BF8CCDDC347}" uniqueName="7" name="param_model__min_samples_leaf" queryTableFieldId="7"/>
     <tableColumn id="8" xr3:uid="{AA96A8DA-0F6F-42E0-9BDA-F97AD7AC1291}" uniqueName="8" name="param_model__min_samples_split" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{9056836B-16E6-46C9-A248-8ABC63214E1C}" uniqueName="9" name="params" queryTableFieldId="9" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{9056836B-16E6-46C9-A248-8ABC63214E1C}" uniqueName="9" name="params" queryTableFieldId="9" dataDxfId="36"/>
     <tableColumn id="10" xr3:uid="{7D0B3ABC-B7BA-41DC-B00B-B2386536C7DA}" uniqueName="10" name="split0_test_score" queryTableFieldId="10"/>
     <tableColumn id="11" xr3:uid="{44B0B0C5-E3C0-4428-9504-67628C1DC606}" uniqueName="11" name="split1_test_score" queryTableFieldId="11"/>
     <tableColumn id="12" xr3:uid="{6753DFA0-6056-47F3-8B6A-14EB6B0A4249}" uniqueName="12" name="split2_test_score" queryTableFieldId="12"/>
@@ -9336,7 +9628,7 @@
     <tableColumn id="6" xr3:uid="{AC03BB40-2C61-42B6-A815-177C3A7C99B9}" uniqueName="6" name="param_model__max_depth" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{69731059-7776-4D74-926B-50D30F80DB1D}" uniqueName="7" name="param_model__min_samples_leaf" queryTableFieldId="7"/>
     <tableColumn id="8" xr3:uid="{2BD07CC4-3472-4C69-AD3B-7C4545EF8066}" uniqueName="8" name="param_model__min_samples_split" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{7B85D846-478F-4FC5-8EC5-0A34A7CDA65B}" uniqueName="9" name="params" queryTableFieldId="9" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{7B85D846-478F-4FC5-8EC5-0A34A7CDA65B}" uniqueName="9" name="params" queryTableFieldId="9" dataDxfId="35"/>
     <tableColumn id="10" xr3:uid="{FCE6458A-667C-427C-B3A0-E4527B26F2A9}" uniqueName="10" name="split0_test_score" queryTableFieldId="10"/>
     <tableColumn id="11" xr3:uid="{BA80DCF4-69BD-47E7-A6A3-CF347E10B1DA}" uniqueName="11" name="split1_test_score" queryTableFieldId="11"/>
     <tableColumn id="12" xr3:uid="{EB71F1E1-C6C2-4351-AD84-2EDC6CFCA438}" uniqueName="12" name="split2_test_score" queryTableFieldId="12"/>
@@ -23657,7 +23949,7 @@
   <dimension ref="A1:AA201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="Y9" sqref="Y9"/>
+      <selection activeCell="B37" sqref="A37:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -28626,29 +28918,41 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
       <formula>$G$51</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
       <formula>$H$51</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
       <formula>$I$51</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
       <formula>$J$51</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
       <formula>$W$2</formula>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="top10" dxfId="11" priority="4" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="top10" dxfId="10" priority="3" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="top10" dxfId="9" priority="2" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="top10" dxfId="0" priority="1" percent="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
